--- a/data/COVID-19.xlsx
+++ b/data/COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2186B4E-BDF1-4667-BD6D-BDDB31028041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE85944-6D01-437D-8A8E-66A8635C93F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="749" activeTab="3" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="749" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="14" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Altas Medicas" sheetId="6" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Relacion de Fechas SCU'!$A$1:$N$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Relacion de Fechas SCU'!$A$1:$N$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Survey!$A$1:$G$33</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="178">
   <si>
     <t>Fecha</t>
   </si>
@@ -572,6 +572,12 @@
   </si>
   <si>
     <t>Abril</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Boniato</t>
   </si>
 </sst>
 </file>
@@ -1008,11 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFE099A-7FE0-44E4-8A56-B8067923C050}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1053,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1071,7 +1076,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1094,7 +1099,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1117,7 +1122,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1140,7 +1145,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1163,7 +1168,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1209,7 +1214,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1232,7 +1237,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1278,7 +1283,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1324,7 +1329,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1347,7 +1352,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1370,7 +1375,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1393,7 +1398,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1416,7 +1421,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1439,7 +1444,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1467,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1485,7 +1490,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1508,7 +1513,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1554,7 +1559,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1577,7 +1582,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1600,7 +1605,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1623,7 +1628,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1646,7 +1651,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,7 +1697,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1715,7 +1720,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1738,7 +1743,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1761,7 +1766,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -1784,14 +1789,77 @@
         <v>130</v>
       </c>
     </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="8">
+        <v>33</v>
+      </c>
+      <c r="C34" s="8">
+        <v>44</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="2">
+        <v>43933</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="8">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8">
+        <v>47</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="2">
+        <v>43933</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="8">
+        <v>35</v>
+      </c>
+      <c r="C36" s="8">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="2">
+        <v>43933</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G33" xr:uid="{64ECC433-7F0D-4E61-AD6E-98762584DEA2}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Armando García"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G33" xr:uid="{64ECC433-7F0D-4E61-AD6E-98762584DEA2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1980,19 +2048,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C0B0C-1604-47BA-9C7F-055BA2CD3905}">
-  <dimension ref="A1:O91"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:J91"/>
+      <selection pane="bottomRight" activeCell="B95" sqref="B95:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="15" style="8" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
@@ -2050,7 +2119,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2088,7 +2157,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>16</v>
       </c>
@@ -2124,7 +2193,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -2162,7 +2231,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -2200,7 +2269,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -2238,7 +2307,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -2276,7 +2345,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -2314,7 +2383,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -2388,7 +2457,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -2426,7 +2495,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>5</v>
       </c>
@@ -2464,7 +2533,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>5</v>
       </c>
@@ -2502,7 +2571,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2538,7 +2607,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>21</v>
       </c>
@@ -2573,7 +2642,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>2</v>
       </c>
@@ -2611,7 +2680,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>2</v>
       </c>
@@ -2649,7 +2718,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>13</v>
       </c>
@@ -2685,7 +2754,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>22</v>
       </c>
@@ -2758,7 +2827,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>3</v>
       </c>
@@ -2796,7 +2865,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>4</v>
       </c>
@@ -2832,7 +2901,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>6</v>
       </c>
@@ -2868,7 +2937,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>7</v>
       </c>
@@ -2906,7 +2975,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>8</v>
       </c>
@@ -2942,7 +3011,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>9</v>
       </c>
@@ -2978,7 +3047,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>10</v>
       </c>
@@ -3014,7 +3083,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>12</v>
       </c>
@@ -3051,7 +3120,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>16</v>
       </c>
@@ -3088,7 +3157,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>22</v>
       </c>
@@ -3124,7 +3193,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>11</v>
       </c>
@@ -3161,7 +3230,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>12</v>
       </c>
@@ -3198,7 +3267,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>15</v>
       </c>
@@ -3235,7 +3304,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>15</v>
       </c>
@@ -3272,7 +3341,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>18</v>
       </c>
@@ -3309,7 +3378,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>21</v>
       </c>
@@ -3460,7 +3529,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>7</v>
       </c>
@@ -3499,7 +3568,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>7</v>
       </c>
@@ -3538,7 +3607,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>8</v>
       </c>
@@ -3575,7 +3644,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>9</v>
       </c>
@@ -3612,7 +3681,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>10</v>
       </c>
@@ -3649,7 +3718,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>18</v>
       </c>
@@ -3762,7 +3831,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>14</v>
       </c>
@@ -3799,7 +3868,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>11</v>
       </c>
@@ -3838,7 +3907,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>14</v>
       </c>
@@ -3877,7 +3946,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>17</v>
       </c>
@@ -4070,7 +4139,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>19</v>
       </c>
@@ -4106,7 +4175,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>20</v>
       </c>
@@ -4401,7 +4470,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>27</v>
       </c>
@@ -4434,7 +4503,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>32</v>
       </c>
@@ -4574,7 +4643,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>23</v>
       </c>
@@ -4607,7 +4676,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>24</v>
       </c>
@@ -4640,7 +4709,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>26</v>
       </c>
@@ -4673,7 +4742,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>1</v>
       </c>
@@ -4748,7 +4817,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>23</v>
       </c>
@@ -4781,7 +4850,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>24</v>
       </c>
@@ -4814,7 +4883,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>25</v>
       </c>
@@ -4955,7 +5024,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>30</v>
       </c>
@@ -5052,7 +5121,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>31</v>
       </c>
@@ -5146,7 +5215,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>31</v>
       </c>
@@ -5236,7 +5305,7 @@
       </c>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>32</v>
       </c>
@@ -5298,8 +5367,315 @@
       <c r="L91" s="1"/>
       <c r="N91" s="1"/>
     </row>
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <v>33</v>
+      </c>
+      <c r="B92" s="2">
+        <v>43909</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="8">
+        <v>29</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="8">
+        <v>44</v>
+      </c>
+      <c r="G92" t="s">
+        <v>176</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
+        <v>33</v>
+      </c>
+      <c r="B93" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="8">
+        <v>29</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="8">
+        <v>44</v>
+      </c>
+      <c r="G93" t="s">
+        <v>176</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
+        <v>33</v>
+      </c>
+      <c r="B94" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="8">
+        <v>29</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="8">
+        <v>44</v>
+      </c>
+      <c r="G94" t="s">
+        <v>176</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
+        <v>33</v>
+      </c>
+      <c r="B95" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="8">
+        <v>29</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="8">
+        <v>44</v>
+      </c>
+      <c r="G95" t="s">
+        <v>176</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>34</v>
+      </c>
+      <c r="B96" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="8">
+        <v>65</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" s="8">
+        <v>47</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
+        <v>34</v>
+      </c>
+      <c r="B97" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="8">
+        <v>65</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" s="8">
+        <v>47</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
+        <v>34</v>
+      </c>
+      <c r="B98" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="8">
+        <v>65</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" s="8">
+        <v>47</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
+        <v>35</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="8">
+        <v>12</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" s="8">
+        <v>25</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
+        <v>35</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="8">
+        <v>12</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" s="8">
+        <v>25</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
+        <v>35</v>
+      </c>
+      <c r="B101" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="8">
+        <v>12</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" s="8">
+        <v>25</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N91" xr:uid="{EE19C93D-CC10-4277-8776-D07EDA3FF01D}">
+  <autoFilter ref="A1:N101" xr:uid="{EE19C93D-CC10-4277-8776-D07EDA3FF01D}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Confirmado"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N91">
       <sortCondition ref="B1:B91"/>
     </sortState>
@@ -5957,8 +6333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AE470-D3D4-4B7B-8904-78477B90993B}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A27" sqref="A27:J27"/>

--- a/data/COVID-19.xlsx
+++ b/data/COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE85944-6D01-437D-8A8E-66A8635C93F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA01AFA-0A0A-4E30-AB9D-AD6B34DFCB43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="749" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="749" activeTab="5" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="14" r:id="rId1"/>
@@ -1016,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFE099A-7FE0-44E4-8A56-B8067923C050}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -8632,10 +8632,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E021415-1778-4B30-A8BD-BEBA75CB7A91}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:I20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9496,6 +9496,50 @@
         <v>7</v>
       </c>
       <c r="O20" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>43933</v>
+      </c>
+      <c r="C21" s="17">
+        <v>152</v>
+      </c>
+      <c r="D21" s="17">
+        <v>68</v>
+      </c>
+      <c r="E21" s="17">
+        <v>81</v>
+      </c>
+      <c r="F21" s="17">
+        <v>129</v>
+      </c>
+      <c r="G21" s="17">
+        <v>20</v>
+      </c>
+      <c r="H21" s="17">
+        <v>147</v>
+      </c>
+      <c r="I21" s="17">
+        <v>5</v>
+      </c>
+      <c r="J21" s="17">
+        <v>36</v>
+      </c>
+      <c r="K21" s="17">
+        <v>50</v>
+      </c>
+      <c r="L21" s="17">
+        <v>92</v>
+      </c>
+      <c r="M21" s="17">
+        <v>50</v>
+      </c>
+      <c r="N21" s="17">
+        <v>7</v>
+      </c>
+      <c r="O21" s="17">
         <v>3</v>
       </c>
     </row>

--- a/data/COVID-19.xlsx
+++ b/data/COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA01AFA-0A0A-4E30-AB9D-AD6B34DFCB43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80F82B3-EFAF-4A09-AC27-B388BC91B705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="749" activeTab="5" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="749" activeTab="7" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="178">
   <si>
     <t>Fecha</t>
   </si>
@@ -8634,7 +8634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E021415-1778-4B30-A8BD-BEBA75CB7A91}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -9553,8 +9553,8 @@
   <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH9" sqref="AH9"/>
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9787,6 +9787,9 @@
       <c r="AI2">
         <v>0</v>
       </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -9892,6 +9895,9 @@
       <c r="AI3">
         <v>0</v>
       </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -9997,6 +10003,9 @@
       <c r="AI4">
         <v>20</v>
       </c>
+      <c r="AJ4">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -10102,6 +10111,9 @@
       <c r="AI5">
         <v>0</v>
       </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -10207,6 +10219,9 @@
       <c r="AI6">
         <v>5</v>
       </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -10312,6 +10327,9 @@
       <c r="AI7">
         <v>12</v>
       </c>
+      <c r="AJ7">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -10417,6 +10435,9 @@
       <c r="AI8">
         <v>0</v>
       </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -10522,6 +10543,9 @@
       <c r="AI9">
         <v>1</v>
       </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -10627,6 +10651,9 @@
       <c r="AI10">
         <v>0</v>
       </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -10732,6 +10759,9 @@
       <c r="AI11">
         <v>0</v>
       </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -10837,6 +10867,9 @@
       <c r="AI12">
         <v>3</v>
       </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -10942,6 +10975,9 @@
       <c r="AI13">
         <v>4</v>
       </c>
+      <c r="AJ13">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -11047,6 +11083,9 @@
       <c r="AI14">
         <v>0</v>
       </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -11152,6 +11191,9 @@
       <c r="AI15">
         <v>2</v>
       </c>
+      <c r="AJ15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -11257,6 +11299,9 @@
       <c r="AI16">
         <v>1</v>
       </c>
+      <c r="AJ16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -11362,6 +11407,9 @@
       <c r="AI17">
         <v>1</v>
       </c>
+      <c r="AJ17">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -11497,7 +11545,7 @@
       </c>
       <c r="AJ18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AK18">
         <f t="shared" si="13"/>
@@ -11764,19 +11812,19 @@
       </c>
       <c r="AJ20">
         <f t="shared" ref="AJ20" si="20">SUM(AI20,AJ18)</f>
-        <v>669</v>
+        <v>726</v>
       </c>
       <c r="AK20">
         <f t="shared" ref="AK20" si="21">SUM(AJ20,AK18)</f>
-        <v>669</v>
+        <v>726</v>
       </c>
       <c r="AL20">
         <f t="shared" ref="AL20" si="22">SUM(AK20,AL18)</f>
-        <v>669</v>
+        <v>726</v>
       </c>
       <c r="AM20">
         <f t="shared" ref="AM20" si="23">SUM(AL20,AM18)</f>
-        <v>669</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -11789,9 +11837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3D19EB-CDBB-4BE3-91BE-933CE717462E}">
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE1" sqref="AE1:AH17"/>
+      <selection pane="topRight" activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11801,7 +11849,7 @@
     <col min="27" max="27" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -11904,8 +11952,11 @@
       <c r="AH1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -12039,8 +12090,12 @@
         <f>IF(EXACT('Por Provincias'!AI2,""),"",SUM('Por Provincias'!AI2,Evolucion!AG2))</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI2">
+        <f>IF(EXACT('Por Provincias'!AJ2,""),"",SUM('Por Provincias'!AJ2,Evolucion!AH2))</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -12175,8 +12230,12 @@
         <f>IF(EXACT('Por Provincias'!AI3,""),"",SUM('Por Provincias'!AI3,Evolucion!AG3))</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI3">
+        <f>IF(EXACT('Por Provincias'!AJ3,""),"",SUM('Por Provincias'!AJ3,Evolucion!AH3))</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -12306,8 +12365,12 @@
         <f>IF(EXACT('Por Provincias'!AI4,""),"",SUM('Por Provincias'!AI4,Evolucion!AG4))</f>
         <v>221</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI4">
+        <f>IF(EXACT('Por Provincias'!AJ4,""),"",SUM('Por Provincias'!AJ4,Evolucion!AH4))</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -12420,8 +12483,12 @@
         <f>IF(EXACT('Por Provincias'!AI5,""),"",SUM('Por Provincias'!AI5,Evolucion!AG5))</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI5">
+        <f>IF(EXACT('Por Provincias'!AJ5,""),"",SUM('Por Provincias'!AJ5,Evolucion!AH5))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -12552,8 +12619,12 @@
         <f>IF(EXACT('Por Provincias'!AI6,""),"",SUM('Por Provincias'!AI6,Evolucion!AG6))</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI6">
+        <f>IF(EXACT('Por Provincias'!AJ6,""),"",SUM('Por Provincias'!AJ6,Evolucion!AH6))</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -12688,8 +12759,12 @@
         <f>IF(EXACT('Por Provincias'!AI7,""),"",SUM('Por Provincias'!AI7,Evolucion!AG7))</f>
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI7">
+        <f>IF(EXACT('Por Provincias'!AJ7,""),"",SUM('Por Provincias'!AJ7,Evolucion!AH7))</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -12820,8 +12895,12 @@
         <f>IF(EXACT('Por Provincias'!AI8,""),"",SUM('Por Provincias'!AI8,Evolucion!AG8))</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI8">
+        <f>IF(EXACT('Por Provincias'!AJ8,""),"",SUM('Por Provincias'!AJ8,Evolucion!AH8))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -12956,8 +13035,12 @@
         <f>IF(EXACT('Por Provincias'!AI9,""),"",SUM('Por Provincias'!AI9,Evolucion!AG9))</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI9">
+        <f>IF(EXACT('Por Provincias'!AJ9,""),"",SUM('Por Provincias'!AJ9,Evolucion!AH9))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -13080,8 +13163,12 @@
         <f>IF(EXACT('Por Provincias'!AI10,""),"",SUM('Por Provincias'!AI10,Evolucion!AG10))</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI10">
+        <f>IF(EXACT('Por Provincias'!AJ10,""),"",SUM('Por Provincias'!AJ10,Evolucion!AH10))</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -13216,8 +13303,12 @@
         <f>IF(EXACT('Por Provincias'!AI11,""),"",SUM('Por Provincias'!AI11,Evolucion!AG11))</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI11">
+        <f>IF(EXACT('Por Provincias'!AJ11,""),"",SUM('Por Provincias'!AJ11,Evolucion!AH11))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -13345,8 +13436,12 @@
         <f>IF(EXACT('Por Provincias'!AI12,""),"",SUM('Por Provincias'!AI12,Evolucion!AG12))</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI12">
+        <f>IF(EXACT('Por Provincias'!AJ12,""),"",SUM('Por Provincias'!AJ12,Evolucion!AH12))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -13474,8 +13569,12 @@
         <f>IF(EXACT('Por Provincias'!AI13,""),"",SUM('Por Provincias'!AI13,Evolucion!AG13))</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI13">
+        <f>IF(EXACT('Por Provincias'!AJ13,""),"",SUM('Por Provincias'!AJ13,Evolucion!AH13))</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -13602,8 +13701,12 @@
         <f>IF(EXACT('Por Provincias'!AI14,""),"",SUM('Por Provincias'!AI14,Evolucion!AG14))</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI14">
+        <f>IF(EXACT('Por Provincias'!AJ14,""),"",SUM('Por Provincias'!AJ14,Evolucion!AH14))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -13729,8 +13832,12 @@
         <f>IF(EXACT('Por Provincias'!AI15,""),"",SUM('Por Provincias'!AI15,Evolucion!AG15))</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI15">
+        <f>IF(EXACT('Por Provincias'!AJ15,""),"",SUM('Por Provincias'!AJ15,Evolucion!AH15))</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -13843,6 +13950,10 @@
         <f>IF(EXACT('Por Provincias'!AI16,""),"",SUM('Por Provincias'!AI16,Evolucion!AG16))</f>
         <v>3</v>
       </c>
+      <c r="AI16">
+        <f>IF(EXACT('Por Provincias'!AJ16,""),"",SUM('Por Provincias'!AJ16,Evolucion!AH16))</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -13957,6 +14068,10 @@
         <f>IF(EXACT('Por Provincias'!AI17,""),"",SUM('Por Provincias'!AI17,Evolucion!AG17))</f>
         <v>9</v>
       </c>
+      <c r="AI17">
+        <f>IF(EXACT('Por Provincias'!AJ17,""),"",SUM('Por Provincias'!AJ17,Evolucion!AH17))</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -14090,6 +14205,10 @@
         <f>IF(EXACT('Por Provincias'!AI18,""),"",SUM('Por Provincias'!AI18,Evolucion!AG18))</f>
         <v>669</v>
       </c>
+      <c r="AI18">
+        <f>IF(EXACT('Por Provincias'!AJ18,""),"",SUM('Por Provincias'!AJ18,Evolucion!AH18))</f>
+        <v>726</v>
+      </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -14191,7 +14310,9 @@
       <c r="AH19" s="2">
         <v>43932</v>
       </c>
-      <c r="AI19" s="2"/>
+      <c r="AI19" s="2">
+        <v>43933</v>
+      </c>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
@@ -14329,6 +14450,10 @@
       <c r="AH20">
         <f t="shared" si="5"/>
         <v>669</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" ref="AI20" si="6">SUM(AI2:AI17)</f>
+        <v>726</v>
       </c>
     </row>
   </sheetData>

--- a/data/COVID-19.xlsx
+++ b/data/COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076882A9-4D89-417E-A454-530D4CC00B12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF74537-7174-4A31-8E51-CF1E46D02A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="749" firstSheet="1" activeTab="5" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="749" activeTab="5" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="14" r:id="rId1"/>
@@ -18,12 +18,14 @@
     <sheet name="Casos SCU" sheetId="11" r:id="rId3"/>
     <sheet name="Relacion de muestras" sheetId="10" r:id="rId4"/>
     <sheet name="Oriente" sheetId="8" r:id="rId5"/>
-    <sheet name="Ingresos SCU" sheetId="12" r:id="rId6"/>
-    <sheet name="Por Provincias" sheetId="5" r:id="rId7"/>
-    <sheet name="Evolucion" sheetId="7" r:id="rId8"/>
+    <sheet name="CasosMunicipios" sheetId="16" r:id="rId6"/>
+    <sheet name="Ingresos SCU" sheetId="12" r:id="rId7"/>
+    <sheet name="Por Provincias" sheetId="5" r:id="rId8"/>
+    <sheet name="Evolucion" sheetId="7" r:id="rId9"/>
+    <sheet name="Recuperados" sheetId="15" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Relacion de Fechas SCU'!$A$1:$N$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Relacion de Fechas SCU'!$A$1:$M$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Survey!$A$1:$G$33</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="189">
   <si>
     <t>Fecha</t>
   </si>
@@ -137,9 +139,6 @@
     <t>Madrid</t>
   </si>
   <si>
-    <t>Songo La Maya</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -500,15 +499,6 @@
     <t>Cienfuegos</t>
   </si>
   <si>
-    <t>Sancti Spiritus</t>
-  </si>
-  <si>
-    <t>Ciego de Avila</t>
-  </si>
-  <si>
-    <t>Camaguey</t>
-  </si>
-  <si>
     <t>Nombre y Apellidos</t>
   </si>
   <si>
@@ -557,15 +547,6 @@
     <t>Día 36</t>
   </si>
   <si>
-    <t>Mes</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
     <t>España</t>
   </si>
   <si>
@@ -582,13 +563,64 @@
   </si>
   <si>
     <t>Asintomática</t>
+  </si>
+  <si>
+    <t>Roberto Frank Estrada Arias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pozo Dulce No. 62 entre Oscar Lucero y Republica Palma Soriano </t>
+  </si>
+  <si>
+    <t>Edilberto Cedeño Fernández</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 2da # 156 % Calle E y Calle F Reparto La Cuba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernesto Martínez Griñán       </t>
+  </si>
+  <si>
+    <t>Trocha 862 ½, % Aguilera y Heredia</t>
+  </si>
+  <si>
+    <t>Kendal Moulot Torres</t>
+  </si>
+  <si>
+    <t>Calle M. Delgado (Rastro) # 164 e/ San Mateo y San Antonio</t>
+  </si>
+  <si>
+    <t>Sintomática</t>
+  </si>
+  <si>
+    <t>Songo - La Maya</t>
+  </si>
+  <si>
+    <t>Sancti Spíritus</t>
+  </si>
+  <si>
+    <t>Ciego de Ávila</t>
+  </si>
+  <si>
+    <t>Camagüey</t>
+  </si>
+  <si>
+    <t>Graves</t>
+  </si>
+  <si>
+    <t>Criticos</t>
+  </si>
+  <si>
+    <t>Día 37</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +649,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -632,7 +675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -640,12 +683,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -694,16 +753,32 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="60% - Énfasis3" xfId="1" builtinId="40"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{03803E7C-D5CB-408C-869D-53F69D93CFD5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1015,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFE099A-7FE0-44E4-8A56-B8067923C050}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1108,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1045,16 +1120,16 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1071,13 +1146,16 @@
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="3">
         <v>43910</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1094,13 +1172,16 @@
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="3">
         <v>43914</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1117,13 +1198,16 @@
         <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="3">
         <v>43917</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1140,13 +1224,16 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="3">
         <v>43917</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1160,21 +1247,24 @@
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="3">
         <v>43917</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -1186,16 +1276,16 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="3">
         <v>43918</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1212,13 +1302,16 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="3">
         <v>43918</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1235,13 +1328,16 @@
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="3">
         <v>43920</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1258,13 +1354,16 @@
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="3">
         <v>43920</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1281,13 +1380,16 @@
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="3">
         <v>43920</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1304,18 +1406,21 @@
         <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="3">
         <v>43920</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -1327,18 +1432,21 @@
         <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="3">
         <v>43921</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -1350,13 +1458,16 @@
         <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="3">
         <v>43921</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1373,13 +1484,16 @@
         <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" s="3">
         <v>43921</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1396,13 +1510,16 @@
         <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="3">
         <v>43921</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1419,18 +1536,21 @@
         <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="3">
         <v>43922</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
@@ -1442,21 +1562,21 @@
         <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="3">
         <v>43922</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -1468,13 +1588,16 @@
         <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="3">
         <v>43922</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1491,21 +1614,21 @@
         <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="3">
         <v>43923</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -1517,21 +1640,21 @@
         <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="3">
         <v>43923</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
@@ -1543,13 +1666,16 @@
         <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="3">
         <v>43923</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1566,13 +1692,16 @@
         <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" s="3">
         <v>43924</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1589,18 +1718,21 @@
         <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="2">
         <v>43925</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="7">
         <v>24</v>
@@ -1612,13 +1744,16 @@
         <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F25" s="2">
         <v>43925</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1635,21 +1770,21 @@
         <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" s="2">
         <v>43925</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H26" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="7">
         <v>26</v>
@@ -1661,21 +1796,21 @@
         <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27" s="2">
         <v>43926</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H27" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="7">
         <v>27</v>
@@ -1687,21 +1822,21 @@
         <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28" s="2">
         <v>43926</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H28" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="7">
         <v>28</v>
@@ -1713,21 +1848,21 @@
         <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2">
         <v>43928</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H29" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="7">
         <v>29</v>
@@ -1739,21 +1874,21 @@
         <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F30" s="2">
         <v>43928</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H30" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="7">
         <v>30</v>
@@ -1765,21 +1900,21 @@
         <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="2">
         <v>43931</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7">
         <v>31</v>
@@ -1791,16 +1926,19 @@
         <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F32" s="2">
         <v>43931</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -1814,16 +1952,19 @@
         <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F33" s="2">
         <v>43932</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1837,18 +1978,21 @@
         <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F34" s="2">
         <v>43933</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="7">
         <v>34</v>
@@ -1860,18 +2004,21 @@
         <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F35" s="2">
         <v>43933</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="7">
         <v>35</v>
@@ -1883,13 +2030,68 @@
         <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="2">
         <v>43933</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="7">
+        <v>36</v>
+      </c>
+      <c r="C37" s="7">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="2">
+        <v>43937</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="7">
+        <v>37</v>
+      </c>
+      <c r="C38" s="7">
+        <v>46</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43937</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1899,15 +2101,519 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228926ED-9DEC-4DA3-841B-7744EBCE86DD}">
+  <dimension ref="A1:AK4"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AK5" sqref="AK5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>3</v>
+      </c>
+      <c r="AA2">
+        <v>9</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>23</v>
+      </c>
+      <c r="AE2">
+        <v>26</v>
+      </c>
+      <c r="AF2">
+        <v>15</v>
+      </c>
+      <c r="AG2">
+        <v>29</v>
+      </c>
+      <c r="AH2">
+        <v>11</v>
+      </c>
+      <c r="AI2">
+        <v>19</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:AK3" si="0">SUM(A3,B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43902</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43903</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43904</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43905</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43906</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43907</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43908</v>
+      </c>
+      <c r="I4" s="2">
+        <v>43909</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43910</v>
+      </c>
+      <c r="K4" s="2">
+        <v>43911</v>
+      </c>
+      <c r="L4" s="2">
+        <v>43912</v>
+      </c>
+      <c r="M4" s="2">
+        <v>43913</v>
+      </c>
+      <c r="N4" s="2">
+        <v>43914</v>
+      </c>
+      <c r="O4" s="2">
+        <v>43915</v>
+      </c>
+      <c r="P4" s="2">
+        <v>43916</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>43917</v>
+      </c>
+      <c r="R4" s="2">
+        <v>43918</v>
+      </c>
+      <c r="S4" s="2">
+        <v>43919</v>
+      </c>
+      <c r="T4" s="2">
+        <v>43920</v>
+      </c>
+      <c r="U4" s="2">
+        <v>43921</v>
+      </c>
+      <c r="V4" s="2">
+        <v>43922</v>
+      </c>
+      <c r="W4" s="2">
+        <v>43923</v>
+      </c>
+      <c r="X4" s="2">
+        <v>43924</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>43925</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>43926</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>43927</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>43928</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>43929</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>43930</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>43931</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>43932</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>43933</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>43934</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>43935</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>43936</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>43937</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C0B0C-1604-47BA-9C7F-055BA2CD3905}">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N83" sqref="N83"/>
+      <selection pane="bottomRight" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,14 +2625,14 @@
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="62.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1953,25 +2659,22 @@
         <v>16</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1982,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -1999,17 +2702,14 @@
       <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K2" t="s">
-        <v>121</v>
-      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -2020,7 +2720,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
@@ -2037,17 +2737,14 @@
       <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K3" t="s">
-        <v>121</v>
-      </c>
+      <c r="J3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -2058,7 +2755,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
@@ -2075,17 +2772,14 @@
       <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K4" t="s">
-        <v>121</v>
-      </c>
+      <c r="J4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -2096,7 +2790,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -2113,28 +2807,25 @@
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K5" t="s">
-        <v>121</v>
-      </c>
+      <c r="J5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -2151,25 +2842,28 @@
       <c r="I6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" s="1">
+        <v>85011327325</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2</v>
       </c>
       <c r="B7" s="3">
-        <v>43905</v>
+        <v>43930</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="D7" s="8">
         <v>14</v>
@@ -2190,24 +2884,27 @@
         <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="L7" s="1">
+        <v>69051907199</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
       <c r="B8" s="3">
-        <v>43911</v>
+        <v>43914</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D8" s="8">
         <v>14</v>
@@ -2228,100 +2925,96 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3">
-        <v>43912</v>
+        <v>43930</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="D9" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="8">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="3">
-        <v>43914</v>
+        <v>43905</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D10" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="8">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
       <c r="B11" s="3">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D11" s="8">
         <v>18</v>
@@ -2342,24 +3035,21 @@
         <v>27</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>3</v>
       </c>
       <c r="B12" s="3">
-        <v>43906</v>
+        <v>43914</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="8">
         <v>18</v>
@@ -2380,24 +3070,21 @@
         <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="3">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="8">
         <v>18</v>
@@ -2418,62 +3105,54 @@
         <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3">
-        <v>43917</v>
+        <v>43909</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="8">
-        <v>45</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>43909</v>
+        <v>43914</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="8">
         <v>10</v>
@@ -2492,24 +3171,21 @@
         <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>4</v>
       </c>
       <c r="B16" s="3">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="8">
         <v>10</v>
@@ -2528,52 +3204,48 @@
         <v>29</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" s="3">
-        <v>43917</v>
+        <v>43910</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="8">
-        <v>77</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H17" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>5</v>
       </c>
@@ -2581,7 +3253,7 @@
         <v>43910</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -2599,19 +3271,16 @@
         <v>20</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>5</v>
       </c>
@@ -2619,7 +3288,7 @@
         <v>43910</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -2637,27 +3306,24 @@
         <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>5</v>
       </c>
       <c r="B20" s="3">
-        <v>43910</v>
+        <v>43917</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -2675,71 +3341,63 @@
         <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F21" s="8">
-        <v>53</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>6</v>
       </c>
       <c r="B22" s="3">
-        <v>43914</v>
+        <v>43918</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" s="8">
         <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="8">
         <v>43</v>
@@ -2752,60 +3410,56 @@
         <v>27</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="3">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="8">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="8">
-        <v>43</v>
-      </c>
-      <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>7</v>
       </c>
       <c r="B24" s="3">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D24" s="8">
         <v>11</v>
@@ -2817,7 +3471,7 @@
         <v>28</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>20</v>
@@ -2826,24 +3480,21 @@
         <v>27</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>7</v>
       </c>
       <c r="B25" s="3">
-        <v>43914</v>
+        <v>43917</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D25" s="8">
         <v>11</v>
@@ -2855,7 +3506,7 @@
         <v>28</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>20</v>
@@ -2864,24 +3515,21 @@
         <v>27</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>7</v>
       </c>
       <c r="B26" s="3">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" s="8">
         <v>11</v>
@@ -2893,7 +3541,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>20</v>
@@ -2902,62 +3550,54 @@
         <v>27</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" s="3">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D27" s="8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="8">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>8</v>
       </c>
       <c r="B28" s="3">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="8">
         <v>5</v>
@@ -2976,25 +3616,22 @@
         <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>8</v>
       </c>
       <c r="B29" s="3">
-        <v>43917</v>
+        <v>43920</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" s="8">
         <v>5</v>
@@ -3013,25 +3650,22 @@
         <v>21</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30" s="3">
-        <v>43920</v>
+        <v>43915</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="8">
         <v>5</v>
@@ -3040,7 +3674,7 @@
         <v>18</v>
       </c>
       <c r="F30" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
@@ -3050,25 +3684,22 @@
         <v>21</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" s="8">
         <v>5</v>
@@ -3087,25 +3718,22 @@
         <v>21</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>43917</v>
+        <v>43920</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D32" s="8">
         <v>5</v>
@@ -3124,25 +3752,22 @@
         <v>21</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" s="3">
-        <v>43920</v>
+        <v>43915</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D33" s="8">
         <v>5</v>
@@ -3151,7 +3776,7 @@
         <v>18</v>
       </c>
       <c r="F33" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
@@ -3161,25 +3786,22 @@
         <v>21</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>10</v>
       </c>
       <c r="B34" s="3">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34" s="8">
         <v>5</v>
@@ -3198,25 +3820,22 @@
         <v>21</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>10</v>
       </c>
       <c r="B35" s="3">
-        <v>43917</v>
+        <v>43920</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D35" s="8">
         <v>5</v>
@@ -3235,25 +3854,22 @@
         <v>21</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" s="3">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" s="8">
         <v>5</v>
@@ -3262,35 +3878,32 @@
         <v>18</v>
       </c>
       <c r="F36" s="8">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>43916</v>
+        <v>43919</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D37" s="8">
         <v>5</v>
@@ -3309,25 +3922,22 @@
         <v>29</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>11</v>
       </c>
       <c r="B38" s="3">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38" s="8">
         <v>5</v>
@@ -3346,68 +3956,62 @@
         <v>29</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" s="3">
-        <v>43920</v>
+        <v>43915</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F39" s="8">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>12</v>
       </c>
       <c r="B40" s="3">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D40" s="8">
         <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F40" s="8">
         <v>33</v>
@@ -3420,31 +4024,28 @@
         <v>27</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>12</v>
       </c>
       <c r="B41" s="3">
-        <v>43916</v>
+        <v>43921</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D41" s="8">
         <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" s="8">
         <v>33</v>
@@ -3457,34 +4058,31 @@
         <v>27</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42" s="3">
-        <v>43921</v>
+        <v>43913</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F42" s="8">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
@@ -3494,31 +4092,28 @@
         <v>27</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>13</v>
       </c>
       <c r="B43" s="3">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" s="8">
         <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F43" s="8">
         <v>29</v>
@@ -3531,31 +4126,28 @@
         <v>27</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>13</v>
       </c>
       <c r="B44" s="3">
-        <v>43910</v>
+        <v>43921</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D44" s="8">
         <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F44" s="8">
         <v>29</v>
@@ -3568,62 +4160,56 @@
         <v>27</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45" s="3">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D45" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F45" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>14</v>
       </c>
       <c r="B46" s="3">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D46" s="8">
         <v>10</v>
@@ -3642,25 +4228,22 @@
         <v>29</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>14</v>
       </c>
       <c r="B47" s="3">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D47" s="8">
         <v>10</v>
@@ -3679,54 +4262,48 @@
         <v>29</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48" s="3">
-        <v>43921</v>
+        <v>43916</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F48" s="8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>15</v>
       </c>
@@ -3734,7 +4311,7 @@
         <v>43916</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D49" s="8">
         <v>8</v>
@@ -3753,27 +4330,24 @@
         <v>27</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N49" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>15</v>
       </c>
       <c r="B50" s="3">
-        <v>43916</v>
+        <v>43921</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D50" s="8">
         <v>8</v>
@@ -3792,36 +4366,33 @@
         <v>27</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N50" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B51" s="3">
-        <v>43921</v>
+        <v>43915</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F51" s="8">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
@@ -3831,27 +4402,24 @@
         <v>27</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N51" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>16</v>
       </c>
       <c r="B52" s="3">
-        <v>43915</v>
+        <v>43900</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D52" s="8">
         <v>10</v>
@@ -3870,27 +4438,24 @@
         <v>27</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N52" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>16</v>
       </c>
       <c r="B53" s="3">
-        <v>43900</v>
+        <v>43922</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D53" s="8">
         <v>10</v>
@@ -3909,72 +4474,66 @@
         <v>27</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N53" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B54" s="3">
-        <v>43922</v>
+        <v>43919</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D54" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F54" s="8">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N54" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>17</v>
       </c>
       <c r="B55" s="3">
-        <v>43919</v>
+        <v>43922</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D55" s="8">
         <v>5</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F55" s="8">
         <v>79</v>
@@ -3987,68 +4546,62 @@
         <v>29</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-    </row>
-    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B56" s="3">
-        <v>43922</v>
+        <v>43916</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D56" s="8">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F56" s="8">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>18</v>
       </c>
       <c r="B57" s="3">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D57" s="8">
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F57" s="8">
         <v>49</v>
@@ -4061,31 +4614,28 @@
         <v>27</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-    </row>
-    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>18</v>
       </c>
       <c r="B58" s="3">
-        <v>43917</v>
+        <v>43922</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D58" s="8">
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F58" s="8">
         <v>49</v>
@@ -4098,36 +4648,32 @@
         <v>27</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-    </row>
-    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
+        <v>19</v>
+      </c>
+      <c r="B59" s="2">
+        <v>43920</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="8">
+        <v>17</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="3">
-        <v>43922</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="8">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F59" s="8">
-        <v>49</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>39</v>
+      </c>
       <c r="H59" s="1" t="s">
         <v>28</v>
       </c>
@@ -4135,25 +4681,22 @@
         <v>27</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>19</v>
       </c>
       <c r="B60" s="2">
-        <v>43920</v>
+        <v>43923</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D60" s="8">
         <v>17</v>
@@ -4171,67 +4714,61 @@
         <v>27</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B61" s="2">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D61" s="8">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F61" s="8">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>20</v>
       </c>
       <c r="B62" s="2">
-        <v>43920</v>
+        <v>43923</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D62" s="8">
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F62" s="8">
         <v>80</v>
@@ -4243,67 +4780,61 @@
         <v>29</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-    </row>
-    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B63" s="2">
-        <v>43923</v>
+        <v>43916</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63" s="8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F63" s="8">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-    </row>
-    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>21</v>
       </c>
       <c r="B64" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D64" s="8">
         <v>12</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F64" s="8">
         <v>18</v>
@@ -4315,31 +4846,28 @@
         <v>27</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>21</v>
       </c>
       <c r="B65" s="2">
-        <v>43910</v>
+        <v>43923</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D65" s="8">
         <v>12</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F65" s="8">
         <v>18</v>
@@ -4351,34 +4879,31 @@
         <v>27</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-    </row>
-    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B66" s="2">
-        <v>43923</v>
+        <v>43915</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="8">
+        <v>23</v>
+      </c>
+      <c r="D66" s="7">
         <v>12</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F66" s="8">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>28</v>
@@ -4387,25 +4912,22 @@
         <v>27</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>22</v>
       </c>
       <c r="B67" s="2">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" s="7">
         <v>12</v>
@@ -4423,25 +4945,22 @@
         <v>27</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>22</v>
       </c>
       <c r="B68" s="2">
-        <v>43913</v>
+        <v>43924</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D68" s="7">
         <v>12</v>
@@ -4459,67 +4978,58 @@
         <v>27</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>23</v>
+      </c>
+      <c r="B69" s="2">
+        <v>43923</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="2">
-        <v>43924</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D69" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="8">
-        <v>29</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="F69" s="7">
+        <v>22</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>23</v>
       </c>
       <c r="B70" s="2">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D70" s="7">
         <v>13</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F70" s="7">
         <v>22</v>
@@ -4528,94 +5038,85 @@
         <v>27</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>23</v>
       </c>
       <c r="B71" s="2">
-        <v>43924</v>
+        <v>43926</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D71" s="7">
         <v>13</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F71" s="7">
         <v>22</v>
       </c>
+      <c r="H71" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="I71" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B72" s="2">
-        <v>43926</v>
+        <v>43923</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D72" s="7">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F72" s="7">
-        <v>22</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>24</v>
       </c>
       <c r="B73" s="2">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D73" s="7">
         <v>43</v>
@@ -4630,25 +5131,22 @@
         <v>27</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>24</v>
       </c>
       <c r="B74" s="2">
-        <v>43924</v>
+        <v>43926</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D74" s="7">
         <v>43</v>
@@ -4659,65 +5157,59 @@
       <c r="F74" s="7">
         <v>77</v>
       </c>
+      <c r="H74" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="I74" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B75" s="2">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D75" s="7">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F75" s="7">
-        <v>77</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>25</v>
       </c>
       <c r="B76" s="2">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D76" s="7">
         <v>25</v>
@@ -4728,57 +5220,55 @@
       <c r="F76" s="7">
         <v>51</v>
       </c>
+      <c r="H76" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="I76" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B77" s="2">
-        <v>43925</v>
+        <v>43930</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D77" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F77" s="7">
-        <v>51</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
+      <c r="M77" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>26</v>
       </c>
@@ -4792,7 +5282,7 @@
         <v>23</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F78" s="7">
         <v>0</v>
@@ -4801,17 +5291,14 @@
         <v>27</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>26</v>
       </c>
@@ -4825,7 +5312,7 @@
         <v>23</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F79" s="7">
         <v>0</v>
@@ -4834,17 +5321,14 @@
         <v>27</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>27</v>
       </c>
@@ -4858,7 +5342,7 @@
         <v>21</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F80" s="7">
         <v>41</v>
@@ -4867,17 +5351,14 @@
         <v>29</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>27</v>
       </c>
@@ -4891,7 +5372,7 @@
         <v>21</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F81" s="7">
         <v>41</v>
@@ -4900,17 +5381,14 @@
         <v>29</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>28</v>
       </c>
@@ -4924,7 +5402,7 @@
         <v>27</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F82" s="7">
         <v>36</v>
@@ -4933,17 +5411,14 @@
         <v>27</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>29</v>
       </c>
@@ -4957,7 +5432,7 @@
         <v>24</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F83" s="7">
         <v>20</v>
@@ -4965,17 +5440,17 @@
       <c r="I83" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="J83" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="K83" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>29</v>
       </c>
@@ -4989,7 +5464,7 @@
         <v>24</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F84" s="7">
         <v>20</v>
@@ -4998,17 +5473,14 @@
         <v>27</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>30</v>
       </c>
@@ -5022,7 +5494,7 @@
         <v>9</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F85" s="7">
         <v>70</v>
@@ -5031,14 +5503,11 @@
         <v>29</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N85" s="1"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>30</v>
       </c>
@@ -5052,7 +5521,7 @@
         <v>9</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F86" s="7">
         <v>70</v>
@@ -5061,14 +5530,11 @@
         <v>29</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>31</v>
       </c>
@@ -5082,7 +5548,7 @@
         <v>12</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F87" s="7">
         <v>55</v>
@@ -5091,14 +5557,11 @@
         <v>27</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>31</v>
       </c>
@@ -5112,7 +5575,7 @@
         <v>12</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F88" s="7">
         <v>55</v>
@@ -5121,14 +5584,11 @@
         <v>27</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>31</v>
       </c>
@@ -5142,7 +5602,7 @@
         <v>12</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F89" s="7">
         <v>55</v>
@@ -5151,14 +5611,11 @@
         <v>27</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N89" s="1"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>32</v>
       </c>
@@ -5181,15 +5638,12 @@
         <v>27</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L90" s="1"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>32</v>
       </c>
@@ -5212,15 +5666,12 @@
         <v>27</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L91" s="1"/>
-      <c r="N91" s="1"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="K91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>32</v>
       </c>
@@ -5243,15 +5694,12 @@
         <v>27</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L92" s="1"/>
-      <c r="N92" s="1"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="K92" s="1"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>33</v>
       </c>
@@ -5271,19 +5719,16 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>33</v>
       </c>
@@ -5303,19 +5748,16 @@
         <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>33</v>
       </c>
@@ -5335,19 +5777,16 @@
         <v>44</v>
       </c>
       <c r="G95" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>33</v>
       </c>
@@ -5367,16 +5806,13 @@
         <v>44</v>
       </c>
       <c r="G96" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5393,7 +5829,7 @@
         <v>65</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F97" s="7">
         <v>47</v>
@@ -5402,10 +5838,7 @@
         <v>27</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5422,7 +5855,7 @@
         <v>65</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F98" s="7">
         <v>47</v>
@@ -5431,10 +5864,7 @@
         <v>27</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -5451,7 +5881,7 @@
         <v>65</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F99" s="7">
         <v>47</v>
@@ -5460,10 +5890,7 @@
         <v>27</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5480,7 +5907,7 @@
         <v>12</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F100" s="7">
         <v>25</v>
@@ -5489,10 +5916,7 @@
         <v>27</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5509,7 +5933,7 @@
         <v>12</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F101" s="7">
         <v>25</v>
@@ -5518,10 +5942,7 @@
         <v>27</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -5538,7 +5959,7 @@
         <v>12</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F102" s="7">
         <v>25</v>
@@ -5547,15 +5968,174 @@
         <v>27</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>37</v>
+      </c>
+      <c r="B103" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="7">
+        <v>35</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103" s="7">
+        <v>46</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>37</v>
+      </c>
+      <c r="B104" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104" s="7">
+        <v>35</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F104" s="7">
+        <v>46</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>37</v>
+      </c>
+      <c r="B105" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="7">
+        <v>35</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F105" s="7">
+        <v>46</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>36</v>
+      </c>
+      <c r="B106" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="7">
+        <v>22</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="7">
+        <v>7</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>36</v>
+      </c>
+      <c r="B107" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="7">
+        <v>22</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="7">
+        <v>7</v>
+      </c>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>36</v>
+      </c>
+      <c r="B108" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="7">
+        <v>22</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="7">
+        <v>7</v>
+      </c>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N102" xr:uid="{EE19C93D-CC10-4277-8776-D07EDA3FF01D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N102">
+  <autoFilter ref="A1:M102" xr:uid="{EE19C93D-CC10-4277-8776-D07EDA3FF01D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M102">
       <sortCondition ref="A1:A102"/>
     </sortState>
   </autoFilter>
@@ -5567,10 +6147,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5E3218-457F-4398-A6C7-EE32CB90DAE2}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5579,7 +6159,7 @@
     <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5587,24 +6167,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3">
         <v>43910</v>
@@ -5626,9 +6212,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3">
         <v>43911</v>
@@ -5651,9 +6237,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3">
         <v>43912</v>
@@ -5676,9 +6262,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3">
         <v>43913</v>
@@ -5701,9 +6287,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3">
         <v>43914</v>
@@ -5726,9 +6312,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3">
         <v>43915</v>
@@ -5751,9 +6337,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3">
         <v>43916</v>
@@ -5776,9 +6362,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3">
         <v>43917</v>
@@ -5801,9 +6387,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3">
         <v>43918</v>
@@ -5826,9 +6412,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3">
         <v>43919</v>
@@ -5851,9 +6437,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3">
         <v>43920</v>
@@ -5876,9 +6462,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3">
         <v>43921</v>
@@ -5901,9 +6487,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3">
         <v>43922</v>
@@ -5926,9 +6512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3">
         <v>43923</v>
@@ -5941,19 +6527,19 @@
         <v>21</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3">
         <v>43924</v>
@@ -5962,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D26" si="2">D15+C16</f>
+        <f t="shared" ref="D16:D29" si="2">D15+C16</f>
         <v>22</v>
       </c>
       <c r="E16">
@@ -5976,9 +6562,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="3">
         <v>43925</v>
@@ -6001,9 +6587,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3">
         <v>43926</v>
@@ -6026,9 +6612,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="3">
         <v>43927</v>
@@ -6044,16 +6630,16 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F26" si="3">D19-E19-G19</f>
+        <f t="shared" ref="F19:F29" si="3">D19-E19-G19</f>
         <v>26</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3">
         <v>43928</v>
@@ -6076,9 +6662,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="3">
         <v>43929</v>
@@ -6101,9 +6687,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3">
         <v>43930</v>
@@ -6116,19 +6702,19 @@
         <v>29</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3">
         <v>43931</v>
@@ -6141,19 +6727,19 @@
         <v>31</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="3">
         <v>43932</v>
@@ -6166,19 +6752,19 @@
         <v>32</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3">
         <v>43933</v>
@@ -6191,19 +6777,19 @@
         <v>35</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3">
         <v>43934</v>
@@ -6224,6 +6810,99 @@
       </c>
       <c r="G26">
         <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43935</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="3">
+        <v>43936</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="3">
+        <v>43937</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="20">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="E29" s="20">
+        <v>4</v>
+      </c>
+      <c r="F29" s="20">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6235,13 +6914,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AE470-D3D4-4B7B-8904-78477B90993B}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28:J28"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6260,10 +6939,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -6944,7 +7623,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D27" si="1">B22-C22-E22</f>
+        <f t="shared" ref="D22:D31" si="1">B22-C22-E22</f>
         <v>183</v>
       </c>
       <c r="E22" s="1">
@@ -7141,7 +7820,8 @@
       <c r="C28" s="1">
         <v>3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
+        <f t="shared" si="1"/>
         <v>184</v>
       </c>
       <c r="E28" s="1">
@@ -7161,6 +7841,90 @@
       </c>
       <c r="J28" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>43935</v>
+      </c>
+      <c r="B29" s="1">
+        <v>282</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+      <c r="E29" s="1">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>43936</v>
+      </c>
+      <c r="B30" s="1">
+        <v>282</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>43937</v>
+      </c>
+      <c r="B31" s="1">
+        <v>186</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7173,10 +7937,10 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7194,63 +7958,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="J1" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -7263,7 +8027,7 @@
         <v>43908</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -7303,7 +8067,7 @@
         <v>43909</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" ref="C4:C17" si="0">IF(EXACT(J4,""),"",SUM(C3+J4))</f>
@@ -7348,7 +8112,7 @@
         <v>43910</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
@@ -7393,7 +8157,7 @@
         <v>43911</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
@@ -7438,7 +8202,7 @@
         <v>43912</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
@@ -7483,7 +8247,7 @@
         <v>43913</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
@@ -7528,7 +8292,7 @@
         <v>43914</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
@@ -7573,7 +8337,7 @@
         <v>43915</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
@@ -7618,7 +8382,7 @@
         <v>43916</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
@@ -7663,7 +8427,7 @@
         <v>43917</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
@@ -7708,7 +8472,7 @@
         <v>43918</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
@@ -7753,7 +8517,7 @@
         <v>43919</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
@@ -7798,7 +8562,7 @@
         <v>43920</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
@@ -7843,7 +8607,7 @@
         <v>43921</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
@@ -7888,7 +8652,7 @@
         <v>43922</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
@@ -7933,7 +8697,7 @@
         <v>43923</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="7">
         <f>IF(EXACT(J18,""),"",SUM(C17+J18))</f>
@@ -7978,7 +8742,7 @@
         <v>43924</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" ref="C19:C26" si="6">IF(EXACT(J19,""),"",SUM(C18+J19))</f>
@@ -8023,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="6"/>
@@ -8068,7 +8832,7 @@
         <v>43926</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="6"/>
@@ -8113,7 +8877,7 @@
         <v>43927</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="6"/>
@@ -8158,7 +8922,7 @@
         <v>43928</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="6"/>
@@ -8203,7 +8967,7 @@
         <v>43929</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="6"/>
@@ -8248,7 +9012,7 @@
         <v>43930</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7">
         <f>IF(EXACT(J25,""),"",SUM(C24+J25))</f>
@@ -8293,7 +9057,7 @@
         <v>43931</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="6"/>
@@ -8338,7 +9102,7 @@
         <v>43932</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" ref="C27:C32" si="7">IF(EXACT(J27,""),"",SUM(C26+J27))</f>
@@ -8383,7 +9147,7 @@
         <v>43933</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="7"/>
@@ -8428,7 +9192,7 @@
         <v>43934</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="7"/>
@@ -8473,97 +9237,142 @@
         <v>43935</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="7" t="str">
+        <v>99</v>
+      </c>
+      <c r="C30" s="7">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="D30" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="D30" s="7">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="E30" s="7" t="str">
+        <v>59</v>
+      </c>
+      <c r="E30" s="7">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F30" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G30" s="7" t="str">
+        <v>35</v>
+      </c>
+      <c r="G30" s="7">
         <f t="shared" si="11"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>43936</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="7" t="str">
+        <v>100</v>
+      </c>
+      <c r="C31" s="7">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="D31" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="E31" s="7" t="str">
+        <v>59</v>
+      </c>
+      <c r="E31" s="7">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F31" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G31" s="7" t="str">
+        <v>35</v>
+      </c>
+      <c r="G31" s="7">
         <f t="shared" si="11"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>43937</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="7" t="str">
+        <v>101</v>
+      </c>
+      <c r="C32" s="7">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="D32" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="E32" s="7" t="str">
+        <v>60</v>
+      </c>
+      <c r="E32" s="7">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F32" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G32" s="7" t="str">
+        <v>37</v>
+      </c>
+      <c r="G32" s="7">
         <f t="shared" si="11"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
+      <c r="J32" s="7">
+        <v>2</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43938</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -8582,11 +9391,661 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6EA103-C62B-46D9-A86B-045D4A02D1EA}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="256" width="11.42578125" style="23"/>
+    <col min="257" max="257" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="258" max="512" width="11.42578125" style="23"/>
+    <col min="513" max="513" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="514" max="768" width="11.42578125" style="23"/>
+    <col min="769" max="769" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="770" max="1024" width="11.42578125" style="23"/>
+    <col min="1025" max="1025" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1280" width="11.42578125" style="23"/>
+    <col min="1281" max="1281" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1536" width="11.42578125" style="23"/>
+    <col min="1537" max="1537" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1792" width="11.42578125" style="23"/>
+    <col min="1793" max="1793" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="1794" max="2048" width="11.42578125" style="23"/>
+    <col min="2049" max="2049" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2304" width="11.42578125" style="23"/>
+    <col min="2305" max="2305" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2560" width="11.42578125" style="23"/>
+    <col min="2561" max="2561" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2816" width="11.42578125" style="23"/>
+    <col min="2817" max="2817" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="2818" max="3072" width="11.42578125" style="23"/>
+    <col min="3073" max="3073" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3328" width="11.42578125" style="23"/>
+    <col min="3329" max="3329" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3584" width="11.42578125" style="23"/>
+    <col min="3585" max="3585" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3840" width="11.42578125" style="23"/>
+    <col min="3841" max="3841" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="3842" max="4096" width="11.42578125" style="23"/>
+    <col min="4097" max="4097" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4352" width="11.42578125" style="23"/>
+    <col min="4353" max="4353" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4608" width="11.42578125" style="23"/>
+    <col min="4609" max="4609" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4864" width="11.42578125" style="23"/>
+    <col min="4865" max="4865" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="4866" max="5120" width="11.42578125" style="23"/>
+    <col min="5121" max="5121" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5376" width="11.42578125" style="23"/>
+    <col min="5377" max="5377" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5632" width="11.42578125" style="23"/>
+    <col min="5633" max="5633" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5888" width="11.42578125" style="23"/>
+    <col min="5889" max="5889" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="5890" max="6144" width="11.42578125" style="23"/>
+    <col min="6145" max="6145" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6400" width="11.42578125" style="23"/>
+    <col min="6401" max="6401" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6656" width="11.42578125" style="23"/>
+    <col min="6657" max="6657" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6912" width="11.42578125" style="23"/>
+    <col min="6913" max="6913" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="6914" max="7168" width="11.42578125" style="23"/>
+    <col min="7169" max="7169" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7424" width="11.42578125" style="23"/>
+    <col min="7425" max="7425" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7680" width="11.42578125" style="23"/>
+    <col min="7681" max="7681" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7936" width="11.42578125" style="23"/>
+    <col min="7937" max="7937" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="7938" max="8192" width="11.42578125" style="23"/>
+    <col min="8193" max="8193" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8448" width="11.42578125" style="23"/>
+    <col min="8449" max="8449" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8704" width="11.42578125" style="23"/>
+    <col min="8705" max="8705" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8960" width="11.42578125" style="23"/>
+    <col min="8961" max="8961" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="8962" max="9216" width="11.42578125" style="23"/>
+    <col min="9217" max="9217" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9472" width="11.42578125" style="23"/>
+    <col min="9473" max="9473" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9728" width="11.42578125" style="23"/>
+    <col min="9729" max="9729" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9984" width="11.42578125" style="23"/>
+    <col min="9985" max="9985" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="9986" max="10240" width="11.42578125" style="23"/>
+    <col min="10241" max="10241" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10496" width="11.42578125" style="23"/>
+    <col min="10497" max="10497" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10752" width="11.42578125" style="23"/>
+    <col min="10753" max="10753" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="10754" max="11008" width="11.42578125" style="23"/>
+    <col min="11009" max="11009" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11264" width="11.42578125" style="23"/>
+    <col min="11265" max="11265" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11520" width="11.42578125" style="23"/>
+    <col min="11521" max="11521" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11776" width="11.42578125" style="23"/>
+    <col min="11777" max="11777" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="11778" max="12032" width="11.42578125" style="23"/>
+    <col min="12033" max="12033" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12288" width="11.42578125" style="23"/>
+    <col min="12289" max="12289" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12544" width="11.42578125" style="23"/>
+    <col min="12545" max="12545" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12800" width="11.42578125" style="23"/>
+    <col min="12801" max="12801" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="12802" max="13056" width="11.42578125" style="23"/>
+    <col min="13057" max="13057" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13312" width="11.42578125" style="23"/>
+    <col min="13313" max="13313" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13568" width="11.42578125" style="23"/>
+    <col min="13569" max="13569" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13824" width="11.42578125" style="23"/>
+    <col min="13825" max="13825" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="13826" max="14080" width="11.42578125" style="23"/>
+    <col min="14081" max="14081" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14336" width="11.42578125" style="23"/>
+    <col min="14337" max="14337" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14592" width="11.42578125" style="23"/>
+    <col min="14593" max="14593" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14848" width="11.42578125" style="23"/>
+    <col min="14849" max="14849" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="14850" max="15104" width="11.42578125" style="23"/>
+    <col min="15105" max="15105" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15360" width="11.42578125" style="23"/>
+    <col min="15361" max="15361" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15616" width="11.42578125" style="23"/>
+    <col min="15617" max="15617" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15872" width="11.42578125" style="23"/>
+    <col min="15873" max="15873" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="15874" max="16128" width="11.42578125" style="23"/>
+    <col min="16129" max="16129" width="18" style="23" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16384" width="11.42578125" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="25">
+        <v>43910</v>
+      </c>
+      <c r="B2" s="26">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25">
+        <v>43911</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0</v>
+      </c>
+      <c r="D3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="25">
+        <v>43912</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="25">
+        <v>43913</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="25">
+        <v>43914</v>
+      </c>
+      <c r="B6" s="26">
+        <v>2</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="25">
+        <v>43915</v>
+      </c>
+      <c r="B7" s="26">
+        <v>2</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>43916</v>
+      </c>
+      <c r="B8" s="26">
+        <v>2</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>43917</v>
+      </c>
+      <c r="B9" s="26">
+        <v>2</v>
+      </c>
+      <c r="C9" s="26">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <v>43918</v>
+      </c>
+      <c r="B10" s="26">
+        <v>2</v>
+      </c>
+      <c r="C10" s="26">
+        <v>3</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="25">
+        <v>43919</v>
+      </c>
+      <c r="B11" s="26">
+        <v>2</v>
+      </c>
+      <c r="C11" s="26">
+        <v>3</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <v>43920</v>
+      </c>
+      <c r="B12" s="26">
+        <v>5</v>
+      </c>
+      <c r="C12" s="26">
+        <v>3</v>
+      </c>
+      <c r="D12" s="26">
+        <v>2</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="25">
+        <v>43921</v>
+      </c>
+      <c r="B13" s="26">
+        <v>5</v>
+      </c>
+      <c r="C13" s="26">
+        <v>6</v>
+      </c>
+      <c r="D13" s="26">
+        <v>3</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="25">
+        <v>43922</v>
+      </c>
+      <c r="B14" s="26">
+        <v>5</v>
+      </c>
+      <c r="C14" s="26">
+        <v>8</v>
+      </c>
+      <c r="D14" s="26">
+        <v>4</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="25">
+        <v>43923</v>
+      </c>
+      <c r="B15" s="26">
+        <v>5</v>
+      </c>
+      <c r="C15" s="26">
+        <v>10</v>
+      </c>
+      <c r="D15" s="26">
+        <v>5</v>
+      </c>
+      <c r="E15" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="25">
+        <v>43924</v>
+      </c>
+      <c r="B16" s="26">
+        <v>5</v>
+      </c>
+      <c r="C16" s="26">
+        <v>11</v>
+      </c>
+      <c r="D16" s="26">
+        <v>5</v>
+      </c>
+      <c r="E16" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="25">
+        <v>43925</v>
+      </c>
+      <c r="B17" s="26">
+        <v>5</v>
+      </c>
+      <c r="C17" s="26">
+        <v>14</v>
+      </c>
+      <c r="D17" s="26">
+        <v>5</v>
+      </c>
+      <c r="E17" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="25">
+        <v>43926</v>
+      </c>
+      <c r="B18" s="26">
+        <v>5</v>
+      </c>
+      <c r="C18" s="26">
+        <v>15</v>
+      </c>
+      <c r="D18" s="26">
+        <v>6</v>
+      </c>
+      <c r="E18" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="25">
+        <v>43927</v>
+      </c>
+      <c r="B19" s="26">
+        <v>5</v>
+      </c>
+      <c r="C19" s="26">
+        <v>15</v>
+      </c>
+      <c r="D19" s="26">
+        <v>6</v>
+      </c>
+      <c r="E19" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="25">
+        <v>43928</v>
+      </c>
+      <c r="B20" s="26">
+        <v>5</v>
+      </c>
+      <c r="C20" s="26">
+        <v>17</v>
+      </c>
+      <c r="D20" s="26">
+        <v>6</v>
+      </c>
+      <c r="E20" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="25">
+        <v>43929</v>
+      </c>
+      <c r="B21" s="26">
+        <v>5</v>
+      </c>
+      <c r="C21" s="26">
+        <v>17</v>
+      </c>
+      <c r="D21" s="26">
+        <v>6</v>
+      </c>
+      <c r="E21" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="25">
+        <v>43930</v>
+      </c>
+      <c r="B22" s="26">
+        <v>5</v>
+      </c>
+      <c r="C22" s="26">
+        <v>17</v>
+      </c>
+      <c r="D22" s="26">
+        <v>6</v>
+      </c>
+      <c r="E22" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="25">
+        <v>43931</v>
+      </c>
+      <c r="B23" s="26">
+        <v>5</v>
+      </c>
+      <c r="C23" s="26">
+        <v>18</v>
+      </c>
+      <c r="D23" s="26">
+        <v>7</v>
+      </c>
+      <c r="E23" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="25">
+        <v>43932</v>
+      </c>
+      <c r="B24" s="26">
+        <v>5</v>
+      </c>
+      <c r="C24" s="26">
+        <v>19</v>
+      </c>
+      <c r="D24" s="26">
+        <v>7</v>
+      </c>
+      <c r="E24" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="25">
+        <v>43933</v>
+      </c>
+      <c r="B25" s="26">
+        <v>5</v>
+      </c>
+      <c r="C25" s="26">
+        <v>22</v>
+      </c>
+      <c r="D25" s="26">
+        <v>7</v>
+      </c>
+      <c r="E25" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="25">
+        <v>43934</v>
+      </c>
+      <c r="B26" s="26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="26">
+        <v>22</v>
+      </c>
+      <c r="D26" s="26">
+        <v>7</v>
+      </c>
+      <c r="E26" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="25">
+        <v>43935</v>
+      </c>
+      <c r="B27" s="26">
+        <v>5</v>
+      </c>
+      <c r="C27" s="26">
+        <v>22</v>
+      </c>
+      <c r="D27" s="26">
+        <v>7</v>
+      </c>
+      <c r="E27" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="25">
+        <v>43936</v>
+      </c>
+      <c r="B28" s="26">
+        <v>5</v>
+      </c>
+      <c r="C28" s="26">
+        <v>22</v>
+      </c>
+      <c r="D28" s="26">
+        <v>7</v>
+      </c>
+      <c r="E28" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="25">
+        <v>43937</v>
+      </c>
+      <c r="B29" s="26">
+        <v>5</v>
+      </c>
+      <c r="C29" s="26">
+        <v>24</v>
+      </c>
+      <c r="D29" s="26">
+        <v>7</v>
+      </c>
+      <c r="E29" s="26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;P</oddHeader>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E021415-1778-4B30-A8BD-BEBA75CB7A91}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8609,43 +10068,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9498,28 +10957,28 @@
       <c r="A22" s="13">
         <v>43934</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="18">
         <v>143</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="18">
         <v>63</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="18">
         <v>80</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="18">
         <v>126</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="18">
         <v>27</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="18">
         <v>141</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="18">
         <v>2</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="18">
         <v>55</v>
       </c>
       <c r="K22" s="16">
@@ -9533,6 +10992,141 @@
       </c>
       <c r="N22" s="16">
         <v>2</v>
+      </c>
+      <c r="O22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>43935</v>
+      </c>
+      <c r="C23" s="18">
+        <v>210</v>
+      </c>
+      <c r="D23" s="18">
+        <v>97</v>
+      </c>
+      <c r="E23" s="18">
+        <v>113</v>
+      </c>
+      <c r="F23" s="18">
+        <v>185</v>
+      </c>
+      <c r="G23" s="18">
+        <v>25</v>
+      </c>
+      <c r="H23" s="18">
+        <v>208</v>
+      </c>
+      <c r="I23" s="18">
+        <v>2</v>
+      </c>
+      <c r="J23" s="18">
+        <v>69</v>
+      </c>
+      <c r="K23" s="16">
+        <v>2</v>
+      </c>
+      <c r="L23" s="18">
+        <v>151</v>
+      </c>
+      <c r="M23" s="18">
+        <v>53</v>
+      </c>
+      <c r="N23" s="18">
+        <v>6</v>
+      </c>
+      <c r="O23" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>43936</v>
+      </c>
+      <c r="C24" s="16">
+        <v>253</v>
+      </c>
+      <c r="D24" s="16">
+        <v>115</v>
+      </c>
+      <c r="E24" s="16">
+        <v>138</v>
+      </c>
+      <c r="F24" s="16">
+        <v>219</v>
+      </c>
+      <c r="G24" s="16">
+        <v>34</v>
+      </c>
+      <c r="H24" s="16">
+        <v>252</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1</v>
+      </c>
+      <c r="J24" s="16">
+        <v>60</v>
+      </c>
+      <c r="K24" s="16">
+        <v>18</v>
+      </c>
+      <c r="L24" s="16">
+        <v>197</v>
+      </c>
+      <c r="M24" s="16">
+        <v>50</v>
+      </c>
+      <c r="N24" s="16">
+        <v>6</v>
+      </c>
+      <c r="O24" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>43937</v>
+      </c>
+      <c r="C25" s="19">
+        <v>287</v>
+      </c>
+      <c r="D25" s="19">
+        <v>136</v>
+      </c>
+      <c r="E25" s="19">
+        <v>151</v>
+      </c>
+      <c r="F25" s="19">
+        <v>248</v>
+      </c>
+      <c r="G25" s="19">
+        <v>39</v>
+      </c>
+      <c r="H25" s="16">
+        <v>286</v>
+      </c>
+      <c r="I25" s="16">
+        <v>1</v>
+      </c>
+      <c r="J25" s="16">
+        <v>74</v>
+      </c>
+      <c r="K25" s="16">
+        <v>41</v>
+      </c>
+      <c r="L25" s="16">
+        <v>218</v>
+      </c>
+      <c r="M25" s="16">
+        <v>60</v>
+      </c>
+      <c r="N25" s="16">
+        <v>8</v>
+      </c>
+      <c r="O25" s="16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9540,13 +11134,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BC42DC-9BE2-4B28-A5C7-CFAC0465C9D3}">
   <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K12" sqref="K12:AJ12"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM18" sqref="AM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9558,126 +11152,126 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>49</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>52</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" t="s">
-        <v>61</v>
-      </c>
       <c r="AD1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE1" t="s">
         <v>99</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>100</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>101</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>102</v>
       </c>
-      <c r="AH1" t="s">
-        <v>103</v>
-      </c>
       <c r="AI1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM1" t="s">
         <v>166</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <f>SUM(D2:AC2)</f>
@@ -9782,10 +11376,19 @@
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C17" si="0">SUM(D3:AC3)</f>
@@ -9890,10 +11493,19 @@
       <c r="AJ3">
         <v>0</v>
       </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -9998,10 +11610,19 @@
       <c r="AJ4">
         <v>15</v>
       </c>
+      <c r="AK4">
+        <v>29</v>
+      </c>
+      <c r="AL4">
+        <v>33</v>
+      </c>
+      <c r="AM4">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -10106,10 +11727,19 @@
       <c r="AJ5">
         <v>0</v>
       </c>
+      <c r="AK5">
+        <v>2</v>
+      </c>
+      <c r="AL5">
+        <v>4</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -10214,10 +11844,19 @@
       <c r="AJ6">
         <v>1</v>
       </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -10322,10 +11961,19 @@
       <c r="AJ7">
         <v>8</v>
       </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -10430,10 +12078,19 @@
       <c r="AJ8">
         <v>0</v>
       </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -10538,10 +12195,19 @@
       <c r="AJ9">
         <v>0</v>
       </c>
+      <c r="AK9">
+        <v>3</v>
+      </c>
+      <c r="AL9">
+        <v>3</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -10646,10 +12312,19 @@
       <c r="AJ10">
         <v>1</v>
       </c>
+      <c r="AK10">
+        <v>2</v>
+      </c>
+      <c r="AL10">
+        <v>3</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -10754,10 +12429,19 @@
       <c r="AJ11">
         <v>1</v>
       </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -10862,10 +12546,19 @@
       <c r="AJ12">
         <v>0</v>
       </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -10970,10 +12663,19 @@
       <c r="AJ13">
         <v>17</v>
       </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -11078,10 +12780,19 @@
       <c r="AJ14">
         <v>0</v>
       </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -11186,10 +12897,19 @@
       <c r="AJ15">
         <v>3</v>
       </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -11294,10 +13014,19 @@
       <c r="AJ16">
         <v>3</v>
       </c>
+      <c r="AK16">
+        <v>2</v>
+      </c>
+      <c r="AL16">
+        <v>2</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -11402,10 +13131,19 @@
       <c r="AJ17">
         <v>8</v>
       </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <f>SUM(D2:D17)</f>
@@ -11541,15 +13279,15 @@
       </c>
       <c r="AK18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
@@ -11669,7 +13407,7 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20">
         <f>SUM(C2:C17)</f>
@@ -11808,15 +13546,15 @@
       </c>
       <c r="AK20">
         <f t="shared" ref="AK20" si="21">SUM(AJ20,AK18)</f>
-        <v>726</v>
+        <v>766</v>
       </c>
       <c r="AL20">
         <f t="shared" ref="AL20" si="22">SUM(AK20,AL18)</f>
-        <v>726</v>
+        <v>814</v>
       </c>
       <c r="AM20">
         <f t="shared" ref="AM20" si="23">SUM(AL20,AM18)</f>
-        <v>726</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -11825,13 +13563,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3D19EB-CDBB-4BE3-91BE-933CE717462E}">
   <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI15" sqref="AI15"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11841,119 +13579,125 @@
     <col min="27" max="27" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>54</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>61</v>
       </c>
-      <c r="AC1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -12086,13 +13830,21 @@
         <f>IF(EXACT('Por Provincias'!AJ2,""),"",SUM('Por Provincias'!AJ2,Evolucion!AH2))</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ2">
+        <f>IF(EXACT('Por Provincias'!AK2,""),"",SUM('Por Provincias'!AK2,Evolucion!AI2))</f>
+        <v>25</v>
+      </c>
+      <c r="AK2">
+        <f>IF(EXACT('Por Provincias'!AL2,""),"",SUM('Por Provincias'!AL2,Evolucion!AJ2))</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <f>IF(EXACT('Por Provincias'!D3,""),"",SUM('Por Provincias'!D3,Evolucion!B3))</f>
@@ -12226,13 +13978,21 @@
         <f>IF(EXACT('Por Provincias'!AJ3,""),"",SUM('Por Provincias'!AJ3,Evolucion!AH3))</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ3">
+        <f>IF(EXACT('Por Provincias'!AK3,""),"",SUM('Por Provincias'!AK3,Evolucion!AI3))</f>
+        <v>26</v>
+      </c>
+      <c r="AK3">
+        <f>IF(EXACT('Por Provincias'!AL3,""),"",SUM('Por Provincias'!AL3,Evolucion!AJ3))</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12361,13 +14121,21 @@
         <f>IF(EXACT('Por Provincias'!AJ4,""),"",SUM('Por Provincias'!AJ4,Evolucion!AH4))</f>
         <v>236</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ4">
+        <f>IF(EXACT('Por Provincias'!AK4,""),"",SUM('Por Provincias'!AK4,Evolucion!AI4))</f>
+        <v>265</v>
+      </c>
+      <c r="AK4">
+        <f>IF(EXACT('Por Provincias'!AL4,""),"",SUM('Por Provincias'!AL4,Evolucion!AJ4))</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12479,13 +14247,21 @@
         <f>IF(EXACT('Por Provincias'!AJ5,""),"",SUM('Por Provincias'!AJ5,Evolucion!AH5))</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ5">
+        <f>IF(EXACT('Por Provincias'!AK5,""),"",SUM('Por Provincias'!AK5,Evolucion!AI5))</f>
+        <v>10</v>
+      </c>
+      <c r="AK5">
+        <f>IF(EXACT('Por Provincias'!AL5,""),"",SUM('Por Provincias'!AL5,Evolucion!AJ5))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -12615,13 +14391,21 @@
         <f>IF(EXACT('Por Provincias'!AJ6,""),"",SUM('Por Provincias'!AJ6,Evolucion!AH6))</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ6">
+        <f>IF(EXACT('Por Provincias'!AK6,""),"",SUM('Por Provincias'!AK6,Evolucion!AI6))</f>
+        <v>51</v>
+      </c>
+      <c r="AK6">
+        <f>IF(EXACT('Por Provincias'!AL6,""),"",SUM('Por Provincias'!AL6,Evolucion!AJ6))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <f>IF(EXACT('Por Provincias'!D7,""),"",SUM('Por Provincias'!D7,Evolucion!B7))</f>
@@ -12755,13 +14539,21 @@
         <f>IF(EXACT('Por Provincias'!AJ7,""),"",SUM('Por Provincias'!AJ7,Evolucion!AH7))</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ7">
+        <f>IF(EXACT('Por Provincias'!AK7,""),"",SUM('Por Provincias'!AK7,Evolucion!AI7))</f>
+        <v>93</v>
+      </c>
+      <c r="AK7">
+        <f>IF(EXACT('Por Provincias'!AL7,""),"",SUM('Por Provincias'!AL7,Evolucion!AJ7))</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -12891,13 +14683,21 @@
         <f>IF(EXACT('Por Provincias'!AJ8,""),"",SUM('Por Provincias'!AJ8,Evolucion!AH8))</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8">
+        <f>IF(EXACT('Por Provincias'!AK8,""),"",SUM('Por Provincias'!AK8,Evolucion!AI8))</f>
+        <v>11</v>
+      </c>
+      <c r="AK8">
+        <f>IF(EXACT('Por Provincias'!AL8,""),"",SUM('Por Provincias'!AL8,Evolucion!AJ8))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <f>IF(EXACT('Por Provincias'!D9,""),"",SUM('Por Provincias'!D9,Evolucion!B9))</f>
@@ -13031,13 +14831,21 @@
         <f>IF(EXACT('Por Provincias'!AJ9,""),"",SUM('Por Provincias'!AJ9,Evolucion!AH9))</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ9">
+        <f>IF(EXACT('Por Provincias'!AK9,""),"",SUM('Por Provincias'!AK9,Evolucion!AI9))</f>
+        <v>52</v>
+      </c>
+      <c r="AK9">
+        <f>IF(EXACT('Por Provincias'!AL9,""),"",SUM('Por Provincias'!AL9,Evolucion!AJ9))</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -13159,13 +14967,21 @@
         <f>IF(EXACT('Por Provincias'!AJ10,""),"",SUM('Por Provincias'!AJ10,Evolucion!AH10))</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ10">
+        <f>IF(EXACT('Por Provincias'!AK10,""),"",SUM('Por Provincias'!AK10,Evolucion!AI10))</f>
+        <v>68</v>
+      </c>
+      <c r="AK10">
+        <f>IF(EXACT('Por Provincias'!AL10,""),"",SUM('Por Provincias'!AL10,Evolucion!AJ10))</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11">
         <f>IF(EXACT('Por Provincias'!D11,""),"",SUM('Por Provincias'!D11,Evolucion!B11))</f>
@@ -13299,13 +15115,21 @@
         <f>IF(EXACT('Por Provincias'!AJ11,""),"",SUM('Por Provincias'!AJ11,Evolucion!AH11))</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ11">
+        <f>IF(EXACT('Por Provincias'!AK11,""),"",SUM('Por Provincias'!AK11,Evolucion!AI11))</f>
+        <v>30</v>
+      </c>
+      <c r="AK11">
+        <f>IF(EXACT('Por Provincias'!AL11,""),"",SUM('Por Provincias'!AL11,Evolucion!AJ11))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -13432,13 +15256,21 @@
         <f>IF(EXACT('Por Provincias'!AJ12,""),"",SUM('Por Provincias'!AJ12,Evolucion!AH12))</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12">
+        <f>IF(EXACT('Por Provincias'!AK12,""),"",SUM('Por Provincias'!AK12,Evolucion!AI12))</f>
+        <v>7</v>
+      </c>
+      <c r="AK12">
+        <f>IF(EXACT('Por Provincias'!AL12,""),"",SUM('Por Provincias'!AL12,Evolucion!AJ12))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -13565,13 +15397,21 @@
         <f>IF(EXACT('Por Provincias'!AJ13,""),"",SUM('Por Provincias'!AJ13,Evolucion!AH13))</f>
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ13">
+        <f>IF(EXACT('Por Provincias'!AK13,""),"",SUM('Por Provincias'!AK13,Evolucion!AI13))</f>
+        <v>59</v>
+      </c>
+      <c r="AK13">
+        <f>IF(EXACT('Por Provincias'!AL13,""),"",SUM('Por Provincias'!AL13,Evolucion!AJ13))</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -13697,13 +15537,21 @@
         <f>IF(EXACT('Por Provincias'!AJ14,""),"",SUM('Por Provincias'!AJ14,Evolucion!AH14))</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ14">
+        <f>IF(EXACT('Por Provincias'!AK14,""),"",SUM('Por Provincias'!AK14,Evolucion!AI14))</f>
+        <v>10</v>
+      </c>
+      <c r="AK14">
+        <f>IF(EXACT('Por Provincias'!AL14,""),"",SUM('Por Provincias'!AL14,Evolucion!AJ14))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -13828,13 +15676,21 @@
         <f>IF(EXACT('Por Provincias'!AJ15,""),"",SUM('Por Provincias'!AJ15,Evolucion!AH15))</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ15">
+        <f>IF(EXACT('Por Provincias'!AK15,""),"",SUM('Por Provincias'!AK15,Evolucion!AI15))</f>
+        <v>34</v>
+      </c>
+      <c r="AK15">
+        <f>IF(EXACT('Por Provincias'!AL15,""),"",SUM('Por Provincias'!AL15,Evolucion!AJ15))</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -13946,13 +15802,21 @@
         <f>IF(EXACT('Por Provincias'!AJ16,""),"",SUM('Por Provincias'!AJ16,Evolucion!AH16))</f>
         <v>6</v>
       </c>
+      <c r="AJ16">
+        <f>IF(EXACT('Por Provincias'!AK16,""),"",SUM('Por Provincias'!AK16,Evolucion!AI16))</f>
+        <v>8</v>
+      </c>
+      <c r="AK16">
+        <f>IF(EXACT('Por Provincias'!AL16,""),"",SUM('Por Provincias'!AL16,Evolucion!AJ16))</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -14064,10 +15928,18 @@
         <f>IF(EXACT('Por Provincias'!AJ17,""),"",SUM('Por Provincias'!AJ17,Evolucion!AH17))</f>
         <v>17</v>
       </c>
+      <c r="AJ17">
+        <f>IF(EXACT('Por Provincias'!AK17,""),"",SUM('Por Provincias'!AK17,Evolucion!AI17))</f>
+        <v>17</v>
+      </c>
+      <c r="AK17">
+        <f>IF(EXACT('Por Provincias'!AL17,""),"",SUM('Por Provincias'!AL17,Evolucion!AJ17))</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18">
         <f>IF(EXACT('Por Provincias'!D18,""),"",SUM('Por Provincias'!D18,Evolucion!B18))</f>
@@ -14201,6 +16073,14 @@
         <f>IF(EXACT('Por Provincias'!AJ18,""),"",SUM('Por Provincias'!AJ18,Evolucion!AH18))</f>
         <v>726</v>
       </c>
+      <c r="AJ18">
+        <f>IF(EXACT('Por Provincias'!AK18,""),"",SUM('Por Provincias'!AK18,Evolucion!AI18))</f>
+        <v>766</v>
+      </c>
+      <c r="AK18">
+        <f>IF(EXACT('Por Provincias'!AL18,""),"",SUM('Por Provincias'!AL18,Evolucion!AJ18))</f>
+        <v>814</v>
+      </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -14305,15 +16185,19 @@
       <c r="AI19" s="2">
         <v>43933</v>
       </c>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
+      <c r="AJ19" s="2">
+        <v>43934</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>43935</v>
+      </c>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20">
         <f t="shared" ref="C20:J20" si="0">SUM(C2:C17)</f>
@@ -14444,8 +16328,16 @@
         <v>669</v>
       </c>
       <c r="AI20">
-        <f t="shared" ref="AI20" si="6">SUM(AI2:AI17)</f>
+        <f t="shared" ref="AI20:AJ20" si="6">SUM(AI2:AI17)</f>
         <v>726</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="6"/>
+        <v>766</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" ref="AK20" si="7">SUM(AK2:AK17)</f>
+        <v>814</v>
       </c>
     </row>
   </sheetData>

--- a/data/COVID-19.xlsx
+++ b/data/COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF74537-7174-4A31-8E51-CF1E46D02A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642FB9EA-20FB-46D4-A74F-5A23C0A935A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="749" activeTab="5" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="749" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="190">
   <si>
     <t>Fecha</t>
   </si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>Día 37</t>
+  </si>
+  <si>
+    <t>65-69</t>
   </si>
 </sst>
 </file>
@@ -760,12 +763,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -774,6 +771,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Énfasis3" xfId="1" builtinId="40"/>
@@ -1090,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFE099A-7FE0-44E4-8A56-B8067923C050}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,6 +2095,52 @@
       </c>
       <c r="H38" s="1" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
+        <v>38</v>
+      </c>
+      <c r="C39" s="7">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="2">
+        <v>43937</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
+        <v>39</v>
+      </c>
+      <c r="C40" s="7">
+        <v>56</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="2">
+        <v>43937</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2607,13 +2656,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C0B0C-1604-47BA-9C7F-055BA2CD3905}">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D103" sqref="D103"/>
+      <selection pane="bottomRight" activeCell="E111" sqref="E111:J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6133,6 +6182,77 @@
         <v>168</v>
       </c>
     </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>38</v>
+      </c>
+      <c r="B109" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="7">
+        <v>66</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>39</v>
+      </c>
+      <c r="B110" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F110" s="7">
+        <v>56</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>39</v>
+      </c>
+      <c r="B111" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F111" s="7">
+        <v>56</v>
+      </c>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M102" xr:uid="{EE19C93D-CC10-4277-8776-D07EDA3FF01D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M102">
@@ -6149,8 +6269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5E3218-457F-4398-A6C7-EE32CB90DAE2}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6882,18 +7002,18 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" s="20">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29" s="20">
         <v>4</v>
       </c>
       <c r="F29" s="20">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -6920,7 +7040,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31:E31"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7914,14 +8034,14 @@
         <v>43937</v>
       </c>
       <c r="B31" s="1">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="C31" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -7937,10 +8057,10 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:G32"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7958,24 +8078,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -9335,7 +9455,7 @@
       </c>
       <c r="D32" s="7">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="9"/>
@@ -9343,7 +9463,7 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="10"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="11"/>
@@ -9355,13 +9475,13 @@
         <v>2</v>
       </c>
       <c r="K32" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32" s="7">
         <v>0</v>
       </c>
       <c r="M32" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N32" s="7">
         <v>2</v>
@@ -9397,632 +9517,632 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="256" width="11.42578125" style="23"/>
-    <col min="257" max="257" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="258" max="512" width="11.42578125" style="23"/>
-    <col min="513" max="513" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="514" max="768" width="11.42578125" style="23"/>
-    <col min="769" max="769" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="770" max="1024" width="11.42578125" style="23"/>
-    <col min="1025" max="1025" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1280" width="11.42578125" style="23"/>
-    <col min="1281" max="1281" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1536" width="11.42578125" style="23"/>
-    <col min="1537" max="1537" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1792" width="11.42578125" style="23"/>
-    <col min="1793" max="1793" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="1794" max="2048" width="11.42578125" style="23"/>
-    <col min="2049" max="2049" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2304" width="11.42578125" style="23"/>
-    <col min="2305" max="2305" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2560" width="11.42578125" style="23"/>
-    <col min="2561" max="2561" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2816" width="11.42578125" style="23"/>
-    <col min="2817" max="2817" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="2818" max="3072" width="11.42578125" style="23"/>
-    <col min="3073" max="3073" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3328" width="11.42578125" style="23"/>
-    <col min="3329" max="3329" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3584" width="11.42578125" style="23"/>
-    <col min="3585" max="3585" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3840" width="11.42578125" style="23"/>
-    <col min="3841" max="3841" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="3842" max="4096" width="11.42578125" style="23"/>
-    <col min="4097" max="4097" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4352" width="11.42578125" style="23"/>
-    <col min="4353" max="4353" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4608" width="11.42578125" style="23"/>
-    <col min="4609" max="4609" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4864" width="11.42578125" style="23"/>
-    <col min="4865" max="4865" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="4866" max="5120" width="11.42578125" style="23"/>
-    <col min="5121" max="5121" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5376" width="11.42578125" style="23"/>
-    <col min="5377" max="5377" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5632" width="11.42578125" style="23"/>
-    <col min="5633" max="5633" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5888" width="11.42578125" style="23"/>
-    <col min="5889" max="5889" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="5890" max="6144" width="11.42578125" style="23"/>
-    <col min="6145" max="6145" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6400" width="11.42578125" style="23"/>
-    <col min="6401" max="6401" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6656" width="11.42578125" style="23"/>
-    <col min="6657" max="6657" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6912" width="11.42578125" style="23"/>
-    <col min="6913" max="6913" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="6914" max="7168" width="11.42578125" style="23"/>
-    <col min="7169" max="7169" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7424" width="11.42578125" style="23"/>
-    <col min="7425" max="7425" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7680" width="11.42578125" style="23"/>
-    <col min="7681" max="7681" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7936" width="11.42578125" style="23"/>
-    <col min="7937" max="7937" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="7938" max="8192" width="11.42578125" style="23"/>
-    <col min="8193" max="8193" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8448" width="11.42578125" style="23"/>
-    <col min="8449" max="8449" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8704" width="11.42578125" style="23"/>
-    <col min="8705" max="8705" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8960" width="11.42578125" style="23"/>
-    <col min="8961" max="8961" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="8962" max="9216" width="11.42578125" style="23"/>
-    <col min="9217" max="9217" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9472" width="11.42578125" style="23"/>
-    <col min="9473" max="9473" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9728" width="11.42578125" style="23"/>
-    <col min="9729" max="9729" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9984" width="11.42578125" style="23"/>
-    <col min="9985" max="9985" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="9986" max="10240" width="11.42578125" style="23"/>
-    <col min="10241" max="10241" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10496" width="11.42578125" style="23"/>
-    <col min="10497" max="10497" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10752" width="11.42578125" style="23"/>
-    <col min="10753" max="10753" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="10754" max="11008" width="11.42578125" style="23"/>
-    <col min="11009" max="11009" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11264" width="11.42578125" style="23"/>
-    <col min="11265" max="11265" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11520" width="11.42578125" style="23"/>
-    <col min="11521" max="11521" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11776" width="11.42578125" style="23"/>
-    <col min="11777" max="11777" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="11778" max="12032" width="11.42578125" style="23"/>
-    <col min="12033" max="12033" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12288" width="11.42578125" style="23"/>
-    <col min="12289" max="12289" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12544" width="11.42578125" style="23"/>
-    <col min="12545" max="12545" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12800" width="11.42578125" style="23"/>
-    <col min="12801" max="12801" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="12802" max="13056" width="11.42578125" style="23"/>
-    <col min="13057" max="13057" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13312" width="11.42578125" style="23"/>
-    <col min="13313" max="13313" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13568" width="11.42578125" style="23"/>
-    <col min="13569" max="13569" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13824" width="11.42578125" style="23"/>
-    <col min="13825" max="13825" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="13826" max="14080" width="11.42578125" style="23"/>
-    <col min="14081" max="14081" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14336" width="11.42578125" style="23"/>
-    <col min="14337" max="14337" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14592" width="11.42578125" style="23"/>
-    <col min="14593" max="14593" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14848" width="11.42578125" style="23"/>
-    <col min="14849" max="14849" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="14850" max="15104" width="11.42578125" style="23"/>
-    <col min="15105" max="15105" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15360" width="11.42578125" style="23"/>
-    <col min="15361" max="15361" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15616" width="11.42578125" style="23"/>
-    <col min="15617" max="15617" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15872" width="11.42578125" style="23"/>
-    <col min="15873" max="15873" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="15874" max="16128" width="11.42578125" style="23"/>
-    <col min="16129" max="16129" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16384" width="11.42578125" style="23"/>
+    <col min="1" max="1" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="256" width="11.42578125" style="21"/>
+    <col min="257" max="257" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="258" max="512" width="11.42578125" style="21"/>
+    <col min="513" max="513" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="514" max="768" width="11.42578125" style="21"/>
+    <col min="769" max="769" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="770" max="1024" width="11.42578125" style="21"/>
+    <col min="1025" max="1025" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1280" width="11.42578125" style="21"/>
+    <col min="1281" max="1281" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1536" width="11.42578125" style="21"/>
+    <col min="1537" max="1537" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1792" width="11.42578125" style="21"/>
+    <col min="1793" max="1793" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="1794" max="2048" width="11.42578125" style="21"/>
+    <col min="2049" max="2049" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2304" width="11.42578125" style="21"/>
+    <col min="2305" max="2305" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2560" width="11.42578125" style="21"/>
+    <col min="2561" max="2561" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2816" width="11.42578125" style="21"/>
+    <col min="2817" max="2817" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="2818" max="3072" width="11.42578125" style="21"/>
+    <col min="3073" max="3073" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3328" width="11.42578125" style="21"/>
+    <col min="3329" max="3329" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3584" width="11.42578125" style="21"/>
+    <col min="3585" max="3585" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3840" width="11.42578125" style="21"/>
+    <col min="3841" max="3841" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="3842" max="4096" width="11.42578125" style="21"/>
+    <col min="4097" max="4097" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4352" width="11.42578125" style="21"/>
+    <col min="4353" max="4353" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4608" width="11.42578125" style="21"/>
+    <col min="4609" max="4609" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4864" width="11.42578125" style="21"/>
+    <col min="4865" max="4865" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="4866" max="5120" width="11.42578125" style="21"/>
+    <col min="5121" max="5121" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5376" width="11.42578125" style="21"/>
+    <col min="5377" max="5377" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5632" width="11.42578125" style="21"/>
+    <col min="5633" max="5633" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5888" width="11.42578125" style="21"/>
+    <col min="5889" max="5889" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="5890" max="6144" width="11.42578125" style="21"/>
+    <col min="6145" max="6145" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6400" width="11.42578125" style="21"/>
+    <col min="6401" max="6401" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6656" width="11.42578125" style="21"/>
+    <col min="6657" max="6657" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6912" width="11.42578125" style="21"/>
+    <col min="6913" max="6913" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="6914" max="7168" width="11.42578125" style="21"/>
+    <col min="7169" max="7169" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7424" width="11.42578125" style="21"/>
+    <col min="7425" max="7425" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7680" width="11.42578125" style="21"/>
+    <col min="7681" max="7681" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7936" width="11.42578125" style="21"/>
+    <col min="7937" max="7937" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="7938" max="8192" width="11.42578125" style="21"/>
+    <col min="8193" max="8193" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8448" width="11.42578125" style="21"/>
+    <col min="8449" max="8449" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8704" width="11.42578125" style="21"/>
+    <col min="8705" max="8705" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8960" width="11.42578125" style="21"/>
+    <col min="8961" max="8961" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="8962" max="9216" width="11.42578125" style="21"/>
+    <col min="9217" max="9217" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9472" width="11.42578125" style="21"/>
+    <col min="9473" max="9473" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9728" width="11.42578125" style="21"/>
+    <col min="9729" max="9729" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9984" width="11.42578125" style="21"/>
+    <col min="9985" max="9985" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="9986" max="10240" width="11.42578125" style="21"/>
+    <col min="10241" max="10241" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10496" width="11.42578125" style="21"/>
+    <col min="10497" max="10497" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10752" width="11.42578125" style="21"/>
+    <col min="10753" max="10753" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="10754" max="11008" width="11.42578125" style="21"/>
+    <col min="11009" max="11009" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11264" width="11.42578125" style="21"/>
+    <col min="11265" max="11265" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11520" width="11.42578125" style="21"/>
+    <col min="11521" max="11521" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11776" width="11.42578125" style="21"/>
+    <col min="11777" max="11777" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="11778" max="12032" width="11.42578125" style="21"/>
+    <col min="12033" max="12033" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12288" width="11.42578125" style="21"/>
+    <col min="12289" max="12289" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12544" width="11.42578125" style="21"/>
+    <col min="12545" max="12545" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12800" width="11.42578125" style="21"/>
+    <col min="12801" max="12801" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="12802" max="13056" width="11.42578125" style="21"/>
+    <col min="13057" max="13057" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13312" width="11.42578125" style="21"/>
+    <col min="13313" max="13313" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13568" width="11.42578125" style="21"/>
+    <col min="13569" max="13569" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13824" width="11.42578125" style="21"/>
+    <col min="13825" max="13825" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="13826" max="14080" width="11.42578125" style="21"/>
+    <col min="14081" max="14081" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14336" width="11.42578125" style="21"/>
+    <col min="14337" max="14337" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14592" width="11.42578125" style="21"/>
+    <col min="14593" max="14593" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14848" width="11.42578125" style="21"/>
+    <col min="14849" max="14849" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="14850" max="15104" width="11.42578125" style="21"/>
+    <col min="15105" max="15105" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15360" width="11.42578125" style="21"/>
+    <col min="15361" max="15361" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15616" width="11.42578125" style="21"/>
+    <col min="15617" max="15617" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15872" width="11.42578125" style="21"/>
+    <col min="15873" max="15873" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="15874" max="16128" width="11.42578125" style="21"/>
+    <col min="16129" max="16129" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16384" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
+      <c r="A2" s="23">
         <v>43910</v>
       </c>
-      <c r="B2" s="26">
-        <v>1</v>
-      </c>
-      <c r="C2" s="26">
-        <v>0</v>
-      </c>
-      <c r="D2" s="26">
-        <v>0</v>
-      </c>
-      <c r="E2" s="26">
+      <c r="B2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
+      <c r="A3" s="23">
         <v>43911</v>
       </c>
-      <c r="B3" s="26">
-        <v>1</v>
-      </c>
-      <c r="C3" s="26">
-        <v>0</v>
-      </c>
-      <c r="D3" s="26">
-        <v>0</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="B3" s="24">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
+      <c r="A4" s="23">
         <v>43912</v>
       </c>
-      <c r="B4" s="26">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26">
-        <v>0</v>
-      </c>
-      <c r="D4" s="26">
-        <v>0</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
+      <c r="A5" s="23">
         <v>43913</v>
       </c>
-      <c r="B5" s="26">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26">
-        <v>0</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="B5" s="24">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
+      <c r="A6" s="23">
         <v>43914</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>2</v>
       </c>
-      <c r="C6" s="26">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26">
-        <v>0</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
+      <c r="A7" s="23">
         <v>43915</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <v>2</v>
       </c>
-      <c r="C7" s="26">
-        <v>0</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <v>43916</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <v>2</v>
       </c>
-      <c r="C8" s="26">
-        <v>0</v>
-      </c>
-      <c r="D8" s="26">
-        <v>0</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
+      <c r="A9" s="23">
         <v>43917</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="24">
         <v>2</v>
       </c>
-      <c r="C9" s="26">
-        <v>1</v>
-      </c>
-      <c r="D9" s="26">
-        <v>1</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="C9" s="24">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10" s="23">
         <v>43918</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <v>2</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <v>3</v>
       </c>
-      <c r="D10" s="26">
-        <v>1</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+      <c r="A11" s="23">
         <v>43919</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <v>2</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="24">
         <v>3</v>
       </c>
-      <c r="D11" s="26">
-        <v>1</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
+      <c r="A12" s="23">
         <v>43920</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <v>5</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="24">
         <v>3</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="24">
         <v>2</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
+      <c r="A13" s="23">
         <v>43921</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="24">
         <v>5</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="24">
         <v>6</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="24">
         <v>3</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
+      <c r="A14" s="23">
         <v>43922</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="24">
         <v>5</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="24">
         <v>8</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="24">
         <v>4</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
+      <c r="A15" s="23">
         <v>43923</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="24">
         <v>5</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="24">
         <v>10</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="24">
         <v>5</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
+      <c r="A16" s="23">
         <v>43924</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="24">
         <v>5</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="24">
         <v>11</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="24">
         <v>5</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
+      <c r="A17" s="23">
         <v>43925</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="24">
         <v>5</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="24">
         <v>14</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="24">
         <v>5</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
+      <c r="A18" s="23">
         <v>43926</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="24">
         <v>5</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="24">
         <v>15</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="24">
         <v>6</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
+      <c r="A19" s="23">
         <v>43927</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="24">
         <v>5</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
         <v>15</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="24">
         <v>6</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
+      <c r="A20" s="23">
         <v>43928</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="24">
         <v>5</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="24">
         <v>17</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="24">
         <v>6</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
+      <c r="A21" s="23">
         <v>43929</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="24">
         <v>5</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="24">
         <v>17</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="24">
         <v>6</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
+      <c r="A22" s="23">
         <v>43930</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="24">
         <v>5</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="24">
         <v>17</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="24">
         <v>6</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+      <c r="A23" s="23">
         <v>43931</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="24">
         <v>5</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="24">
         <v>18</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="24">
         <v>7</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+      <c r="A24" s="23">
         <v>43932</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="24">
         <v>5</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="24">
         <v>19</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="24">
         <v>7</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
+      <c r="A25" s="23">
         <v>43933</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="24">
         <v>5</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="24">
         <v>22</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="24">
         <v>7</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
+      <c r="A26" s="23">
         <v>43934</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="24">
         <v>5</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="24">
         <v>22</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="24">
         <v>7</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
+      <c r="A27" s="23">
         <v>43935</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="24">
         <v>5</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="24">
         <v>22</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="24">
         <v>7</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
+      <c r="A28" s="23">
         <v>43936</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="24">
         <v>5</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="24">
         <v>22</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="24">
         <v>7</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
+      <c r="A29" s="23">
         <v>43937</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="24">
         <v>5</v>
       </c>
-      <c r="C29" s="26">
-        <v>24</v>
-      </c>
-      <c r="D29" s="26">
+      <c r="C29" s="24">
+        <v>26</v>
+      </c>
+      <c r="D29" s="24">
         <v>7</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="24">
         <v>1</v>
       </c>
     </row>
@@ -13569,7 +13689,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK7" sqref="AK7"/>
+      <selection pane="topRight" activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/COVID-19.xlsx
+++ b/data/COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF74537-7174-4A31-8E51-CF1E46D02A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EDF5BF-4B8C-4F80-9772-14852F8BACF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="749" activeTab="5" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="749" activeTab="4" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="191">
   <si>
     <t>Fecha</t>
   </si>
@@ -611,6 +611,12 @@
   </si>
   <si>
     <t>Día 37</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>Baire</t>
   </si>
 </sst>
 </file>
@@ -760,12 +766,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -774,6 +774,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Énfasis3" xfId="1" builtinId="40"/>
@@ -1090,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFE099A-7FE0-44E4-8A56-B8067923C050}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,6 +2100,110 @@
         <v>172</v>
       </c>
     </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="7">
+        <v>38</v>
+      </c>
+      <c r="C39" s="7">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="2">
+        <v>43937</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="7">
+        <v>39</v>
+      </c>
+      <c r="C40" s="7">
+        <v>56</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="2">
+        <v>43937</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="7">
+        <v>40</v>
+      </c>
+      <c r="C41" s="7">
+        <v>23</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="2">
+        <v>43938</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="7">
+        <v>41</v>
+      </c>
+      <c r="C42" s="7">
+        <v>78</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="2">
+        <v>43938</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G33" xr:uid="{64ECC433-7F0D-4E61-AD6E-98762584DEA2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2106,7 +2216,7 @@
   <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK5" sqref="AK5"/>
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,10 +2441,10 @@
         <v>19</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -2479,11 +2589,11 @@
       </c>
       <c r="AJ3">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="AK3">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -2607,13 +2717,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C0B0C-1604-47BA-9C7F-055BA2CD3905}">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D103" sqref="D103"/>
+      <selection pane="bottomRight" activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6133,6 +6243,123 @@
         <v>168</v>
       </c>
     </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>38</v>
+      </c>
+      <c r="B109" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="7">
+        <v>66</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>39</v>
+      </c>
+      <c r="B110" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F110" s="7">
+        <v>56</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>39</v>
+      </c>
+      <c r="B111" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F111" s="7">
+        <v>56</v>
+      </c>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>40</v>
+      </c>
+      <c r="B112" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112" s="7">
+        <v>23</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>41</v>
+      </c>
+      <c r="B113" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="7">
+        <v>78</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M102" xr:uid="{EE19C93D-CC10-4277-8776-D07EDA3FF01D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M102">
@@ -6147,10 +6374,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5E3218-457F-4398-A6C7-EE32CB90DAE2}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6548,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D29" si="2">D15+C16</f>
+        <f t="shared" ref="D16:D30" si="2">D15+C16</f>
         <v>22</v>
       </c>
       <c r="E16">
@@ -6630,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F29" si="3">D19-E19-G19</f>
+        <f t="shared" ref="F19:F30" si="3">D19-E19-G19</f>
         <v>26</v>
       </c>
       <c r="G19">
@@ -6882,18 +7109,18 @@
         <v>43937</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" s="20">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29" s="20">
         <v>4</v>
       </c>
       <c r="F29" s="20">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -6903,6 +7130,37 @@
       </c>
       <c r="I29">
         <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="3">
+        <v>43938</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="20">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6914,13 +7172,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AE470-D3D4-4B7B-8904-78477B90993B}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31:E31"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7623,7 +7881,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D31" si="1">B22-C22-E22</f>
+        <f t="shared" ref="D22:D32" si="1">B22-C22-E22</f>
         <v>183</v>
       </c>
       <c r="E22" s="1">
@@ -7914,16 +8172,34 @@
         <v>43937</v>
       </c>
       <c r="B31" s="1">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="C31" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="E31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>43938</v>
+      </c>
+      <c r="B32" s="1">
+        <v>93</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E32" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7936,11 +8212,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437E6C5D-77A2-49DB-A15A-4AEFF9C341D7}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:G32"/>
+      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7958,24 +8234,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -9335,7 +9611,7 @@
       </c>
       <c r="D32" s="7">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="9"/>
@@ -9343,7 +9619,7 @@
       </c>
       <c r="F32" s="7">
         <f t="shared" si="10"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="11"/>
@@ -9355,27 +9631,62 @@
         <v>2</v>
       </c>
       <c r="K32" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32" s="7">
         <v>0</v>
       </c>
       <c r="M32" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N32" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43938</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>102</v>
       </c>
+      <c r="C33" s="7">
+        <f t="shared" ref="C33" si="12">IF(EXACT(J33,""),"",SUM(C32+J33))</f>
+        <v>9</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" ref="D33" si="13">IF(EXACT(K33,""),"",SUM(D32+K33))</f>
+        <v>63</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" ref="E33" si="14">IF(EXACT(L33,""),"",SUM(E32+L33))</f>
+        <v>10</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" ref="F33" si="15">IF(EXACT(M33,""),"",SUM(F32+M33))</f>
+        <v>41</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" ref="G33" si="16">IF(EXACT(N33,""),"",SUM(G32+N33))</f>
+        <v>13</v>
+      </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -9395,634 +9706,651 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="256" width="11.42578125" style="23"/>
-    <col min="257" max="257" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="258" max="512" width="11.42578125" style="23"/>
-    <col min="513" max="513" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="514" max="768" width="11.42578125" style="23"/>
-    <col min="769" max="769" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="770" max="1024" width="11.42578125" style="23"/>
-    <col min="1025" max="1025" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1280" width="11.42578125" style="23"/>
-    <col min="1281" max="1281" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1536" width="11.42578125" style="23"/>
-    <col min="1537" max="1537" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1792" width="11.42578125" style="23"/>
-    <col min="1793" max="1793" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="1794" max="2048" width="11.42578125" style="23"/>
-    <col min="2049" max="2049" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2304" width="11.42578125" style="23"/>
-    <col min="2305" max="2305" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2560" width="11.42578125" style="23"/>
-    <col min="2561" max="2561" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2816" width="11.42578125" style="23"/>
-    <col min="2817" max="2817" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="2818" max="3072" width="11.42578125" style="23"/>
-    <col min="3073" max="3073" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3328" width="11.42578125" style="23"/>
-    <col min="3329" max="3329" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3584" width="11.42578125" style="23"/>
-    <col min="3585" max="3585" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3840" width="11.42578125" style="23"/>
-    <col min="3841" max="3841" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="3842" max="4096" width="11.42578125" style="23"/>
-    <col min="4097" max="4097" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4352" width="11.42578125" style="23"/>
-    <col min="4353" max="4353" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4608" width="11.42578125" style="23"/>
-    <col min="4609" max="4609" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4864" width="11.42578125" style="23"/>
-    <col min="4865" max="4865" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="4866" max="5120" width="11.42578125" style="23"/>
-    <col min="5121" max="5121" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5376" width="11.42578125" style="23"/>
-    <col min="5377" max="5377" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5632" width="11.42578125" style="23"/>
-    <col min="5633" max="5633" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5888" width="11.42578125" style="23"/>
-    <col min="5889" max="5889" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="5890" max="6144" width="11.42578125" style="23"/>
-    <col min="6145" max="6145" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6400" width="11.42578125" style="23"/>
-    <col min="6401" max="6401" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6656" width="11.42578125" style="23"/>
-    <col min="6657" max="6657" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6912" width="11.42578125" style="23"/>
-    <col min="6913" max="6913" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="6914" max="7168" width="11.42578125" style="23"/>
-    <col min="7169" max="7169" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7424" width="11.42578125" style="23"/>
-    <col min="7425" max="7425" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7680" width="11.42578125" style="23"/>
-    <col min="7681" max="7681" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7936" width="11.42578125" style="23"/>
-    <col min="7937" max="7937" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="7938" max="8192" width="11.42578125" style="23"/>
-    <col min="8193" max="8193" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8448" width="11.42578125" style="23"/>
-    <col min="8449" max="8449" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8704" width="11.42578125" style="23"/>
-    <col min="8705" max="8705" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8960" width="11.42578125" style="23"/>
-    <col min="8961" max="8961" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="8962" max="9216" width="11.42578125" style="23"/>
-    <col min="9217" max="9217" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9472" width="11.42578125" style="23"/>
-    <col min="9473" max="9473" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9728" width="11.42578125" style="23"/>
-    <col min="9729" max="9729" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9984" width="11.42578125" style="23"/>
-    <col min="9985" max="9985" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="9986" max="10240" width="11.42578125" style="23"/>
-    <col min="10241" max="10241" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10496" width="11.42578125" style="23"/>
-    <col min="10497" max="10497" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10752" width="11.42578125" style="23"/>
-    <col min="10753" max="10753" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="10754" max="11008" width="11.42578125" style="23"/>
-    <col min="11009" max="11009" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11264" width="11.42578125" style="23"/>
-    <col min="11265" max="11265" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11520" width="11.42578125" style="23"/>
-    <col min="11521" max="11521" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11776" width="11.42578125" style="23"/>
-    <col min="11777" max="11777" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="11778" max="12032" width="11.42578125" style="23"/>
-    <col min="12033" max="12033" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12288" width="11.42578125" style="23"/>
-    <col min="12289" max="12289" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12544" width="11.42578125" style="23"/>
-    <col min="12545" max="12545" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12800" width="11.42578125" style="23"/>
-    <col min="12801" max="12801" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="12802" max="13056" width="11.42578125" style="23"/>
-    <col min="13057" max="13057" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13312" width="11.42578125" style="23"/>
-    <col min="13313" max="13313" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13568" width="11.42578125" style="23"/>
-    <col min="13569" max="13569" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13824" width="11.42578125" style="23"/>
-    <col min="13825" max="13825" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="13826" max="14080" width="11.42578125" style="23"/>
-    <col min="14081" max="14081" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14336" width="11.42578125" style="23"/>
-    <col min="14337" max="14337" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14592" width="11.42578125" style="23"/>
-    <col min="14593" max="14593" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14848" width="11.42578125" style="23"/>
-    <col min="14849" max="14849" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="14850" max="15104" width="11.42578125" style="23"/>
-    <col min="15105" max="15105" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15360" width="11.42578125" style="23"/>
-    <col min="15361" max="15361" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15616" width="11.42578125" style="23"/>
-    <col min="15617" max="15617" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15872" width="11.42578125" style="23"/>
-    <col min="15873" max="15873" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="15874" max="16128" width="11.42578125" style="23"/>
-    <col min="16129" max="16129" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16384" width="11.42578125" style="23"/>
+    <col min="1" max="1" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="256" width="11.42578125" style="21"/>
+    <col min="257" max="257" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="258" max="512" width="11.42578125" style="21"/>
+    <col min="513" max="513" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="514" max="768" width="11.42578125" style="21"/>
+    <col min="769" max="769" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="770" max="1024" width="11.42578125" style="21"/>
+    <col min="1025" max="1025" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1280" width="11.42578125" style="21"/>
+    <col min="1281" max="1281" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1536" width="11.42578125" style="21"/>
+    <col min="1537" max="1537" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1792" width="11.42578125" style="21"/>
+    <col min="1793" max="1793" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="1794" max="2048" width="11.42578125" style="21"/>
+    <col min="2049" max="2049" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2304" width="11.42578125" style="21"/>
+    <col min="2305" max="2305" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2560" width="11.42578125" style="21"/>
+    <col min="2561" max="2561" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2816" width="11.42578125" style="21"/>
+    <col min="2817" max="2817" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="2818" max="3072" width="11.42578125" style="21"/>
+    <col min="3073" max="3073" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3328" width="11.42578125" style="21"/>
+    <col min="3329" max="3329" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3584" width="11.42578125" style="21"/>
+    <col min="3585" max="3585" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3840" width="11.42578125" style="21"/>
+    <col min="3841" max="3841" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="3842" max="4096" width="11.42578125" style="21"/>
+    <col min="4097" max="4097" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4352" width="11.42578125" style="21"/>
+    <col min="4353" max="4353" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4608" width="11.42578125" style="21"/>
+    <col min="4609" max="4609" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4864" width="11.42578125" style="21"/>
+    <col min="4865" max="4865" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="4866" max="5120" width="11.42578125" style="21"/>
+    <col min="5121" max="5121" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5376" width="11.42578125" style="21"/>
+    <col min="5377" max="5377" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5632" width="11.42578125" style="21"/>
+    <col min="5633" max="5633" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5888" width="11.42578125" style="21"/>
+    <col min="5889" max="5889" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="5890" max="6144" width="11.42578125" style="21"/>
+    <col min="6145" max="6145" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6400" width="11.42578125" style="21"/>
+    <col min="6401" max="6401" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6656" width="11.42578125" style="21"/>
+    <col min="6657" max="6657" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6912" width="11.42578125" style="21"/>
+    <col min="6913" max="6913" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="6914" max="7168" width="11.42578125" style="21"/>
+    <col min="7169" max="7169" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7424" width="11.42578125" style="21"/>
+    <col min="7425" max="7425" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7680" width="11.42578125" style="21"/>
+    <col min="7681" max="7681" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7936" width="11.42578125" style="21"/>
+    <col min="7937" max="7937" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="7938" max="8192" width="11.42578125" style="21"/>
+    <col min="8193" max="8193" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8448" width="11.42578125" style="21"/>
+    <col min="8449" max="8449" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8704" width="11.42578125" style="21"/>
+    <col min="8705" max="8705" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8960" width="11.42578125" style="21"/>
+    <col min="8961" max="8961" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="8962" max="9216" width="11.42578125" style="21"/>
+    <col min="9217" max="9217" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9472" width="11.42578125" style="21"/>
+    <col min="9473" max="9473" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9728" width="11.42578125" style="21"/>
+    <col min="9729" max="9729" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9984" width="11.42578125" style="21"/>
+    <col min="9985" max="9985" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="9986" max="10240" width="11.42578125" style="21"/>
+    <col min="10241" max="10241" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10496" width="11.42578125" style="21"/>
+    <col min="10497" max="10497" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10752" width="11.42578125" style="21"/>
+    <col min="10753" max="10753" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="10754" max="11008" width="11.42578125" style="21"/>
+    <col min="11009" max="11009" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11264" width="11.42578125" style="21"/>
+    <col min="11265" max="11265" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11520" width="11.42578125" style="21"/>
+    <col min="11521" max="11521" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11776" width="11.42578125" style="21"/>
+    <col min="11777" max="11777" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="11778" max="12032" width="11.42578125" style="21"/>
+    <col min="12033" max="12033" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12288" width="11.42578125" style="21"/>
+    <col min="12289" max="12289" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12544" width="11.42578125" style="21"/>
+    <col min="12545" max="12545" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12800" width="11.42578125" style="21"/>
+    <col min="12801" max="12801" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="12802" max="13056" width="11.42578125" style="21"/>
+    <col min="13057" max="13057" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13312" width="11.42578125" style="21"/>
+    <col min="13313" max="13313" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13568" width="11.42578125" style="21"/>
+    <col min="13569" max="13569" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13824" width="11.42578125" style="21"/>
+    <col min="13825" max="13825" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="13826" max="14080" width="11.42578125" style="21"/>
+    <col min="14081" max="14081" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14336" width="11.42578125" style="21"/>
+    <col min="14337" max="14337" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14592" width="11.42578125" style="21"/>
+    <col min="14593" max="14593" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14848" width="11.42578125" style="21"/>
+    <col min="14849" max="14849" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="14850" max="15104" width="11.42578125" style="21"/>
+    <col min="15105" max="15105" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15360" width="11.42578125" style="21"/>
+    <col min="15361" max="15361" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15616" width="11.42578125" style="21"/>
+    <col min="15617" max="15617" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15872" width="11.42578125" style="21"/>
+    <col min="15873" max="15873" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="15874" max="16128" width="11.42578125" style="21"/>
+    <col min="16129" max="16129" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16384" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25">
+      <c r="A2" s="23">
         <v>43910</v>
       </c>
-      <c r="B2" s="26">
-        <v>1</v>
-      </c>
-      <c r="C2" s="26">
-        <v>0</v>
-      </c>
-      <c r="D2" s="26">
-        <v>0</v>
-      </c>
-      <c r="E2" s="26">
+      <c r="B2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
+      <c r="A3" s="23">
         <v>43911</v>
       </c>
-      <c r="B3" s="26">
-        <v>1</v>
-      </c>
-      <c r="C3" s="26">
-        <v>0</v>
-      </c>
-      <c r="D3" s="26">
-        <v>0</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="B3" s="24">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
+      <c r="A4" s="23">
         <v>43912</v>
       </c>
-      <c r="B4" s="26">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26">
-        <v>0</v>
-      </c>
-      <c r="D4" s="26">
-        <v>0</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
+      <c r="A5" s="23">
         <v>43913</v>
       </c>
-      <c r="B5" s="26">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26">
-        <v>0</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="B5" s="24">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
+      <c r="A6" s="23">
         <v>43914</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>2</v>
       </c>
-      <c r="C6" s="26">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26">
-        <v>0</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="25">
+      <c r="A7" s="23">
         <v>43915</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <v>2</v>
       </c>
-      <c r="C7" s="26">
-        <v>0</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <v>43916</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <v>2</v>
       </c>
-      <c r="C8" s="26">
-        <v>0</v>
-      </c>
-      <c r="D8" s="26">
-        <v>0</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
+      <c r="A9" s="23">
         <v>43917</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="24">
         <v>2</v>
       </c>
-      <c r="C9" s="26">
-        <v>1</v>
-      </c>
-      <c r="D9" s="26">
-        <v>1</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="C9" s="24">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10" s="23">
         <v>43918</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <v>2</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <v>3</v>
       </c>
-      <c r="D10" s="26">
-        <v>1</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+      <c r="A11" s="23">
         <v>43919</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <v>2</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="24">
         <v>3</v>
       </c>
-      <c r="D11" s="26">
-        <v>1</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
+      <c r="A12" s="23">
         <v>43920</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <v>5</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="24">
         <v>3</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="24">
         <v>2</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
+      <c r="A13" s="23">
         <v>43921</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="24">
         <v>5</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="24">
         <v>6</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="24">
         <v>3</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
+      <c r="A14" s="23">
         <v>43922</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="24">
         <v>5</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="24">
         <v>8</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="24">
         <v>4</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
+      <c r="A15" s="23">
         <v>43923</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="24">
         <v>5</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="24">
         <v>10</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="24">
         <v>5</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
+      <c r="A16" s="23">
         <v>43924</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="24">
         <v>5</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="24">
         <v>11</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="24">
         <v>5</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
+      <c r="A17" s="23">
         <v>43925</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="24">
         <v>5</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="24">
         <v>14</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="24">
         <v>5</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
+      <c r="A18" s="23">
         <v>43926</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="24">
         <v>5</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="24">
         <v>15</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="24">
         <v>6</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
+      <c r="A19" s="23">
         <v>43927</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="24">
         <v>5</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
         <v>15</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="24">
         <v>6</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
+      <c r="A20" s="23">
         <v>43928</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="24">
         <v>5</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="24">
         <v>17</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="24">
         <v>6</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
+      <c r="A21" s="23">
         <v>43929</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="24">
         <v>5</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="24">
         <v>17</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="24">
         <v>6</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
+      <c r="A22" s="23">
         <v>43930</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="24">
         <v>5</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="24">
         <v>17</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="24">
         <v>6</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+      <c r="A23" s="23">
         <v>43931</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="24">
         <v>5</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="24">
         <v>18</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="24">
         <v>7</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+      <c r="A24" s="23">
         <v>43932</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="24">
         <v>5</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="24">
         <v>19</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="24">
         <v>7</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
+      <c r="A25" s="23">
         <v>43933</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="24">
         <v>5</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="24">
         <v>22</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="24">
         <v>7</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
+      <c r="A26" s="23">
         <v>43934</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="24">
         <v>5</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="24">
         <v>22</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="24">
         <v>7</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
+      <c r="A27" s="23">
         <v>43935</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="24">
         <v>5</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="24">
         <v>22</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="24">
         <v>7</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
+      <c r="A28" s="23">
         <v>43936</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="24">
         <v>5</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="24">
         <v>22</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="24">
         <v>7</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
+      <c r="A29" s="23">
         <v>43937</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="24">
         <v>5</v>
       </c>
-      <c r="C29" s="26">
-        <v>24</v>
-      </c>
-      <c r="D29" s="26">
+      <c r="C29" s="24">
+        <v>26</v>
+      </c>
+      <c r="D29" s="24">
         <v>7</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <v>43938</v>
+      </c>
+      <c r="B30" s="21">
+        <v>5</v>
+      </c>
+      <c r="C30" s="21">
+        <v>27</v>
+      </c>
+      <c r="D30" s="21">
+        <v>8</v>
+      </c>
+      <c r="E30" s="21">
         <v>1</v>
       </c>
     </row>
@@ -10039,13 +10367,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E021415-1778-4B30-A8BD-BEBA75CB7A91}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25:I25"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11129,6 +11457,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>43938</v>
+      </c>
+      <c r="C26" s="16">
+        <v>363</v>
+      </c>
+      <c r="D26" s="16">
+        <v>167</v>
+      </c>
+      <c r="E26" s="16">
+        <v>196</v>
+      </c>
+      <c r="F26" s="16">
+        <v>316</v>
+      </c>
+      <c r="G26" s="16">
+        <v>47</v>
+      </c>
+      <c r="H26" s="16">
+        <v>362</v>
+      </c>
+      <c r="I26" s="16">
+        <v>1</v>
+      </c>
+      <c r="J26" s="16">
+        <v>23</v>
+      </c>
+      <c r="K26" s="16">
+        <v>99</v>
+      </c>
+      <c r="L26" s="16">
+        <v>281</v>
+      </c>
+      <c r="M26" s="16">
+        <v>70</v>
+      </c>
+      <c r="N26" s="16">
+        <v>11</v>
+      </c>
+      <c r="O26" s="16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11139,8 +11511,8 @@
   <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM18" sqref="AM18"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN18" sqref="AN18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11150,7 +11522,7 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -11268,8 +11640,11 @@
       <c r="AM1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN1" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -11385,8 +11760,11 @@
       <c r="AM2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -11502,8 +11880,11 @@
       <c r="AM3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -11619,8 +12000,11 @@
       <c r="AM4">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -11736,8 +12120,11 @@
       <c r="AM5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -11853,8 +12240,11 @@
       <c r="AM6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -11970,8 +12360,11 @@
       <c r="AM7">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -12087,8 +12480,11 @@
       <c r="AM8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -12204,8 +12600,11 @@
       <c r="AM9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -12321,8 +12720,11 @@
       <c r="AM10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -12438,8 +12840,11 @@
       <c r="AM11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -12555,8 +12960,11 @@
       <c r="AM12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -12672,8 +13080,11 @@
       <c r="AM13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -12789,8 +13200,11 @@
       <c r="AM14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -12906,8 +13320,11 @@
       <c r="AM15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -13022,6 +13439,9 @@
       </c>
       <c r="AM16">
         <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -13140,6 +13560,9 @@
       <c r="AM17">
         <v>0</v>
       </c>
+      <c r="AN17">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -13246,7 +13669,7 @@
         <v>32</v>
       </c>
       <c r="AC18">
-        <f t="shared" ref="AC18:AM18" si="13">SUM(AC2:AC17)</f>
+        <f t="shared" ref="AC18:AN18" si="13">SUM(AC2:AC17)</f>
         <v>30</v>
       </c>
       <c r="AD18">
@@ -13289,6 +13712,10 @@
         <f t="shared" si="13"/>
         <v>48</v>
       </c>
+      <c r="AN18" s="20">
+        <f t="shared" si="13"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -13402,7 +13829,9 @@
       <c r="AM19" s="2">
         <v>43936</v>
       </c>
-      <c r="AN19" s="2"/>
+      <c r="AN19" s="2">
+        <v>43937</v>
+      </c>
       <c r="AO19" s="2"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -13553,8 +13982,12 @@
         <v>814</v>
       </c>
       <c r="AM20">
-        <f t="shared" ref="AM20" si="23">SUM(AL20,AM18)</f>
+        <f t="shared" ref="AM20:AN20" si="23">SUM(AL20,AM18)</f>
         <v>862</v>
+      </c>
+      <c r="AN20" s="20">
+        <f t="shared" si="23"/>
+        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -13568,8 +14001,8 @@
   <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK7" sqref="AK7"/>
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13579,7 +14012,7 @@
     <col min="27" max="27" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -13691,8 +14124,14 @@
       <c r="AK1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL1" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM1" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -13838,8 +14277,16 @@
         <f>IF(EXACT('Por Provincias'!AL2,""),"",SUM('Por Provincias'!AL2,Evolucion!AJ2))</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL2" s="20">
+        <f>IF(EXACT('Por Provincias'!AM2,""),"",SUM('Por Provincias'!AM2,Evolucion!AK2))</f>
+        <v>26</v>
+      </c>
+      <c r="AM2" s="20">
+        <f>IF(EXACT('Por Provincias'!AN2,""),"",SUM('Por Provincias'!AN2,Evolucion!AL2))</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -13986,8 +14433,16 @@
         <f>IF(EXACT('Por Provincias'!AL3,""),"",SUM('Por Provincias'!AL3,Evolucion!AJ3))</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL3" s="20">
+        <f>IF(EXACT('Por Provincias'!AM3,""),"",SUM('Por Provincias'!AM3,Evolucion!AK3))</f>
+        <v>27</v>
+      </c>
+      <c r="AM3" s="20">
+        <f>IF(EXACT('Por Provincias'!AN3,""),"",SUM('Por Provincias'!AN3,Evolucion!AL3))</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -14129,8 +14584,16 @@
         <f>IF(EXACT('Por Provincias'!AL4,""),"",SUM('Por Provincias'!AL4,Evolucion!AJ4))</f>
         <v>298</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL4" s="20">
+        <f>IF(EXACT('Por Provincias'!AM4,""),"",SUM('Por Provincias'!AM4,Evolucion!AK4))</f>
+        <v>321</v>
+      </c>
+      <c r="AM4" s="20">
+        <f>IF(EXACT('Por Provincias'!AN4,""),"",SUM('Por Provincias'!AN4,Evolucion!AL4))</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -14255,8 +14718,16 @@
         <f>IF(EXACT('Por Provincias'!AL5,""),"",SUM('Por Provincias'!AL5,Evolucion!AJ5))</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL5" s="20">
+        <f>IF(EXACT('Por Provincias'!AM5,""),"",SUM('Por Provincias'!AM5,Evolucion!AK5))</f>
+        <v>14</v>
+      </c>
+      <c r="AM5" s="20">
+        <f>IF(EXACT('Por Provincias'!AN5,""),"",SUM('Por Provincias'!AN5,Evolucion!AL5))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -14399,8 +14870,16 @@
         <f>IF(EXACT('Por Provincias'!AL6,""),"",SUM('Por Provincias'!AL6,Evolucion!AJ6))</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL6" s="20">
+        <f>IF(EXACT('Por Provincias'!AM6,""),"",SUM('Por Provincias'!AM6,Evolucion!AK6))</f>
+        <v>53</v>
+      </c>
+      <c r="AM6" s="20">
+        <f>IF(EXACT('Por Provincias'!AN6,""),"",SUM('Por Provincias'!AN6,Evolucion!AL6))</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -14547,8 +15026,16 @@
         <f>IF(EXACT('Por Provincias'!AL7,""),"",SUM('Por Provincias'!AL7,Evolucion!AJ7))</f>
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL7" s="20">
+        <f>IF(EXACT('Por Provincias'!AM7,""),"",SUM('Por Provincias'!AM7,Evolucion!AK7))</f>
+        <v>112</v>
+      </c>
+      <c r="AM7" s="20">
+        <f>IF(EXACT('Por Provincias'!AN7,""),"",SUM('Por Provincias'!AN7,Evolucion!AL7))</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -14691,8 +15178,16 @@
         <f>IF(EXACT('Por Provincias'!AL8,""),"",SUM('Por Provincias'!AL8,Evolucion!AJ8))</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL8" s="20">
+        <f>IF(EXACT('Por Provincias'!AM8,""),"",SUM('Por Provincias'!AM8,Evolucion!AK8))</f>
+        <v>11</v>
+      </c>
+      <c r="AM8" s="20">
+        <f>IF(EXACT('Por Provincias'!AN8,""),"",SUM('Por Provincias'!AN8,Evolucion!AL8))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>183</v>
       </c>
@@ -14839,8 +15334,16 @@
         <f>IF(EXACT('Por Provincias'!AL9,""),"",SUM('Por Provincias'!AL9,Evolucion!AJ9))</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL9" s="20">
+        <f>IF(EXACT('Por Provincias'!AM9,""),"",SUM('Por Provincias'!AM9,Evolucion!AK9))</f>
+        <v>56</v>
+      </c>
+      <c r="AM9" s="20">
+        <f>IF(EXACT('Por Provincias'!AN9,""),"",SUM('Por Provincias'!AN9,Evolucion!AL9))</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -14975,8 +15478,16 @@
         <f>IF(EXACT('Por Provincias'!AL10,""),"",SUM('Por Provincias'!AL10,Evolucion!AJ10))</f>
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL10" s="20">
+        <f>IF(EXACT('Por Provincias'!AM10,""),"",SUM('Por Provincias'!AM10,Evolucion!AK10))</f>
+        <v>72</v>
+      </c>
+      <c r="AM10" s="20">
+        <f>IF(EXACT('Por Provincias'!AN10,""),"",SUM('Por Provincias'!AN10,Evolucion!AL10))</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -15123,8 +15634,16 @@
         <f>IF(EXACT('Por Provincias'!AL11,""),"",SUM('Por Provincias'!AL11,Evolucion!AJ11))</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL11" s="20">
+        <f>IF(EXACT('Por Provincias'!AM11,""),"",SUM('Por Provincias'!AM11,Evolucion!AK11))</f>
+        <v>32</v>
+      </c>
+      <c r="AM11" s="20">
+        <f>IF(EXACT('Por Provincias'!AN11,""),"",SUM('Por Provincias'!AN11,Evolucion!AL11))</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>141</v>
       </c>
@@ -15264,8 +15783,16 @@
         <f>IF(EXACT('Por Provincias'!AL12,""),"",SUM('Por Provincias'!AL12,Evolucion!AJ12))</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL12" s="20">
+        <f>IF(EXACT('Por Provincias'!AM12,""),"",SUM('Por Provincias'!AM12,Evolucion!AK12))</f>
+        <v>7</v>
+      </c>
+      <c r="AM12" s="20">
+        <f>IF(EXACT('Por Provincias'!AN12,""),"",SUM('Por Provincias'!AN12,Evolucion!AL12))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -15405,8 +15932,16 @@
         <f>IF(EXACT('Por Provincias'!AL13,""),"",SUM('Por Provincias'!AL13,Evolucion!AJ13))</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL13" s="20">
+        <f>IF(EXACT('Por Provincias'!AM13,""),"",SUM('Por Provincias'!AM13,Evolucion!AK13))</f>
+        <v>59</v>
+      </c>
+      <c r="AM13" s="20">
+        <f>IF(EXACT('Por Provincias'!AN13,""),"",SUM('Por Provincias'!AN13,Evolucion!AL13))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -15545,8 +16080,16 @@
         <f>IF(EXACT('Por Provincias'!AL14,""),"",SUM('Por Provincias'!AL14,Evolucion!AJ14))</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL14" s="20">
+        <f>IF(EXACT('Por Provincias'!AM14,""),"",SUM('Por Provincias'!AM14,Evolucion!AK14))</f>
+        <v>10</v>
+      </c>
+      <c r="AM14" s="20">
+        <f>IF(EXACT('Por Provincias'!AN14,""),"",SUM('Por Provincias'!AN14,Evolucion!AL14))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -15684,8 +16227,16 @@
         <f>IF(EXACT('Por Provincias'!AL15,""),"",SUM('Por Provincias'!AL15,Evolucion!AJ15))</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL15" s="20">
+        <f>IF(EXACT('Por Provincias'!AM15,""),"",SUM('Por Provincias'!AM15,Evolucion!AK15))</f>
+        <v>34</v>
+      </c>
+      <c r="AM15" s="20">
+        <f>IF(EXACT('Por Provincias'!AN15,""),"",SUM('Por Provincias'!AN15,Evolucion!AL15))</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -15810,6 +16361,14 @@
         <f>IF(EXACT('Por Provincias'!AL16,""),"",SUM('Por Provincias'!AL16,Evolucion!AJ16))</f>
         <v>10</v>
       </c>
+      <c r="AL16" s="20">
+        <f>IF(EXACT('Por Provincias'!AM16,""),"",SUM('Por Provincias'!AM16,Evolucion!AK16))</f>
+        <v>11</v>
+      </c>
+      <c r="AM16" s="20">
+        <f>IF(EXACT('Por Provincias'!AN16,""),"",SUM('Por Provincias'!AN16,Evolucion!AL16))</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -15936,6 +16495,14 @@
         <f>IF(EXACT('Por Provincias'!AL17,""),"",SUM('Por Provincias'!AL17,Evolucion!AJ17))</f>
         <v>17</v>
       </c>
+      <c r="AL17" s="20">
+        <f>IF(EXACT('Por Provincias'!AM17,""),"",SUM('Por Provincias'!AM17,Evolucion!AK17))</f>
+        <v>17</v>
+      </c>
+      <c r="AM17" s="20">
+        <f>IF(EXACT('Por Provincias'!AN17,""),"",SUM('Por Provincias'!AN17,Evolucion!AL17))</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -16081,6 +16648,14 @@
         <f>IF(EXACT('Por Provincias'!AL18,""),"",SUM('Por Provincias'!AL18,Evolucion!AJ18))</f>
         <v>814</v>
       </c>
+      <c r="AL18" s="20">
+        <f>IF(EXACT('Por Provincias'!AM18,""),"",SUM('Por Provincias'!AM18,Evolucion!AK18))</f>
+        <v>862</v>
+      </c>
+      <c r="AM18" s="20">
+        <f>IF(EXACT('Por Provincias'!AN18,""),"",SUM('Por Provincias'!AN18,Evolucion!AL18))</f>
+        <v>923</v>
+      </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -16191,8 +16766,12 @@
       <c r="AK19" s="2">
         <v>43935</v>
       </c>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
+      <c r="AL19" s="2">
+        <v>43936</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>43937</v>
+      </c>
       <c r="AN19" s="2"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
@@ -16336,8 +16915,16 @@
         <v>766</v>
       </c>
       <c r="AK20">
-        <f t="shared" ref="AK20" si="7">SUM(AK2:AK17)</f>
+        <f t="shared" ref="AK20:AL20" si="7">SUM(AK2:AK17)</f>
         <v>814</v>
+      </c>
+      <c r="AL20" s="20">
+        <f t="shared" si="7"/>
+        <v>862</v>
+      </c>
+      <c r="AM20" s="20">
+        <f t="shared" ref="AM20" si="8">SUM(AM2:AM17)</f>
+        <v>923</v>
       </c>
     </row>
   </sheetData>

--- a/data/COVID-19.xlsx
+++ b/data/COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642FB9EA-20FB-46D4-A74F-5A23C0A935A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EDF5BF-4B8C-4F80-9772-14852F8BACF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="749" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="749" activeTab="4" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="191">
   <si>
     <t>Fecha</t>
   </si>
@@ -614,6 +614,9 @@
   </si>
   <si>
     <t>65-69</t>
+  </si>
+  <si>
+    <t>Baire</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFE099A-7FE0-44E4-8A56-B8067923C050}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,6 +2101,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B39" s="7">
         <v>38</v>
       </c>
@@ -2121,6 +2127,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B40" s="7">
         <v>39</v>
       </c>
@@ -2140,6 +2149,58 @@
         <v>160</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="7">
+        <v>40</v>
+      </c>
+      <c r="C41" s="7">
+        <v>23</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="2">
+        <v>43938</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="7">
+        <v>41</v>
+      </c>
+      <c r="C42" s="7">
+        <v>78</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="2">
+        <v>43938</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2155,7 +2216,7 @@
   <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK5" sqref="AK5"/>
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2380,10 +2441,10 @@
         <v>19</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -2528,11 +2589,11 @@
       </c>
       <c r="AJ3">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="AK3">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -2656,13 +2717,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C0B0C-1604-47BA-9C7F-055BA2CD3905}">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E111" sqref="E111:J111"/>
+      <selection pane="bottomRight" activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6253,6 +6314,52 @@
         <v>95</v>
       </c>
     </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>40</v>
+      </c>
+      <c r="B112" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112" s="7">
+        <v>23</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>41</v>
+      </c>
+      <c r="B113" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="7">
+        <v>78</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M102" xr:uid="{EE19C93D-CC10-4277-8776-D07EDA3FF01D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M102">
@@ -6267,10 +6374,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5E3218-457F-4398-A6C7-EE32CB90DAE2}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6668,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D29" si="2">D15+C16</f>
+        <f t="shared" ref="D16:D30" si="2">D15+C16</f>
         <v>22</v>
       </c>
       <c r="E16">
@@ -6750,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F29" si="3">D19-E19-G19</f>
+        <f t="shared" ref="F19:F30" si="3">D19-E19-G19</f>
         <v>26</v>
       </c>
       <c r="G19">
@@ -7023,6 +7130,37 @@
       </c>
       <c r="I29">
         <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="3">
+        <v>43938</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="20">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7034,13 +7172,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AE470-D3D4-4B7B-8904-78477B90993B}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7743,7 +7881,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D31" si="1">B22-C22-E22</f>
+        <f t="shared" ref="D22:D32" si="1">B22-C22-E22</f>
         <v>183</v>
       </c>
       <c r="E22" s="1">
@@ -8044,6 +8182,24 @@
         <v>251</v>
       </c>
       <c r="E31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>43938</v>
+      </c>
+      <c r="B32" s="1">
+        <v>93</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E32" s="1">
         <v>1</v>
       </c>
     </row>
@@ -8056,11 +8212,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437E6C5D-77A2-49DB-A15A-4AEFF9C341D7}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9487,15 +9643,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>43938</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>102</v>
       </c>
+      <c r="C33" s="7">
+        <f t="shared" ref="C33" si="12">IF(EXACT(J33,""),"",SUM(C32+J33))</f>
+        <v>9</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" ref="D33" si="13">IF(EXACT(K33,""),"",SUM(D32+K33))</f>
+        <v>63</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" ref="E33" si="14">IF(EXACT(L33,""),"",SUM(E32+L33))</f>
+        <v>10</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" ref="F33" si="15">IF(EXACT(M33,""),"",SUM(F32+M33))</f>
+        <v>41</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" ref="G33" si="16">IF(EXACT(N33,""),"",SUM(G32+N33))</f>
+        <v>13</v>
+      </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -9515,7 +9706,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
@@ -10146,6 +10337,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <v>43938</v>
+      </c>
+      <c r="B30" s="21">
+        <v>5</v>
+      </c>
+      <c r="C30" s="21">
+        <v>27</v>
+      </c>
+      <c r="D30" s="21">
+        <v>8</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -10159,13 +10367,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E021415-1778-4B30-A8BD-BEBA75CB7A91}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25:I25"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11249,6 +11457,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>43938</v>
+      </c>
+      <c r="C26" s="16">
+        <v>363</v>
+      </c>
+      <c r="D26" s="16">
+        <v>167</v>
+      </c>
+      <c r="E26" s="16">
+        <v>196</v>
+      </c>
+      <c r="F26" s="16">
+        <v>316</v>
+      </c>
+      <c r="G26" s="16">
+        <v>47</v>
+      </c>
+      <c r="H26" s="16">
+        <v>362</v>
+      </c>
+      <c r="I26" s="16">
+        <v>1</v>
+      </c>
+      <c r="J26" s="16">
+        <v>23</v>
+      </c>
+      <c r="K26" s="16">
+        <v>99</v>
+      </c>
+      <c r="L26" s="16">
+        <v>281</v>
+      </c>
+      <c r="M26" s="16">
+        <v>70</v>
+      </c>
+      <c r="N26" s="16">
+        <v>11</v>
+      </c>
+      <c r="O26" s="16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11259,8 +11511,8 @@
   <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM18" sqref="AM18"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN18" sqref="AN18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11270,7 +11522,7 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -11388,8 +11640,11 @@
       <c r="AM1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN1" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -11505,8 +11760,11 @@
       <c r="AM2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -11622,8 +11880,11 @@
       <c r="AM3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -11739,8 +12000,11 @@
       <c r="AM4">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -11856,8 +12120,11 @@
       <c r="AM5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -11973,8 +12240,11 @@
       <c r="AM6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -12090,8 +12360,11 @@
       <c r="AM7">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -12207,8 +12480,11 @@
       <c r="AM8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -12324,8 +12600,11 @@
       <c r="AM9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -12441,8 +12720,11 @@
       <c r="AM10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -12558,8 +12840,11 @@
       <c r="AM11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -12675,8 +12960,11 @@
       <c r="AM12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -12792,8 +13080,11 @@
       <c r="AM13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -12909,8 +13200,11 @@
       <c r="AM14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -13026,8 +13320,11 @@
       <c r="AM15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -13142,6 +13439,9 @@
       </c>
       <c r="AM16">
         <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -13260,6 +13560,9 @@
       <c r="AM17">
         <v>0</v>
       </c>
+      <c r="AN17">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -13366,7 +13669,7 @@
         <v>32</v>
       </c>
       <c r="AC18">
-        <f t="shared" ref="AC18:AM18" si="13">SUM(AC2:AC17)</f>
+        <f t="shared" ref="AC18:AN18" si="13">SUM(AC2:AC17)</f>
         <v>30</v>
       </c>
       <c r="AD18">
@@ -13409,6 +13712,10 @@
         <f t="shared" si="13"/>
         <v>48</v>
       </c>
+      <c r="AN18" s="20">
+        <f t="shared" si="13"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -13522,7 +13829,9 @@
       <c r="AM19" s="2">
         <v>43936</v>
       </c>
-      <c r="AN19" s="2"/>
+      <c r="AN19" s="2">
+        <v>43937</v>
+      </c>
       <c r="AO19" s="2"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
@@ -13673,8 +13982,12 @@
         <v>814</v>
       </c>
       <c r="AM20">
-        <f t="shared" ref="AM20" si="23">SUM(AL20,AM18)</f>
+        <f t="shared" ref="AM20:AN20" si="23">SUM(AL20,AM18)</f>
         <v>862</v>
+      </c>
+      <c r="AN20" s="20">
+        <f t="shared" si="23"/>
+        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -13688,8 +14001,8 @@
   <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK12" sqref="AK12"/>
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13699,7 +14012,7 @@
     <col min="27" max="27" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -13811,8 +14124,14 @@
       <c r="AK1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL1" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM1" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -13958,8 +14277,16 @@
         <f>IF(EXACT('Por Provincias'!AL2,""),"",SUM('Por Provincias'!AL2,Evolucion!AJ2))</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL2" s="20">
+        <f>IF(EXACT('Por Provincias'!AM2,""),"",SUM('Por Provincias'!AM2,Evolucion!AK2))</f>
+        <v>26</v>
+      </c>
+      <c r="AM2" s="20">
+        <f>IF(EXACT('Por Provincias'!AN2,""),"",SUM('Por Provincias'!AN2,Evolucion!AL2))</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -14106,8 +14433,16 @@
         <f>IF(EXACT('Por Provincias'!AL3,""),"",SUM('Por Provincias'!AL3,Evolucion!AJ3))</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL3" s="20">
+        <f>IF(EXACT('Por Provincias'!AM3,""),"",SUM('Por Provincias'!AM3,Evolucion!AK3))</f>
+        <v>27</v>
+      </c>
+      <c r="AM3" s="20">
+        <f>IF(EXACT('Por Provincias'!AN3,""),"",SUM('Por Provincias'!AN3,Evolucion!AL3))</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -14249,8 +14584,16 @@
         <f>IF(EXACT('Por Provincias'!AL4,""),"",SUM('Por Provincias'!AL4,Evolucion!AJ4))</f>
         <v>298</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL4" s="20">
+        <f>IF(EXACT('Por Provincias'!AM4,""),"",SUM('Por Provincias'!AM4,Evolucion!AK4))</f>
+        <v>321</v>
+      </c>
+      <c r="AM4" s="20">
+        <f>IF(EXACT('Por Provincias'!AN4,""),"",SUM('Por Provincias'!AN4,Evolucion!AL4))</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -14375,8 +14718,16 @@
         <f>IF(EXACT('Por Provincias'!AL5,""),"",SUM('Por Provincias'!AL5,Evolucion!AJ5))</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL5" s="20">
+        <f>IF(EXACT('Por Provincias'!AM5,""),"",SUM('Por Provincias'!AM5,Evolucion!AK5))</f>
+        <v>14</v>
+      </c>
+      <c r="AM5" s="20">
+        <f>IF(EXACT('Por Provincias'!AN5,""),"",SUM('Por Provincias'!AN5,Evolucion!AL5))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -14519,8 +14870,16 @@
         <f>IF(EXACT('Por Provincias'!AL6,""),"",SUM('Por Provincias'!AL6,Evolucion!AJ6))</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL6" s="20">
+        <f>IF(EXACT('Por Provincias'!AM6,""),"",SUM('Por Provincias'!AM6,Evolucion!AK6))</f>
+        <v>53</v>
+      </c>
+      <c r="AM6" s="20">
+        <f>IF(EXACT('Por Provincias'!AN6,""),"",SUM('Por Provincias'!AN6,Evolucion!AL6))</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -14667,8 +15026,16 @@
         <f>IF(EXACT('Por Provincias'!AL7,""),"",SUM('Por Provincias'!AL7,Evolucion!AJ7))</f>
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL7" s="20">
+        <f>IF(EXACT('Por Provincias'!AM7,""),"",SUM('Por Provincias'!AM7,Evolucion!AK7))</f>
+        <v>112</v>
+      </c>
+      <c r="AM7" s="20">
+        <f>IF(EXACT('Por Provincias'!AN7,""),"",SUM('Por Provincias'!AN7,Evolucion!AL7))</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -14811,8 +15178,16 @@
         <f>IF(EXACT('Por Provincias'!AL8,""),"",SUM('Por Provincias'!AL8,Evolucion!AJ8))</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL8" s="20">
+        <f>IF(EXACT('Por Provincias'!AM8,""),"",SUM('Por Provincias'!AM8,Evolucion!AK8))</f>
+        <v>11</v>
+      </c>
+      <c r="AM8" s="20">
+        <f>IF(EXACT('Por Provincias'!AN8,""),"",SUM('Por Provincias'!AN8,Evolucion!AL8))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>183</v>
       </c>
@@ -14959,8 +15334,16 @@
         <f>IF(EXACT('Por Provincias'!AL9,""),"",SUM('Por Provincias'!AL9,Evolucion!AJ9))</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL9" s="20">
+        <f>IF(EXACT('Por Provincias'!AM9,""),"",SUM('Por Provincias'!AM9,Evolucion!AK9))</f>
+        <v>56</v>
+      </c>
+      <c r="AM9" s="20">
+        <f>IF(EXACT('Por Provincias'!AN9,""),"",SUM('Por Provincias'!AN9,Evolucion!AL9))</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -15095,8 +15478,16 @@
         <f>IF(EXACT('Por Provincias'!AL10,""),"",SUM('Por Provincias'!AL10,Evolucion!AJ10))</f>
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL10" s="20">
+        <f>IF(EXACT('Por Provincias'!AM10,""),"",SUM('Por Provincias'!AM10,Evolucion!AK10))</f>
+        <v>72</v>
+      </c>
+      <c r="AM10" s="20">
+        <f>IF(EXACT('Por Provincias'!AN10,""),"",SUM('Por Provincias'!AN10,Evolucion!AL10))</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -15243,8 +15634,16 @@
         <f>IF(EXACT('Por Provincias'!AL11,""),"",SUM('Por Provincias'!AL11,Evolucion!AJ11))</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL11" s="20">
+        <f>IF(EXACT('Por Provincias'!AM11,""),"",SUM('Por Provincias'!AM11,Evolucion!AK11))</f>
+        <v>32</v>
+      </c>
+      <c r="AM11" s="20">
+        <f>IF(EXACT('Por Provincias'!AN11,""),"",SUM('Por Provincias'!AN11,Evolucion!AL11))</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>141</v>
       </c>
@@ -15384,8 +15783,16 @@
         <f>IF(EXACT('Por Provincias'!AL12,""),"",SUM('Por Provincias'!AL12,Evolucion!AJ12))</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL12" s="20">
+        <f>IF(EXACT('Por Provincias'!AM12,""),"",SUM('Por Provincias'!AM12,Evolucion!AK12))</f>
+        <v>7</v>
+      </c>
+      <c r="AM12" s="20">
+        <f>IF(EXACT('Por Provincias'!AN12,""),"",SUM('Por Provincias'!AN12,Evolucion!AL12))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -15525,8 +15932,16 @@
         <f>IF(EXACT('Por Provincias'!AL13,""),"",SUM('Por Provincias'!AL13,Evolucion!AJ13))</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL13" s="20">
+        <f>IF(EXACT('Por Provincias'!AM13,""),"",SUM('Por Provincias'!AM13,Evolucion!AK13))</f>
+        <v>59</v>
+      </c>
+      <c r="AM13" s="20">
+        <f>IF(EXACT('Por Provincias'!AN13,""),"",SUM('Por Provincias'!AN13,Evolucion!AL13))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -15665,8 +16080,16 @@
         <f>IF(EXACT('Por Provincias'!AL14,""),"",SUM('Por Provincias'!AL14,Evolucion!AJ14))</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL14" s="20">
+        <f>IF(EXACT('Por Provincias'!AM14,""),"",SUM('Por Provincias'!AM14,Evolucion!AK14))</f>
+        <v>10</v>
+      </c>
+      <c r="AM14" s="20">
+        <f>IF(EXACT('Por Provincias'!AN14,""),"",SUM('Por Provincias'!AN14,Evolucion!AL14))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -15804,8 +16227,16 @@
         <f>IF(EXACT('Por Provincias'!AL15,""),"",SUM('Por Provincias'!AL15,Evolucion!AJ15))</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL15" s="20">
+        <f>IF(EXACT('Por Provincias'!AM15,""),"",SUM('Por Provincias'!AM15,Evolucion!AK15))</f>
+        <v>34</v>
+      </c>
+      <c r="AM15" s="20">
+        <f>IF(EXACT('Por Provincias'!AN15,""),"",SUM('Por Provincias'!AN15,Evolucion!AL15))</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -15930,6 +16361,14 @@
         <f>IF(EXACT('Por Provincias'!AL16,""),"",SUM('Por Provincias'!AL16,Evolucion!AJ16))</f>
         <v>10</v>
       </c>
+      <c r="AL16" s="20">
+        <f>IF(EXACT('Por Provincias'!AM16,""),"",SUM('Por Provincias'!AM16,Evolucion!AK16))</f>
+        <v>11</v>
+      </c>
+      <c r="AM16" s="20">
+        <f>IF(EXACT('Por Provincias'!AN16,""),"",SUM('Por Provincias'!AN16,Evolucion!AL16))</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -16056,6 +16495,14 @@
         <f>IF(EXACT('Por Provincias'!AL17,""),"",SUM('Por Provincias'!AL17,Evolucion!AJ17))</f>
         <v>17</v>
       </c>
+      <c r="AL17" s="20">
+        <f>IF(EXACT('Por Provincias'!AM17,""),"",SUM('Por Provincias'!AM17,Evolucion!AK17))</f>
+        <v>17</v>
+      </c>
+      <c r="AM17" s="20">
+        <f>IF(EXACT('Por Provincias'!AN17,""),"",SUM('Por Provincias'!AN17,Evolucion!AL17))</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -16201,6 +16648,14 @@
         <f>IF(EXACT('Por Provincias'!AL18,""),"",SUM('Por Provincias'!AL18,Evolucion!AJ18))</f>
         <v>814</v>
       </c>
+      <c r="AL18" s="20">
+        <f>IF(EXACT('Por Provincias'!AM18,""),"",SUM('Por Provincias'!AM18,Evolucion!AK18))</f>
+        <v>862</v>
+      </c>
+      <c r="AM18" s="20">
+        <f>IF(EXACT('Por Provincias'!AN18,""),"",SUM('Por Provincias'!AN18,Evolucion!AL18))</f>
+        <v>923</v>
+      </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -16311,8 +16766,12 @@
       <c r="AK19" s="2">
         <v>43935</v>
       </c>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
+      <c r="AL19" s="2">
+        <v>43936</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>43937</v>
+      </c>
       <c r="AN19" s="2"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
@@ -16456,8 +16915,16 @@
         <v>766</v>
       </c>
       <c r="AK20">
-        <f t="shared" ref="AK20" si="7">SUM(AK2:AK17)</f>
+        <f t="shared" ref="AK20:AL20" si="7">SUM(AK2:AK17)</f>
         <v>814</v>
+      </c>
+      <c r="AL20" s="20">
+        <f t="shared" si="7"/>
+        <v>862</v>
+      </c>
+      <c r="AM20" s="20">
+        <f t="shared" ref="AM20" si="8">SUM(AM2:AM17)</f>
+        <v>923</v>
       </c>
     </row>
   </sheetData>

--- a/data/COVID-19.xlsx
+++ b/data/COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EDF5BF-4B8C-4F80-9772-14852F8BACF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3710D339-A437-4FD1-B89E-5666DD8DDC98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="749" activeTab="4" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="749" firstSheet="2" activeTab="7" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="192">
   <si>
     <t>Fecha</t>
   </si>
@@ -617,6 +617,9 @@
   </si>
   <si>
     <t>Baire</t>
+  </si>
+  <si>
+    <t>Día 38</t>
   </si>
 </sst>
 </file>
@@ -2213,15 +2216,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228926ED-9DEC-4DA3-841B-7744EBCE86DD}">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2336,11 @@
       <c r="AK1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL1" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2446,13 +2452,16 @@
       <c r="AK2">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:AK3" si="0">SUM(A3,B2)</f>
+        <f t="shared" ref="B3:AL3" si="0">SUM(A3,B2)</f>
         <v>0</v>
       </c>
       <c r="C3">
@@ -2595,8 +2604,12 @@
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL3" s="20">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43901</v>
       </c>
@@ -2707,6 +2720,9 @@
       </c>
       <c r="AK4" s="2">
         <v>43937</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>43938</v>
       </c>
     </row>
   </sheetData>
@@ -8212,7 +8228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437E6C5D-77A2-49DB-A15A-4AEFF9C341D7}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -11510,9 +11526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BC42DC-9BE2-4B28-A5C7-CFAC0465C9D3}">
   <dimension ref="A1:AO20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN18" sqref="AN18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO18" sqref="AO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11522,7 +11538,7 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -11643,8 +11659,11 @@
       <c r="AN1" s="20" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO1" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -11763,8 +11782,11 @@
       <c r="AN2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO2" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -11883,8 +11905,11 @@
       <c r="AN3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO3" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -12003,8 +12028,11 @@
       <c r="AN4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO4" s="20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -12123,8 +12151,11 @@
       <c r="AN5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO5" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -12243,8 +12274,11 @@
       <c r="AN6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO6" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -12363,8 +12397,11 @@
       <c r="AN7">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO7" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -12483,8 +12520,11 @@
       <c r="AN8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO8" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -12603,8 +12643,11 @@
       <c r="AN9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO9" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -12723,8 +12766,11 @@
       <c r="AN10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO10" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -12843,8 +12889,11 @@
       <c r="AN11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -12963,8 +13012,11 @@
       <c r="AN12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO12" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -13083,8 +13135,11 @@
       <c r="AN13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO13" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -13203,8 +13258,11 @@
       <c r="AN14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -13323,8 +13381,11 @@
       <c r="AN15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO15" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -13442,6 +13503,9 @@
       </c>
       <c r="AN16">
         <v>2</v>
+      </c>
+      <c r="AO16" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
@@ -13563,6 +13627,9 @@
       <c r="AN17">
         <v>3</v>
       </c>
+      <c r="AO17" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -13716,6 +13783,10 @@
         <f t="shared" si="13"/>
         <v>61</v>
       </c>
+      <c r="AO18" s="20">
+        <f t="shared" ref="AO18" si="14">SUM(AO2:AO17)</f>
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -13832,7 +13903,9 @@
       <c r="AN19" s="2">
         <v>43937</v>
       </c>
-      <c r="AO19" s="2"/>
+      <c r="AO19" s="2">
+        <v>43938</v>
+      </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -13850,144 +13923,148 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:AC20" si="14">SUM(E20,F18)</f>
+        <f t="shared" ref="F20:AC20" si="15">SUM(E20,F18)</f>
         <v>4</v>
       </c>
       <c r="G20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="H20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="I20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="J20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="K20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="L20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="M20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="N20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="O20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="P20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>48</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>57</v>
       </c>
       <c r="R20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="S20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="T20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>119</v>
       </c>
       <c r="U20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>139</v>
       </c>
       <c r="V20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>170</v>
       </c>
       <c r="W20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>186</v>
       </c>
       <c r="X20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>212</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>233</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>269</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>288</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>320</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>350</v>
       </c>
       <c r="AD20">
-        <f t="shared" ref="AD20" si="15">SUM(AC20,AD18)</f>
+        <f t="shared" ref="AD20" si="16">SUM(AC20,AD18)</f>
         <v>396</v>
       </c>
       <c r="AE20">
-        <f t="shared" ref="AE20" si="16">SUM(AD20,AE18)</f>
+        <f t="shared" ref="AE20" si="17">SUM(AD20,AE18)</f>
         <v>457</v>
       </c>
       <c r="AF20">
-        <f t="shared" ref="AF20:AG20" si="17">SUM(AE20,AF18)</f>
+        <f t="shared" ref="AF20:AG20" si="18">SUM(AE20,AF18)</f>
         <v>515</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>564</v>
       </c>
       <c r="AH20">
-        <f t="shared" ref="AH20" si="18">SUM(AG20,AH18)</f>
+        <f t="shared" ref="AH20" si="19">SUM(AG20,AH18)</f>
         <v>620</v>
       </c>
       <c r="AI20">
-        <f t="shared" ref="AI20" si="19">SUM(AH20,AI18)</f>
+        <f t="shared" ref="AI20" si="20">SUM(AH20,AI18)</f>
         <v>669</v>
       </c>
       <c r="AJ20">
-        <f t="shared" ref="AJ20" si="20">SUM(AI20,AJ18)</f>
+        <f t="shared" ref="AJ20" si="21">SUM(AI20,AJ18)</f>
         <v>726</v>
       </c>
       <c r="AK20">
-        <f t="shared" ref="AK20" si="21">SUM(AJ20,AK18)</f>
+        <f t="shared" ref="AK20" si="22">SUM(AJ20,AK18)</f>
         <v>766</v>
       </c>
       <c r="AL20">
-        <f t="shared" ref="AL20" si="22">SUM(AK20,AL18)</f>
+        <f t="shared" ref="AL20" si="23">SUM(AK20,AL18)</f>
         <v>814</v>
       </c>
       <c r="AM20">
-        <f t="shared" ref="AM20:AN20" si="23">SUM(AL20,AM18)</f>
+        <f t="shared" ref="AM20:AO20" si="24">SUM(AL20,AM18)</f>
         <v>862</v>
       </c>
       <c r="AN20" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>923</v>
+      </c>
+      <c r="AO20" s="20">
+        <f t="shared" si="24"/>
+        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -14001,8 +14078,8 @@
   <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD14" sqref="AD14"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM1" sqref="AM1:AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14012,7 +14089,7 @@
     <col min="27" max="27" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -14130,8 +14207,11 @@
       <c r="AM1" s="20" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN1" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -14285,8 +14365,12 @@
         <f>IF(EXACT('Por Provincias'!AN2,""),"",SUM('Por Provincias'!AN2,Evolucion!AL2))</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN2" s="20">
+        <f>IF(EXACT('Por Provincias'!AO2,""),"",SUM('Por Provincias'!AO2,Evolucion!AM2))</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -14441,8 +14525,12 @@
         <f>IF(EXACT('Por Provincias'!AN3,""),"",SUM('Por Provincias'!AN3,Evolucion!AL3))</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN3" s="20">
+        <f>IF(EXACT('Por Provincias'!AO3,""),"",SUM('Por Provincias'!AO3,Evolucion!AM3))</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -14592,8 +14680,12 @@
         <f>IF(EXACT('Por Provincias'!AN4,""),"",SUM('Por Provincias'!AN4,Evolucion!AL4))</f>
         <v>336</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN4" s="20">
+        <f>IF(EXACT('Por Provincias'!AO4,""),"",SUM('Por Provincias'!AO4,Evolucion!AM4))</f>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -14726,8 +14818,12 @@
         <f>IF(EXACT('Por Provincias'!AN5,""),"",SUM('Por Provincias'!AN5,Evolucion!AL5))</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN5" s="20">
+        <f>IF(EXACT('Por Provincias'!AO5,""),"",SUM('Por Provincias'!AO5,Evolucion!AM5))</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -14878,8 +14974,12 @@
         <f>IF(EXACT('Por Provincias'!AN6,""),"",SUM('Por Provincias'!AN6,Evolucion!AL6))</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN6" s="20">
+        <f>IF(EXACT('Por Provincias'!AO6,""),"",SUM('Por Provincias'!AO6,Evolucion!AM6))</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -15034,8 +15134,12 @@
         <f>IF(EXACT('Por Provincias'!AN7,""),"",SUM('Por Provincias'!AN7,Evolucion!AL7))</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN7" s="20">
+        <f>IF(EXACT('Por Provincias'!AO7,""),"",SUM('Por Provincias'!AO7,Evolucion!AM7))</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -15186,8 +15290,12 @@
         <f>IF(EXACT('Por Provincias'!AN8,""),"",SUM('Por Provincias'!AN8,Evolucion!AL8))</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN8" s="20">
+        <f>IF(EXACT('Por Provincias'!AO8,""),"",SUM('Por Provincias'!AO8,Evolucion!AM8))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>183</v>
       </c>
@@ -15342,8 +15450,12 @@
         <f>IF(EXACT('Por Provincias'!AN9,""),"",SUM('Por Provincias'!AN9,Evolucion!AL9))</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN9" s="20">
+        <f>IF(EXACT('Por Provincias'!AO9,""),"",SUM('Por Provincias'!AO9,Evolucion!AM9))</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -15486,8 +15598,12 @@
         <f>IF(EXACT('Por Provincias'!AN10,""),"",SUM('Por Provincias'!AN10,Evolucion!AL10))</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN10" s="20">
+        <f>IF(EXACT('Por Provincias'!AO10,""),"",SUM('Por Provincias'!AO10,Evolucion!AM10))</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -15642,8 +15758,12 @@
         <f>IF(EXACT('Por Provincias'!AN11,""),"",SUM('Por Provincias'!AN11,Evolucion!AL11))</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN11" s="20">
+        <f>IF(EXACT('Por Provincias'!AO11,""),"",SUM('Por Provincias'!AO11,Evolucion!AM11))</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>141</v>
       </c>
@@ -15791,8 +15911,12 @@
         <f>IF(EXACT('Por Provincias'!AN12,""),"",SUM('Por Provincias'!AN12,Evolucion!AL12))</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN12" s="20">
+        <f>IF(EXACT('Por Provincias'!AO12,""),"",SUM('Por Provincias'!AO12,Evolucion!AM12))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -15940,8 +16064,12 @@
         <f>IF(EXACT('Por Provincias'!AN13,""),"",SUM('Por Provincias'!AN13,Evolucion!AL13))</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN13" s="20">
+        <f>IF(EXACT('Por Provincias'!AO13,""),"",SUM('Por Provincias'!AO13,Evolucion!AM13))</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -16088,8 +16216,12 @@
         <f>IF(EXACT('Por Provincias'!AN14,""),"",SUM('Por Provincias'!AN14,Evolucion!AL14))</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN14" s="20">
+        <f>IF(EXACT('Por Provincias'!AO14,""),"",SUM('Por Provincias'!AO14,Evolucion!AM14))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -16235,8 +16367,12 @@
         <f>IF(EXACT('Por Provincias'!AN15,""),"",SUM('Por Provincias'!AN15,Evolucion!AL15))</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN15" s="20">
+        <f>IF(EXACT('Por Provincias'!AO15,""),"",SUM('Por Provincias'!AO15,Evolucion!AM15))</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -16369,6 +16505,10 @@
         <f>IF(EXACT('Por Provincias'!AN16,""),"",SUM('Por Provincias'!AN16,Evolucion!AL16))</f>
         <v>13</v>
       </c>
+      <c r="AN16" s="20">
+        <f>IF(EXACT('Por Provincias'!AO16,""),"",SUM('Por Provincias'!AO16,Evolucion!AM16))</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -16503,6 +16643,10 @@
         <f>IF(EXACT('Por Provincias'!AN17,""),"",SUM('Por Provincias'!AN17,Evolucion!AL17))</f>
         <v>20</v>
       </c>
+      <c r="AN17" s="20">
+        <f>IF(EXACT('Por Provincias'!AO17,""),"",SUM('Por Provincias'!AO17,Evolucion!AM17))</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -16656,6 +16800,10 @@
         <f>IF(EXACT('Por Provincias'!AN18,""),"",SUM('Por Provincias'!AN18,Evolucion!AL18))</f>
         <v>923</v>
       </c>
+      <c r="AN18" s="20">
+        <f>IF(EXACT('Por Provincias'!AO18,""),"",SUM('Por Provincias'!AO18,Evolucion!AM18))</f>
+        <v>986</v>
+      </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -16772,7 +16920,9 @@
       <c r="AM19" s="2">
         <v>43937</v>
       </c>
-      <c r="AN19" s="2"/>
+      <c r="AN19" s="2">
+        <v>43938</v>
+      </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -16923,8 +17073,12 @@
         <v>862</v>
       </c>
       <c r="AM20" s="20">
-        <f t="shared" ref="AM20" si="8">SUM(AM2:AM17)</f>
+        <f t="shared" ref="AM20:AN20" si="8">SUM(AM2:AM17)</f>
         <v>923</v>
+      </c>
+      <c r="AN20" s="20">
+        <f t="shared" si="8"/>
+        <v>986</v>
       </c>
     </row>
   </sheetData>

--- a/data/COVID-19.xlsx
+++ b/data/COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3710D339-A437-4FD1-B89E-5666DD8DDC98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABA7F49-9C5C-4CDB-96A1-9ECE1CB22735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="749" firstSheet="2" activeTab="7" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="749" activeTab="6" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="14" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Relacion de Fechas SCU'!$A$1:$M$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Survey!$A$1:$G$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Survey!$A$1:$G$44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="196">
   <si>
     <t>Fecha</t>
   </si>
@@ -620,6 +620,18 @@
   </si>
   <si>
     <t>Día 38</t>
+  </si>
+  <si>
+    <t>Municipal</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>Día 39</t>
   </si>
 </sst>
 </file>
@@ -1099,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFE099A-7FE0-44E4-8A56-B8067923C050}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,8 +2219,86 @@
         <v>181</v>
       </c>
     </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="7">
+        <v>42</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F43" s="2">
+        <v>43939</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="7">
+        <v>43</v>
+      </c>
+      <c r="C44" s="7">
+        <v>61</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="2">
+        <v>43939</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="7">
+        <v>44</v>
+      </c>
+      <c r="C45" s="7">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="2">
+        <v>43940</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G33" xr:uid="{64ECC433-7F0D-4E61-AD6E-98762584DEA2}"/>
+  <autoFilter ref="A1:G44" xr:uid="{64ECC433-7F0D-4E61-AD6E-98762584DEA2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2733,13 +2823,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C0B0C-1604-47BA-9C7F-055BA2CD3905}">
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J113" sqref="J113"/>
+      <selection pane="bottomRight" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6099,22 +6189,22 @@
     </row>
     <row r="103" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B103" s="2">
-        <v>43932</v>
+        <v>43937</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D103" s="7">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F103" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>27</v>
@@ -6126,22 +6216,22 @@
     </row>
     <row r="104" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B104" s="2">
-        <v>43936</v>
+        <v>43932</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="D104" s="7">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F104" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>27</v>
@@ -6153,22 +6243,22 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B105" s="2">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D105" s="7">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F105" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>27</v>
@@ -6179,22 +6269,22 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B106" s="2">
-        <v>43937</v>
+        <v>43932</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D106" s="7">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F106" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>27</v>
@@ -6205,22 +6295,22 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B107" s="2">
-        <v>43932</v>
+        <v>43936</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="D107" s="7">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F107" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="G107" s="20"/>
       <c r="H107" s="20"/>
@@ -6233,22 +6323,22 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B108" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D108" s="7">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F108" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
@@ -6376,9 +6466,101 @@
         <v>190</v>
       </c>
     </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
+        <v>42</v>
+      </c>
+      <c r="B114" s="2">
+        <v>43939</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F114" s="7">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>43</v>
+      </c>
+      <c r="B115" s="2">
+        <v>43939</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F115" s="7">
+        <v>61</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="7">
+        <v>44</v>
+      </c>
+      <c r="B116" s="2">
+        <v>43940</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F116" s="7">
+        <v>7</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="7">
+        <v>44</v>
+      </c>
+      <c r="B117" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F117" s="7">
+        <v>7</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M102" xr:uid="{EE19C93D-CC10-4277-8776-D07EDA3FF01D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M102">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M117">
       <sortCondition ref="A1:A102"/>
     </sortState>
   </autoFilter>
@@ -6390,10 +6572,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5E3218-457F-4398-A6C7-EE32CB90DAE2}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:E30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6791,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D30" si="2">D15+C16</f>
+        <f t="shared" ref="D16:D32" si="2">D15+C16</f>
         <v>22</v>
       </c>
       <c r="E16">
@@ -6873,7 +7055,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F30" si="3">D19-E19-G19</f>
+        <f t="shared" ref="F19:F32" si="3">D19-E19-G19</f>
         <v>26</v>
       </c>
       <c r="G19">
@@ -7176,6 +7358,68 @@
         <v>0</v>
       </c>
       <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="3">
+        <v>43939</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="20">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="3">
+        <v>43940</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="20">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>1</v>
       </c>
     </row>
@@ -7188,13 +7432,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AE470-D3D4-4B7B-8904-78477B90993B}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31:E32"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7897,7 +8141,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D32" si="1">B22-C22-E22</f>
+        <f t="shared" ref="D22:D34" si="1">B22-C22-E22</f>
         <v>183</v>
       </c>
       <c r="E22" s="1">
@@ -8217,6 +8461,42 @@
       </c>
       <c r="E32" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>43939</v>
+      </c>
+      <c r="B33" s="1">
+        <v>188</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>43940</v>
+      </c>
+      <c r="B34" s="1">
+        <v>282</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8226,13 +8506,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437E6C5D-77A2-49DB-A15A-4AEFF9C341D7}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9627,7 +9907,7 @@
       </c>
       <c r="D32" s="7">
         <f t="shared" si="8"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="9"/>
@@ -9647,7 +9927,7 @@
         <v>2</v>
       </c>
       <c r="K32" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32" s="7">
         <v>0</v>
@@ -9672,7 +9952,7 @@
       </c>
       <c r="D33" s="7">
         <f t="shared" ref="D33" si="13">IF(EXACT(K33,""),"",SUM(D32+K33))</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" ref="E33" si="14">IF(EXACT(L33,""),"",SUM(E32+L33))</f>
@@ -9701,6 +9981,94 @@
         <v>2</v>
       </c>
       <c r="N33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>43939</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="7">
+        <f t="shared" ref="C34" si="17">IF(EXACT(J34,""),"",SUM(C33+J34))</f>
+        <v>9</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" ref="D34" si="18">IF(EXACT(K34,""),"",SUM(D33+K34))</f>
+        <v>73</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" ref="E34" si="19">IF(EXACT(L34,""),"",SUM(E33+L34))</f>
+        <v>10</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" ref="F34" si="20">IF(EXACT(M34,""),"",SUM(F33+M34))</f>
+        <v>43</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" ref="G34" si="21">IF(EXACT(N34,""),"",SUM(G33+N34))</f>
+        <v>13</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>43940</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="7">
+        <f t="shared" ref="C35" si="22">IF(EXACT(J35,""),"",SUM(C34+J35))</f>
+        <v>9</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" ref="D35" si="23">IF(EXACT(K35,""),"",SUM(D34+K35))</f>
+        <v>73</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" ref="E35" si="24">IF(EXACT(L35,""),"",SUM(E34+L35))</f>
+        <v>10</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" ref="F35" si="25">IF(EXACT(M35,""),"",SUM(F34+M35))</f>
+        <v>44</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" ref="G35" si="26">IF(EXACT(N35,""),"",SUM(G34+N35))</f>
+        <v>13</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>1</v>
+      </c>
+      <c r="N35" s="7">
         <v>0</v>
       </c>
     </row>
@@ -9722,13 +10090,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10370,6 +10738,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <v>43939</v>
+      </c>
+      <c r="B31" s="21">
+        <v>5</v>
+      </c>
+      <c r="C31" s="21">
+        <v>29</v>
+      </c>
+      <c r="D31" s="21">
+        <v>8</v>
+      </c>
+      <c r="E31" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <v>43940</v>
+      </c>
+      <c r="B32" s="21">
+        <v>5</v>
+      </c>
+      <c r="C32" s="21">
+        <v>30</v>
+      </c>
+      <c r="D32" s="21">
+        <v>8</v>
+      </c>
+      <c r="E32" s="21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -10383,13 +10785,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E021415-1778-4B30-A8BD-BEBA75CB7A91}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26:I26"/>
+      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11517,6 +11919,94 @@
         <v>1</v>
       </c>
     </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>43939</v>
+      </c>
+      <c r="C27" s="16">
+        <v>405</v>
+      </c>
+      <c r="D27" s="16">
+        <v>190</v>
+      </c>
+      <c r="E27" s="16">
+        <v>215</v>
+      </c>
+      <c r="F27" s="16">
+        <v>353</v>
+      </c>
+      <c r="G27" s="16">
+        <v>52</v>
+      </c>
+      <c r="H27" s="16">
+        <v>404</v>
+      </c>
+      <c r="I27" s="16">
+        <v>1</v>
+      </c>
+      <c r="J27" s="16">
+        <v>57</v>
+      </c>
+      <c r="K27" s="16">
+        <v>15</v>
+      </c>
+      <c r="L27" s="16">
+        <v>313</v>
+      </c>
+      <c r="M27" s="16">
+        <v>82</v>
+      </c>
+      <c r="N27" s="16">
+        <v>9</v>
+      </c>
+      <c r="O27" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>43940</v>
+      </c>
+      <c r="C28" s="16">
+        <v>417</v>
+      </c>
+      <c r="D28" s="16">
+        <v>189</v>
+      </c>
+      <c r="E28" s="16">
+        <v>228</v>
+      </c>
+      <c r="F28" s="16">
+        <v>363</v>
+      </c>
+      <c r="G28" s="16">
+        <v>54</v>
+      </c>
+      <c r="H28" s="16">
+        <v>416</v>
+      </c>
+      <c r="I28" s="16">
+        <v>1</v>
+      </c>
+      <c r="J28" s="16">
+        <v>44</v>
+      </c>
+      <c r="K28" s="16">
+        <v>32</v>
+      </c>
+      <c r="L28" s="16">
+        <v>326</v>
+      </c>
+      <c r="M28" s="16">
+        <v>83</v>
+      </c>
+      <c r="N28" s="16">
+        <v>7</v>
+      </c>
+      <c r="O28" s="16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11524,11 +12014,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BC42DC-9BE2-4B28-A5C7-CFAC0465C9D3}">
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AP20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO18" sqref="AO18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K13" sqref="K13:AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11538,7 +12028,7 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -11662,8 +12152,11 @@
       <c r="AO1" s="20" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP1" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -11785,8 +12278,11 @@
       <c r="AO2" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -11908,8 +12404,11 @@
       <c r="AO3" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -12031,8 +12530,11 @@
       <c r="AO4" s="20">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -12154,8 +12656,11 @@
       <c r="AO5" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -12277,8 +12782,11 @@
       <c r="AO6" s="20">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -12400,8 +12908,11 @@
       <c r="AO7" s="20">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -12523,8 +13034,11 @@
       <c r="AO8" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -12646,8 +13160,11 @@
       <c r="AO9" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -12769,8 +13286,11 @@
       <c r="AO10" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -12892,8 +13412,11 @@
       <c r="AO11" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -13015,8 +13538,11 @@
       <c r="AO12" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -13138,8 +13664,11 @@
       <c r="AO13" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -13261,8 +13790,11 @@
       <c r="AO14" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -13384,8 +13916,11 @@
       <c r="AO15" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -13507,8 +14042,11 @@
       <c r="AO16" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -13630,8 +14168,11 @@
       <c r="AO17" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -13784,11 +14325,15 @@
         <v>61</v>
       </c>
       <c r="AO18" s="20">
-        <f t="shared" ref="AO18" si="14">SUM(AO2:AO17)</f>
+        <f t="shared" ref="AO18:AP18" si="14">SUM(AO2:AO17)</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP18" s="20">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -13906,8 +14451,11 @@
       <c r="AO19" s="2">
         <v>43938</v>
       </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP19" s="2">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -14055,7 +14603,7 @@
         <v>814</v>
       </c>
       <c r="AM20">
-        <f t="shared" ref="AM20:AO20" si="24">SUM(AL20,AM18)</f>
+        <f t="shared" ref="AM20:AP20" si="24">SUM(AL20,AM18)</f>
         <v>862</v>
       </c>
       <c r="AN20" s="20">
@@ -14065,6 +14613,10 @@
       <c r="AO20" s="20">
         <f t="shared" si="24"/>
         <v>986</v>
+      </c>
+      <c r="AP20" s="20">
+        <f t="shared" si="24"/>
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
@@ -14075,11 +14627,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3D19EB-CDBB-4BE3-91BE-933CE717462E}">
-  <dimension ref="A1:AN20"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM1" sqref="AM1:AN20"/>
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO18" sqref="AO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14089,7 +14641,7 @@
     <col min="27" max="27" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -14210,8 +14762,11 @@
       <c r="AN1" s="20" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO1" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -14369,8 +14924,12 @@
         <f>IF(EXACT('Por Provincias'!AO2,""),"",SUM('Por Provincias'!AO2,Evolucion!AM2))</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO2" s="20">
+        <f>IF(EXACT('Por Provincias'!AP2,""),"",SUM('Por Provincias'!AP2,Evolucion!AN2))</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -14529,8 +15088,12 @@
         <f>IF(EXACT('Por Provincias'!AO3,""),"",SUM('Por Provincias'!AO3,Evolucion!AM3))</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO3" s="20">
+        <f>IF(EXACT('Por Provincias'!AP3,""),"",SUM('Por Provincias'!AP3,Evolucion!AN3))</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -14684,8 +15247,12 @@
         <f>IF(EXACT('Por Provincias'!AO4,""),"",SUM('Por Provincias'!AO4,Evolucion!AM4))</f>
         <v>359</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO4" s="20">
+        <f>IF(EXACT('Por Provincias'!AP4,""),"",SUM('Por Provincias'!AP4,Evolucion!AN4))</f>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -14822,8 +15389,12 @@
         <f>IF(EXACT('Por Provincias'!AO5,""),"",SUM('Por Provincias'!AO5,Evolucion!AM5))</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO5" s="20">
+        <f>IF(EXACT('Por Provincias'!AP5,""),"",SUM('Por Provincias'!AP5,Evolucion!AN5))</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -14978,8 +15549,12 @@
         <f>IF(EXACT('Por Provincias'!AO6,""),"",SUM('Por Provincias'!AO6,Evolucion!AM6))</f>
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO6" s="20">
+        <f>IF(EXACT('Por Provincias'!AP6,""),"",SUM('Por Provincias'!AP6,Evolucion!AN6))</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -15138,8 +15713,12 @@
         <f>IF(EXACT('Por Provincias'!AO7,""),"",SUM('Por Provincias'!AO7,Evolucion!AM7))</f>
         <v>159</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO7" s="20">
+        <f>IF(EXACT('Por Provincias'!AP7,""),"",SUM('Por Provincias'!AP7,Evolucion!AN7))</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -15294,8 +15873,12 @@
         <f>IF(EXACT('Por Provincias'!AO8,""),"",SUM('Por Provincias'!AO8,Evolucion!AM8))</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO8" s="20">
+        <f>IF(EXACT('Por Provincias'!AP8,""),"",SUM('Por Provincias'!AP8,Evolucion!AN8))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>183</v>
       </c>
@@ -15454,8 +16037,12 @@
         <f>IF(EXACT('Por Provincias'!AO9,""),"",SUM('Por Provincias'!AO9,Evolucion!AM9))</f>
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO9" s="20">
+        <f>IF(EXACT('Por Provincias'!AP9,""),"",SUM('Por Provincias'!AP9,Evolucion!AN9))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -15602,8 +16189,12 @@
         <f>IF(EXACT('Por Provincias'!AO10,""),"",SUM('Por Provincias'!AO10,Evolucion!AM10))</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO10" s="20">
+        <f>IF(EXACT('Por Provincias'!AP10,""),"",SUM('Por Provincias'!AP10,Evolucion!AN10))</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -15762,8 +16353,12 @@
         <f>IF(EXACT('Por Provincias'!AO11,""),"",SUM('Por Provincias'!AO11,Evolucion!AM11))</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO11" s="20">
+        <f>IF(EXACT('Por Provincias'!AP11,""),"",SUM('Por Provincias'!AP11,Evolucion!AN11))</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>141</v>
       </c>
@@ -15915,8 +16510,12 @@
         <f>IF(EXACT('Por Provincias'!AO12,""),"",SUM('Por Provincias'!AO12,Evolucion!AM12))</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO12" s="20">
+        <f>IF(EXACT('Por Provincias'!AP12,""),"",SUM('Por Provincias'!AP12,Evolucion!AN12))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -16068,8 +16667,12 @@
         <f>IF(EXACT('Por Provincias'!AO13,""),"",SUM('Por Provincias'!AO13,Evolucion!AM13))</f>
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO13" s="20">
+        <f>IF(EXACT('Por Provincias'!AP13,""),"",SUM('Por Provincias'!AP13,Evolucion!AN13))</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -16220,8 +16823,12 @@
         <f>IF(EXACT('Por Provincias'!AO14,""),"",SUM('Por Provincias'!AO14,Evolucion!AM14))</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO14" s="20">
+        <f>IF(EXACT('Por Provincias'!AP14,""),"",SUM('Por Provincias'!AP14,Evolucion!AN14))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -16371,8 +16978,12 @@
         <f>IF(EXACT('Por Provincias'!AO15,""),"",SUM('Por Provincias'!AO15,Evolucion!AM15))</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO15" s="20">
+        <f>IF(EXACT('Por Provincias'!AP15,""),"",SUM('Por Provincias'!AP15,Evolucion!AN15))</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -16509,8 +17120,12 @@
         <f>IF(EXACT('Por Provincias'!AO16,""),"",SUM('Por Provincias'!AO16,Evolucion!AM16))</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO16" s="20">
+        <f>IF(EXACT('Por Provincias'!AP16,""),"",SUM('Por Provincias'!AP16,Evolucion!AN16))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -16647,8 +17262,12 @@
         <f>IF(EXACT('Por Provincias'!AO17,""),"",SUM('Por Provincias'!AO17,Evolucion!AM17))</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO17" s="20">
+        <f>IF(EXACT('Por Provincias'!AP17,""),"",SUM('Por Provincias'!AP17,Evolucion!AN17))</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -16804,8 +17423,12 @@
         <f>IF(EXACT('Por Provincias'!AO18,""),"",SUM('Por Provincias'!AO18,Evolucion!AM18))</f>
         <v>986</v>
       </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO18" s="20">
+        <f>IF(EXACT('Por Provincias'!AP18,""),"",SUM('Por Provincias'!AP18,Evolucion!AN18))</f>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -16923,8 +17546,11 @@
       <c r="AN19" s="2">
         <v>43938</v>
       </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO19" s="2">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -17079,6 +17705,10 @@
       <c r="AN20" s="20">
         <f t="shared" si="8"/>
         <v>986</v>
+      </c>
+      <c r="AO20" s="20">
+        <f t="shared" ref="AO20" si="9">SUM(AO2:AO17)</f>
+        <v>1035</v>
       </c>
     </row>
   </sheetData>

--- a/data/COVID-19.xlsx
+++ b/data/COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A4A61D-E17B-4CBF-B21B-78E602CC9076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B7B4F-9B6E-45B6-9E2C-8E5815207EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="749" firstSheet="2" activeTab="6" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="749" firstSheet="2" activeTab="8" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="14" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Relacion de Fechas SCU'!$A$1:$M$132</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Survey!$A$1:$G$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Survey!$A$1:$G$46</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -792,13 +792,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Énfasis3" xfId="1" builtinId="40"/>
@@ -1115,10 +1115,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFE099A-7FE0-44E4-8A56-B8067923C050}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1161,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="F9" s="3">
         <v>43920</v>
@@ -1406,7 +1407,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="F10" s="3">
         <v>43920</v>
@@ -1435,7 +1436,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="F11" s="3">
         <v>43920</v>
@@ -1450,7 +1451,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1769,7 +1770,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1972,7 +1973,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -2001,7 +2002,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -2233,7 +2234,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -2407,7 +2408,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -2466,7 +2467,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G44" xr:uid="{64ECC433-7F0D-4E61-AD6E-98762584DEA2}"/>
+  <autoFilter ref="A1:G46" xr:uid="{64ECC433-7F0D-4E61-AD6E-98762584DEA2}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Palma Sur"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2478,7 +2485,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP1" sqref="AP1:AQ20"/>
+      <selection pane="topRight" activeCell="AS14" sqref="AS14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5710,7 +5717,7 @@
         <v>1087</v>
       </c>
       <c r="AQ20" s="20">
-        <f t="shared" ref="AQ20" si="10">SUM(AQ2:AQ17)</f>
+        <f t="shared" ref="AQ20:AR20" si="10">SUM(AQ2:AQ17)</f>
         <v>1137</v>
       </c>
     </row>
@@ -6278,13 +6285,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C0B0C-1604-47BA-9C7F-055BA2CD3905}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6345,7 +6353,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -6380,7 +6388,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -6415,7 +6423,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -6485,7 +6493,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -6520,7 +6528,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2</v>
       </c>
@@ -6590,7 +6598,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -6626,7 +6634,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -6661,7 +6669,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -6696,7 +6704,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>3</v>
       </c>
@@ -6731,7 +6739,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>3</v>
       </c>
@@ -6766,7 +6774,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>4</v>
       </c>
@@ -6799,7 +6807,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>4</v>
       </c>
@@ -6832,7 +6840,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>4</v>
       </c>
@@ -6865,7 +6873,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>5</v>
       </c>
@@ -6900,7 +6908,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>5</v>
       </c>
@@ -6935,7 +6943,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>5</v>
       </c>
@@ -6970,7 +6978,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>5</v>
       </c>
@@ -7005,7 +7013,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>6</v>
       </c>
@@ -7038,7 +7046,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:14" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="20" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>6</v>
       </c>
@@ -7071,7 +7079,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>6</v>
       </c>
@@ -7104,7 +7112,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>7</v>
       </c>
@@ -7139,7 +7147,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>7</v>
       </c>
@@ -7174,7 +7182,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>7</v>
       </c>
@@ -7209,7 +7217,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>7</v>
       </c>
@@ -7244,7 +7252,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>8</v>
       </c>
@@ -7277,7 +7285,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>8</v>
       </c>
@@ -7345,7 +7353,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>9</v>
       </c>
@@ -7379,7 +7387,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>9</v>
       </c>
@@ -7447,7 +7455,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>10</v>
       </c>
@@ -7481,7 +7489,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>10</v>
       </c>
@@ -7549,7 +7557,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>11</v>
       </c>
@@ -7583,7 +7591,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>11</v>
       </c>
@@ -7617,7 +7625,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="20" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>11</v>
       </c>
@@ -7651,7 +7659,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>11</v>
       </c>
@@ -7685,7 +7693,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>12</v>
       </c>
@@ -7719,7 +7727,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>12</v>
       </c>
@@ -7753,7 +7761,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="20" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>12</v>
       </c>
@@ -7787,7 +7795,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>12</v>
       </c>
@@ -7821,7 +7829,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>13</v>
       </c>
@@ -7855,7 +7863,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>13</v>
       </c>
@@ -7889,7 +7897,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>13</v>
       </c>
@@ -7923,7 +7931,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>13</v>
       </c>
@@ -7956,7 +7964,7 @@
       <c r="M48" s="20"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>14</v>
       </c>
@@ -7990,7 +7998,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>14</v>
       </c>
@@ -8024,7 +8032,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>14</v>
       </c>
@@ -8058,7 +8066,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>15</v>
       </c>
@@ -8094,7 +8102,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>15</v>
       </c>
@@ -8130,7 +8138,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>15</v>
       </c>
@@ -8166,7 +8174,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>16</v>
       </c>
@@ -8202,7 +8210,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>16</v>
       </c>
@@ -8238,7 +8246,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>16</v>
       </c>
@@ -8274,7 +8282,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>17</v>
       </c>
@@ -8308,7 +8316,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>17</v>
       </c>
@@ -8342,7 +8350,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>18</v>
       </c>
@@ -8376,7 +8384,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>18</v>
       </c>
@@ -8410,7 +8418,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>18</v>
       </c>
@@ -8444,7 +8452,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>19</v>
       </c>
@@ -8477,7 +8485,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>19</v>
       </c>
@@ -8510,7 +8518,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>20</v>
       </c>
@@ -8543,7 +8551,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>20</v>
       </c>
@@ -8576,7 +8584,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>21</v>
       </c>
@@ -8609,7 +8617,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>21</v>
       </c>
@@ -8642,7 +8650,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>21</v>
       </c>
@@ -8675,7 +8683,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>22</v>
       </c>
@@ -8708,7 +8716,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>22</v>
       </c>
@@ -8741,7 +8749,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>22</v>
       </c>
@@ -8774,7 +8782,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>23</v>
       </c>
@@ -8804,7 +8812,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>23</v>
       </c>
@@ -8835,7 +8843,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>23</v>
       </c>
@@ -8868,7 +8876,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>24</v>
       </c>
@@ -8898,7 +8906,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>24</v>
       </c>
@@ -8929,7 +8937,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>24</v>
       </c>
@@ -8962,7 +8970,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>25</v>
       </c>
@@ -8993,7 +9001,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>25</v>
       </c>
@@ -9026,7 +9034,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>26</v>
       </c>
@@ -9056,7 +9064,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>26</v>
       </c>
@@ -9086,7 +9094,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>26</v>
       </c>
@@ -9116,7 +9124,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>27</v>
       </c>
@@ -9146,7 +9154,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>27</v>
       </c>
@@ -9176,7 +9184,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>28</v>
       </c>
@@ -9205,7 +9213,7 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>29</v>
       </c>
@@ -9235,7 +9243,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>29</v>
       </c>
@@ -9264,7 +9272,7 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>30</v>
       </c>
@@ -9291,7 +9299,7 @@
       </c>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>30</v>
       </c>
@@ -9318,7 +9326,7 @@
       </c>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>31</v>
       </c>
@@ -9345,7 +9353,7 @@
       </c>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>31</v>
       </c>
@@ -9372,7 +9380,7 @@
       </c>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>31</v>
       </c>
@@ -9399,7 +9407,7 @@
       </c>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>32</v>
       </c>
@@ -9427,7 +9435,7 @@
       <c r="K94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>32</v>
       </c>
@@ -9455,7 +9463,7 @@
       <c r="K95" s="1"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>32</v>
       </c>
@@ -9483,7 +9491,7 @@
       <c r="K96" s="1"/>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>33</v>
       </c>
@@ -9512,7 +9520,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>33</v>
       </c>
@@ -9541,7 +9549,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>33</v>
       </c>
@@ -9571,7 +9579,7 @@
       </c>
       <c r="K99" s="6"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>33</v>
       </c>
@@ -9600,7 +9608,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>33</v>
       </c>
@@ -9629,7 +9637,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>34</v>
       </c>
@@ -9655,7 +9663,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>34</v>
       </c>
@@ -9681,7 +9689,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>34</v>
       </c>
@@ -9707,7 +9715,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>35</v>
       </c>
@@ -9733,7 +9741,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>35</v>
       </c>
@@ -9759,7 +9767,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>35</v>
       </c>
@@ -9786,7 +9794,7 @@
       </c>
       <c r="K107" s="6"/>
     </row>
-    <row r="108" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>36</v>
       </c>
@@ -9813,7 +9821,7 @@
       </c>
       <c r="K108" s="6"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>36</v>
       </c>
@@ -9839,7 +9847,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>36</v>
       </c>
@@ -9865,7 +9873,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>37</v>
       </c>
@@ -9893,7 +9901,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>37</v>
       </c>
@@ -9921,7 +9929,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>37</v>
       </c>
@@ -9947,7 +9955,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>38</v>
       </c>
@@ -9970,7 +9978,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>39</v>
       </c>
@@ -9995,7 +10003,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>39</v>
       </c>
@@ -10019,7 +10027,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>40</v>
       </c>
@@ -10036,7 +10044,7 @@
       <c r="F117" s="7">
         <v>23</v>
       </c>
-      <c r="H117" s="28"/>
+      <c r="H117" s="26"/>
       <c r="I117" s="1" t="s">
         <v>27</v>
       </c>
@@ -10045,7 +10053,7 @@
       </c>
       <c r="K117" s="6"/>
     </row>
-    <row r="118" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>41</v>
       </c>
@@ -10070,7 +10078,7 @@
       </c>
       <c r="K118" s="6"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>41</v>
       </c>
@@ -10093,7 +10101,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>41</v>
       </c>
@@ -10118,7 +10126,7 @@
       </c>
       <c r="K120" s="6"/>
     </row>
-    <row r="121" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>42</v>
       </c>
@@ -10145,7 +10153,7 @@
       </c>
       <c r="K121" s="6"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>42</v>
       </c>
@@ -10171,7 +10179,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>42</v>
       </c>
@@ -10198,7 +10206,7 @@
       </c>
       <c r="K123" s="6"/>
     </row>
-    <row r="124" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>43</v>
       </c>
@@ -10225,7 +10233,7 @@
       </c>
       <c r="K124" s="6"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>43</v>
       </c>
@@ -10251,7 +10259,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>43</v>
       </c>
@@ -10278,7 +10286,7 @@
       </c>
       <c r="K126" s="6"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>44</v>
       </c>
@@ -10304,7 +10312,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>44</v>
       </c>
@@ -10330,7 +10338,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>44</v>
       </c>
@@ -10357,7 +10365,7 @@
       </c>
       <c r="K129" s="6"/>
     </row>
-    <row r="130" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>45</v>
       </c>
@@ -10382,7 +10390,7 @@
       </c>
       <c r="K130" s="6"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>45</v>
       </c>
@@ -10405,7 +10413,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>45</v>
       </c>
@@ -10432,6 +10440,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M132" xr:uid="{EE19C93D-CC10-4277-8776-D07EDA3FF01D}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Confirmado"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Palma Soriano"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M132">
       <sortCondition ref="A1:A132"/>
     </sortState>
@@ -10447,10 +10465,10 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34:F34"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11352,6 +11370,12 @@
       </c>
       <c r="G34">
         <v>2</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13270,7 +13294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E021415-1778-4B30-A8BD-BEBA75CB7A91}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -14600,7 +14624,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37:G37"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G34:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14618,24 +14642,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="26" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -16267,9 +16291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BC42DC-9BE2-4B28-A5C7-CFAC0465C9D3}">
   <dimension ref="A1:AR20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR16" sqref="AR16"/>
+      <selection pane="topRight" activeCell="AR17" sqref="AR17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/COVID-19.xlsx
+++ b/data/COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eloy\Desktop\COVID 19\Dashboard\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B7B4F-9B6E-45B6-9E2C-8E5815207EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA5810D-C7DE-4203-B8E1-588008CCD876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="749" firstSheet="2" activeTab="8" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="749" firstSheet="1" activeTab="6" xr2:uid="{F2F8A79C-4094-4CDC-8A22-3CBB06EFC674}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey" sheetId="14" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Relacion de Fechas SCU'!$A$1:$M$132</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Survey!$A$1:$G$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Survey!$A$1:$I$46</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="194">
   <si>
     <t>Fecha</t>
   </si>
@@ -625,6 +625,9 @@
   <si>
     <t>Día 41</t>
   </si>
+  <si>
+    <t>Día 42</t>
+  </si>
 </sst>
 </file>
 
@@ -725,7 +728,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -793,6 +796,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1115,15 +1121,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFE099A-7FE0-44E4-8A56-B8067923C050}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.42578125" style="7"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="15"/>
@@ -1136,7 +1142,7 @@
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1161,14 +1167,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
         <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1190,14 +1196,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1219,14 +1225,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1248,14 +1254,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1274,17 +1280,17 @@
         <v>170</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1306,14 +1312,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1335,14 +1341,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1368,10 +1374,10 @@
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1397,10 +1403,10 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1426,10 +1432,10 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1451,14 +1457,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="8">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="8">
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1480,14 +1486,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1509,14 +1515,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="8">
         <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1538,14 +1544,14 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="8">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="8">
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1567,14 +1573,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="8">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1593,17 +1599,17 @@
         <v>170</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <v>16</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="8">
         <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1625,14 +1631,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="8">
         <v>17</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="8">
         <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1654,15 +1660,15 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="8">
         <v>18</v>
       </c>
-      <c r="C19" s="1">
-        <v>48</v>
+      <c r="C19" s="8">
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
@@ -1680,17 +1686,17 @@
         <v>170</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="8">
         <v>19</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="8">
         <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1712,14 +1718,14 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="8">
         <v>20</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1734,21 +1740,21 @@
       <c r="G21" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H21" t="s">
-        <v>169</v>
+      <c r="H21" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="8">
         <v>21</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="8">
         <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1763,21 +1769,21 @@
       <c r="G22" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>170</v>
+      <c r="H22" s="20" t="s">
+        <v>169</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <v>22</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="8">
         <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1799,7 +1805,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1879,14 +1885,14 @@
       <c r="G26" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="H26" t="s">
-        <v>169</v>
+      <c r="H26" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -2089,7 +2095,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -2292,7 +2298,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -2321,7 +2327,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -2379,7 +2385,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -2408,7 +2414,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -2466,14 +2472,37 @@
         <v>191</v>
       </c>
     </row>
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="7">
+        <v>46</v>
+      </c>
+      <c r="C47" s="7">
+        <v>24</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" s="2">
+        <v>43943</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G46" xr:uid="{64ECC433-7F0D-4E61-AD6E-98762584DEA2}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Palma Sur"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I46" xr:uid="{73BB16D3-953E-4EE9-BEAA-23AA9FA3A55C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2481,11 +2510,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3D19EB-CDBB-4BE3-91BE-933CE717462E}">
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AR20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS14" sqref="AS14"/>
+      <selection pane="topRight" activeCell="AQ2" sqref="AQ2:AR20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,7 +2524,7 @@
     <col min="27" max="27" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2625,8 +2654,11 @@
       <c r="AQ1" s="20" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR1" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -2796,8 +2828,12 @@
         <f>IF(EXACT('Por Provincias'!AR2,""),"",SUM('Por Provincias'!AR2,Evolucion!AP2))</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR2" s="20">
+        <f>IF(EXACT('Por Provincias'!AS2,""),"",SUM('Por Provincias'!AS2,Evolucion!AQ2))</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -2968,8 +3004,12 @@
         <f>IF(EXACT('Por Provincias'!AR3,""),"",SUM('Por Provincias'!AR3,Evolucion!AP3))</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR3" s="20">
+        <f>IF(EXACT('Por Provincias'!AS3,""),"",SUM('Por Provincias'!AS3,Evolucion!AQ3))</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -3135,8 +3175,12 @@
         <f>IF(EXACT('Por Provincias'!AR4,""),"",SUM('Por Provincias'!AR4,Evolucion!AP4))</f>
         <v>427</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR4" s="20">
+        <f>IF(EXACT('Por Provincias'!AS4,""),"",SUM('Por Provincias'!AS4,Evolucion!AQ4))</f>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -3285,8 +3329,12 @@
         <f>IF(EXACT('Por Provincias'!AR5,""),"",SUM('Por Provincias'!AR5,Evolucion!AP5))</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR5" s="20">
+        <f>IF(EXACT('Por Provincias'!AS5,""),"",SUM('Por Provincias'!AS5,Evolucion!AQ5))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -3453,8 +3501,12 @@
         <f>IF(EXACT('Por Provincias'!AR6,""),"",SUM('Por Provincias'!AR6,Evolucion!AP6))</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR6" s="20">
+        <f>IF(EXACT('Por Provincias'!AS6,""),"",SUM('Por Provincias'!AS6,Evolucion!AQ6))</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -3625,8 +3677,12 @@
         <f>IF(EXACT('Por Provincias'!AR7,""),"",SUM('Por Provincias'!AR7,Evolucion!AP7))</f>
         <v>175</v>
       </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR7" s="20">
+        <f>IF(EXACT('Por Provincias'!AS7,""),"",SUM('Por Provincias'!AS7,Evolucion!AQ7))</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -3793,8 +3849,12 @@
         <f>IF(EXACT('Por Provincias'!AR8,""),"",SUM('Por Provincias'!AR8,Evolucion!AP8))</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR8" s="20">
+        <f>IF(EXACT('Por Provincias'!AS8,""),"",SUM('Por Provincias'!AS8,Evolucion!AQ8))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -3965,8 +4025,12 @@
         <f>IF(EXACT('Por Provincias'!AR9,""),"",SUM('Por Provincias'!AR9,Evolucion!AP9))</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR9" s="20">
+        <f>IF(EXACT('Por Provincias'!AS9,""),"",SUM('Por Provincias'!AS9,Evolucion!AQ9))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -4125,8 +4189,12 @@
         <f>IF(EXACT('Por Provincias'!AR10,""),"",SUM('Por Provincias'!AR10,Evolucion!AP10))</f>
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR10" s="20">
+        <f>IF(EXACT('Por Provincias'!AS10,""),"",SUM('Por Provincias'!AS10,Evolucion!AQ10))</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -4297,8 +4365,12 @@
         <f>IF(EXACT('Por Provincias'!AR11,""),"",SUM('Por Provincias'!AR11,Evolucion!AP11))</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR11" s="20">
+        <f>IF(EXACT('Por Provincias'!AS11,""),"",SUM('Por Provincias'!AS11,Evolucion!AQ11))</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -4462,8 +4534,12 @@
         <f>IF(EXACT('Por Provincias'!AR12,""),"",SUM('Por Provincias'!AR12,Evolucion!AP12))</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR12" s="20">
+        <f>IF(EXACT('Por Provincias'!AS12,""),"",SUM('Por Provincias'!AS12,Evolucion!AQ12))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -4627,8 +4703,12 @@
         <f>IF(EXACT('Por Provincias'!AR13,""),"",SUM('Por Provincias'!AR13,Evolucion!AP13))</f>
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR13" s="20">
+        <f>IF(EXACT('Por Provincias'!AS13,""),"",SUM('Por Provincias'!AS13,Evolucion!AQ13))</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>141</v>
       </c>
@@ -4791,8 +4871,12 @@
         <f>IF(EXACT('Por Provincias'!AR14,""),"",SUM('Por Provincias'!AR14,Evolucion!AP14))</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR14" s="20">
+        <f>IF(EXACT('Por Provincias'!AS14,""),"",SUM('Por Provincias'!AS14,Evolucion!AQ14))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -4954,8 +5038,12 @@
         <f>IF(EXACT('Por Provincias'!AR15,""),"",SUM('Por Provincias'!AR15,Evolucion!AP15))</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR15" s="20">
+        <f>IF(EXACT('Por Provincias'!AS15,""),"",SUM('Por Provincias'!AS15,Evolucion!AQ15))</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -5104,8 +5192,12 @@
         <f>IF(EXACT('Por Provincias'!AR16,""),"",SUM('Por Provincias'!AR16,Evolucion!AP16))</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR16" s="20">
+        <f>IF(EXACT('Por Provincias'!AS16,""),"",SUM('Por Provincias'!AS16,Evolucion!AQ16))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -5254,8 +5346,12 @@
         <f>IF(EXACT('Por Provincias'!AR17,""),"",SUM('Por Provincias'!AR17,Evolucion!AP17))</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR17" s="20">
+        <f>IF(EXACT('Por Provincias'!AS17,""),"",SUM('Por Provincias'!AS17,Evolucion!AQ17))</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -5423,8 +5519,12 @@
         <f>IF(EXACT('Por Provincias'!AR18,""),"",SUM('Por Provincias'!AR18,Evolucion!AP18))</f>
         <v>1137</v>
       </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR18" s="20">
+        <f>IF(EXACT('Por Provincias'!AS18,""),"",SUM('Por Provincias'!AS18,Evolucion!AQ18))</f>
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -5551,8 +5651,11 @@
       <c r="AQ19" s="2">
         <v>43941</v>
       </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR19" s="2">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>143</v>
       </c>
@@ -5719,6 +5822,10 @@
       <c r="AQ20" s="20">
         <f t="shared" ref="AQ20:AR20" si="10">SUM(AQ2:AQ17)</f>
         <v>1137</v>
+      </c>
+      <c r="AR20" s="20">
+        <f t="shared" ref="AR20" si="11">SUM(AR2:AR17)</f>
+        <v>1189</v>
       </c>
     </row>
   </sheetData>
@@ -5729,15 +5836,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228926ED-9DEC-4DA3-841B-7744EBCE86DD}">
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+      <selection activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -5861,8 +5968,11 @@
       <c r="AO1" s="20" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP1" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5986,8 +6096,11 @@
       <c r="AO2" s="20">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP2" s="20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -6144,15 +6257,19 @@
         <v>255</v>
       </c>
       <c r="AN3" s="20">
-        <f t="shared" ref="AN3:AO3" si="2">SUM(AM3,AN2)</f>
+        <f t="shared" ref="AN3:AP3" si="2">SUM(AM3,AN2)</f>
         <v>285</v>
       </c>
       <c r="AO3" s="20">
         <f t="shared" si="2"/>
         <v>309</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP3" s="20">
+        <f t="shared" si="2"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43901</v>
       </c>
@@ -6275,6 +6392,9 @@
       </c>
       <c r="AO4" s="2">
         <v>43941</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>43942</v>
       </c>
     </row>
   </sheetData>
@@ -6285,14 +6405,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C0B0C-1604-47BA-9C7F-055BA2CD3905}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6353,7 +6472,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -6388,7 +6507,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -6423,7 +6542,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -6493,7 +6612,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -6528,7 +6647,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2</v>
       </c>
@@ -6598,7 +6717,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -6634,7 +6753,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -6669,7 +6788,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -6704,7 +6823,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>3</v>
       </c>
@@ -6739,7 +6858,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>3</v>
       </c>
@@ -6774,7 +6893,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>4</v>
       </c>
@@ -6807,7 +6926,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>4</v>
       </c>
@@ -6840,7 +6959,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>4</v>
       </c>
@@ -6873,7 +6992,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>5</v>
       </c>
@@ -6908,7 +7027,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>5</v>
       </c>
@@ -6943,7 +7062,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>5</v>
       </c>
@@ -6978,7 +7097,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>5</v>
       </c>
@@ -7013,7 +7132,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>6</v>
       </c>
@@ -7046,7 +7165,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:14" s="20" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>6</v>
       </c>
@@ -7079,7 +7198,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>6</v>
       </c>
@@ -7112,7 +7231,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>7</v>
       </c>
@@ -7147,7 +7266,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>7</v>
       </c>
@@ -7182,7 +7301,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>7</v>
       </c>
@@ -7217,7 +7336,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>7</v>
       </c>
@@ -7252,7 +7371,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>8</v>
       </c>
@@ -7285,7 +7404,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>8</v>
       </c>
@@ -7353,7 +7472,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>9</v>
       </c>
@@ -7387,7 +7506,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>9</v>
       </c>
@@ -7455,7 +7574,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>10</v>
       </c>
@@ -7489,7 +7608,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>10</v>
       </c>
@@ -7557,7 +7676,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>11</v>
       </c>
@@ -7591,7 +7710,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>11</v>
       </c>
@@ -7625,7 +7744,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" s="20" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>11</v>
       </c>
@@ -7659,7 +7778,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>11</v>
       </c>
@@ -7693,7 +7812,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>12</v>
       </c>
@@ -7727,7 +7846,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>12</v>
       </c>
@@ -7761,7 +7880,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" s="20" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>12</v>
       </c>
@@ -7795,7 +7914,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>12</v>
       </c>
@@ -7829,7 +7948,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>13</v>
       </c>
@@ -7863,7 +7982,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>13</v>
       </c>
@@ -7897,7 +8016,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>13</v>
       </c>
@@ -7931,7 +8050,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>13</v>
       </c>
@@ -7964,7 +8083,7 @@
       <c r="M48" s="20"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>14</v>
       </c>
@@ -7998,7 +8117,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>14</v>
       </c>
@@ -8032,7 +8151,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>14</v>
       </c>
@@ -8066,7 +8185,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>15</v>
       </c>
@@ -8102,7 +8221,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>15</v>
       </c>
@@ -8138,7 +8257,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>15</v>
       </c>
@@ -8174,7 +8293,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>16</v>
       </c>
@@ -8210,7 +8329,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>16</v>
       </c>
@@ -8246,7 +8365,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>16</v>
       </c>
@@ -8282,7 +8401,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>17</v>
       </c>
@@ -8316,7 +8435,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>17</v>
       </c>
@@ -8350,7 +8469,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>18</v>
       </c>
@@ -8384,7 +8503,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>18</v>
       </c>
@@ -8418,7 +8537,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>18</v>
       </c>
@@ -8452,7 +8571,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>19</v>
       </c>
@@ -8485,7 +8604,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>19</v>
       </c>
@@ -8518,7 +8637,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>20</v>
       </c>
@@ -8551,7 +8670,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>20</v>
       </c>
@@ -8584,7 +8703,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>21</v>
       </c>
@@ -8617,7 +8736,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>21</v>
       </c>
@@ -8650,7 +8769,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>21</v>
       </c>
@@ -8683,7 +8802,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>22</v>
       </c>
@@ -8716,7 +8835,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>22</v>
       </c>
@@ -8749,7 +8868,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>22</v>
       </c>
@@ -8782,7 +8901,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>23</v>
       </c>
@@ -8812,7 +8931,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>23</v>
       </c>
@@ -8843,7 +8962,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>23</v>
       </c>
@@ -8876,7 +8995,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>24</v>
       </c>
@@ -8906,7 +9025,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>24</v>
       </c>
@@ -8937,7 +9056,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>24</v>
       </c>
@@ -8970,7 +9089,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>25</v>
       </c>
@@ -9001,7 +9120,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>25</v>
       </c>
@@ -9034,7 +9153,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>26</v>
       </c>
@@ -9064,7 +9183,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>26</v>
       </c>
@@ -9094,7 +9213,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>26</v>
       </c>
@@ -9124,7 +9243,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>27</v>
       </c>
@@ -9154,7 +9273,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>27</v>
       </c>
@@ -9184,7 +9303,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>28</v>
       </c>
@@ -9213,7 +9332,7 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>29</v>
       </c>
@@ -9243,7 +9362,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>29</v>
       </c>
@@ -9272,7 +9391,7 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>30</v>
       </c>
@@ -9299,7 +9418,7 @@
       </c>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>30</v>
       </c>
@@ -9326,7 +9445,7 @@
       </c>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>31</v>
       </c>
@@ -9353,7 +9472,7 @@
       </c>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>31</v>
       </c>
@@ -9380,7 +9499,7 @@
       </c>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>31</v>
       </c>
@@ -9407,7 +9526,7 @@
       </c>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>32</v>
       </c>
@@ -9435,7 +9554,7 @@
       <c r="K94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>32</v>
       </c>
@@ -9463,7 +9582,7 @@
       <c r="K95" s="1"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>32</v>
       </c>
@@ -9491,7 +9610,7 @@
       <c r="K96" s="1"/>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>33</v>
       </c>
@@ -9520,7 +9639,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>33</v>
       </c>
@@ -9549,7 +9668,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>33</v>
       </c>
@@ -9579,7 +9698,7 @@
       </c>
       <c r="K99" s="6"/>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>33</v>
       </c>
@@ -9608,7 +9727,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>33</v>
       </c>
@@ -9637,7 +9756,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>34</v>
       </c>
@@ -9663,7 +9782,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>34</v>
       </c>
@@ -9689,7 +9808,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>34</v>
       </c>
@@ -9715,7 +9834,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>35</v>
       </c>
@@ -9741,7 +9860,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>35</v>
       </c>
@@ -9767,7 +9886,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>35</v>
       </c>
@@ -9794,7 +9913,7 @@
       </c>
       <c r="K107" s="6"/>
     </row>
-    <row r="108" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>36</v>
       </c>
@@ -9821,7 +9940,7 @@
       </c>
       <c r="K108" s="6"/>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>36</v>
       </c>
@@ -9847,7 +9966,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>36</v>
       </c>
@@ -9873,7 +9992,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>37</v>
       </c>
@@ -9901,7 +10020,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>37</v>
       </c>
@@ -9929,7 +10048,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>37</v>
       </c>
@@ -9955,7 +10074,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>38</v>
       </c>
@@ -9978,7 +10097,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>39</v>
       </c>
@@ -10003,7 +10122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>39</v>
       </c>
@@ -10027,7 +10146,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>40</v>
       </c>
@@ -10053,7 +10172,7 @@
       </c>
       <c r="K117" s="6"/>
     </row>
-    <row r="118" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>41</v>
       </c>
@@ -10078,7 +10197,7 @@
       </c>
       <c r="K118" s="6"/>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>41</v>
       </c>
@@ -10101,7 +10220,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>41</v>
       </c>
@@ -10126,7 +10245,7 @@
       </c>
       <c r="K120" s="6"/>
     </row>
-    <row r="121" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>42</v>
       </c>
@@ -10153,7 +10272,7 @@
       </c>
       <c r="K121" s="6"/>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>42</v>
       </c>
@@ -10179,7 +10298,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>42</v>
       </c>
@@ -10206,7 +10325,7 @@
       </c>
       <c r="K123" s="6"/>
     </row>
-    <row r="124" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>43</v>
       </c>
@@ -10233,7 +10352,7 @@
       </c>
       <c r="K124" s="6"/>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>43</v>
       </c>
@@ -10259,7 +10378,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>43</v>
       </c>
@@ -10286,7 +10405,7 @@
       </c>
       <c r="K126" s="6"/>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>44</v>
       </c>
@@ -10312,7 +10431,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>44</v>
       </c>
@@ -10338,7 +10457,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>44</v>
       </c>
@@ -10365,7 +10484,7 @@
       </c>
       <c r="K129" s="6"/>
     </row>
-    <row r="130" spans="1:11" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>45</v>
       </c>
@@ -10390,7 +10509,7 @@
       </c>
       <c r="K130" s="6"/>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>45</v>
       </c>
@@ -10413,7 +10532,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>45</v>
       </c>
@@ -10438,18 +10557,59 @@
         <v>186</v>
       </c>
     </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <v>46</v>
+      </c>
+      <c r="B133" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F133" s="7">
+        <v>24</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>46</v>
+      </c>
+      <c r="B134" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" s="7">
+        <v>30</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F134" s="7">
+        <v>24</v>
+      </c>
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M132" xr:uid="{EE19C93D-CC10-4277-8776-D07EDA3FF01D}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Confirmado"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Palma Soriano"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M132">
       <sortCondition ref="A1:A132"/>
     </sortState>
@@ -10462,13 +10622,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5E3218-457F-4398-A6C7-EE32CB90DAE2}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11327,14 +11487,14 @@
         <v>1</v>
       </c>
       <c r="D33" s="20">
-        <f t="shared" ref="D33:D34" si="4">D32+C33</f>
+        <f t="shared" ref="D33:D35" si="4">D32+C33</f>
         <v>45</v>
       </c>
       <c r="E33" s="20">
         <v>8</v>
       </c>
       <c r="F33" s="20">
-        <f t="shared" ref="F33:F34" si="5">D33-E33-G33</f>
+        <f t="shared" ref="F33:F35" si="5">D33-E33-G33</f>
         <v>35</v>
       </c>
       <c r="G33" s="20">
@@ -11375,6 +11535,37 @@
         <v>1</v>
       </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="3">
+        <v>43943</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35" s="20">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
     </row>
@@ -11387,10 +11578,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1813401-288B-4919-BC88-BEDD100C1EB1}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11443,6 +11634,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B3">
+        <v>116</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11450,13 +11655,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AE470-D3D4-4B7B-8904-78477B90993B}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36:E36"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12159,7 +12364,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D36" si="1">B22-C22-E22</f>
+        <f t="shared" ref="D22:D37" si="1">B22-C22-E22</f>
         <v>183</v>
       </c>
       <c r="E22" s="1">
@@ -12551,6 +12756,24 @@
       </c>
       <c r="E36" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>43943</v>
+      </c>
+      <c r="B37" s="1">
+        <v>277</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12563,13 +12786,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13279,6 +13502,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="23">
+        <v>43943</v>
+      </c>
+      <c r="B35" s="21">
+        <v>5</v>
+      </c>
+      <c r="C35" s="21">
+        <v>32</v>
+      </c>
+      <c r="D35" s="21">
+        <v>8</v>
+      </c>
+      <c r="E35" s="21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -13292,13 +13532,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E021415-1778-4B30-A8BD-BEBA75CB7A91}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14611,6 +14851,53 @@
         <v>223</v>
       </c>
     </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>43943</v>
+      </c>
+      <c r="C31" s="16">
+        <v>493</v>
+      </c>
+      <c r="D31" s="16">
+        <v>242</v>
+      </c>
+      <c r="E31" s="16">
+        <v>251</v>
+      </c>
+      <c r="F31" s="16">
+        <v>422</v>
+      </c>
+      <c r="G31" s="16">
+        <v>71</v>
+      </c>
+      <c r="H31" s="16">
+        <v>492</v>
+      </c>
+      <c r="I31" s="16">
+        <v>1</v>
+      </c>
+      <c r="J31" s="16">
+        <v>112</v>
+      </c>
+      <c r="K31" s="16">
+        <v>28</v>
+      </c>
+      <c r="L31" s="16">
+        <v>306</v>
+      </c>
+      <c r="M31" s="16">
+        <v>67</v>
+      </c>
+      <c r="N31" s="16">
+        <v>0</v>
+      </c>
+      <c r="O31" s="16">
+        <v>1</v>
+      </c>
+      <c r="P31" s="27">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14618,13 +14905,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437E6C5D-77A2-49DB-A15A-4AEFF9C341D7}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G34:J37"/>
+      <selection pane="bottomRight" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14642,24 +14929,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -16238,7 +16525,7 @@
       </c>
       <c r="C37" s="7">
         <f t="shared" ref="C37" si="32">IF(EXACT(J37,""),"",SUM(C36+J37))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="7">
         <f t="shared" ref="D37" si="33">IF(EXACT(K37,""),"",SUM(D36+K37))</f>
@@ -16259,7 +16546,7 @@
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="7">
         <v>1</v>
@@ -16271,6 +16558,51 @@
         <v>0</v>
       </c>
       <c r="N37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>43943</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="7">
+        <f t="shared" ref="C38" si="37">IF(EXACT(J38,""),"",SUM(C37+J38))</f>
+        <v>12</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" ref="D38" si="38">IF(EXACT(K38,""),"",SUM(D37+K38))</f>
+        <v>80</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" ref="E38" si="39">IF(EXACT(L38,""),"",SUM(E37+L38))</f>
+        <v>10</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" ref="F38" si="40">IF(EXACT(M38,""),"",SUM(F37+M38))</f>
+        <v>46</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" ref="G38" si="41">IF(EXACT(N38,""),"",SUM(G37+N38))</f>
+        <v>15</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <v>1</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1</v>
+      </c>
+      <c r="N38" s="7">
         <v>1</v>
       </c>
     </row>
@@ -16289,11 +16621,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BC42DC-9BE2-4B28-A5C7-CFAC0465C9D3}">
-  <dimension ref="A1:AR20"/>
+  <dimension ref="A1:AS20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR17" sqref="AR17"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS12" sqref="AS12:AS16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16303,7 +16635,7 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -16436,8 +16768,11 @@
       <c r="AR1" s="20" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS1" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -16568,8 +16903,11 @@
       <c r="AR2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -16700,8 +17038,11 @@
       <c r="AR3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS3" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -16832,8 +17173,11 @@
       <c r="AR4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS4" s="20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -16964,8 +17308,11 @@
       <c r="AR5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS5" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -17096,8 +17443,11 @@
       <c r="AR6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS6" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -17228,8 +17578,11 @@
       <c r="AR7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS7" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -17360,8 +17713,11 @@
       <c r="AR8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS8" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -17492,8 +17848,11 @@
       <c r="AR9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -17624,8 +17983,11 @@
       <c r="AR10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS10" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -17756,8 +18118,11 @@
       <c r="AR11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS11" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -17888,8 +18253,11 @@
       <c r="AR12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS12" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -18020,8 +18388,11 @@
       <c r="AR13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS13" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -18152,8 +18523,11 @@
       <c r="AR14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -18284,8 +18658,11 @@
       <c r="AR15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS15" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -18416,8 +18793,11 @@
       <c r="AR16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS16" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -18548,8 +18928,11 @@
       <c r="AR17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS17" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -18714,11 +19097,15 @@
         <v>52</v>
       </c>
       <c r="AR18" s="20">
-        <f t="shared" ref="AR18" si="15">SUM(AR2:AR17)</f>
+        <f t="shared" ref="AR18:AS18" si="15">SUM(AR2:AR17)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS18" s="20">
+        <f t="shared" si="15"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -18845,8 +19232,11 @@
       <c r="AR19" s="2">
         <v>43941</v>
       </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS19" s="2">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>143</v>
       </c>
@@ -18994,7 +19384,7 @@
         <v>814</v>
       </c>
       <c r="AM20">
-        <f t="shared" ref="AM20:AR20" si="25">SUM(AL20,AM18)</f>
+        <f t="shared" ref="AM20:AS20" si="25">SUM(AL20,AM18)</f>
         <v>862</v>
       </c>
       <c r="AN20" s="20">
@@ -19016,6 +19406,10 @@
       <c r="AR20" s="20">
         <f t="shared" si="25"/>
         <v>1137</v>
+      </c>
+      <c r="AS20" s="20">
+        <f t="shared" si="25"/>
+        <v>1189</v>
       </c>
     </row>
   </sheetData>
